--- a/src/assets.xlsx
+++ b/src/assets.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SFA\das-apply-service\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregdbarnes/Sites/esfa/repositories/das-apply-service/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7B010B0D-BC51-459C-963E-E1B6200DBA29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0360456E-481A-4A4F-AD0B-DA8AFA16AAE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11138" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="27480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="443">
   <si>
     <t>SQ-1-SE-1-PG-11-150</t>
   </si>
@@ -109,9 +109,6 @@
     <t>SQ-1-SE-1-PG-13-173</t>
   </si>
   <si>
-    <t>Director further details</t>
-  </si>
-  <si>
     <t>SQ-1-SE-2-PG-20-D_DEL-13-286</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>SQ-1-SE-1-PG-6-CD-14-90</t>
   </si>
   <si>
-    <t>Does &lt;person named&gt; hold any other positions or directorships of other organisations?</t>
-  </si>
-  <si>
     <t>SQ-1-SE-2-PG-21-A_DEL-25.2-364</t>
   </si>
   <si>
@@ -235,9 +229,6 @@
     <t>SQ-1-SE-1-PG-4-45</t>
   </si>
   <si>
-    <t>Provide contact details that ESFA will use for contract notice if your application is successful</t>
-  </si>
-  <si>
     <t>SQ-1-SE-2-PG-21-A_DEL-28-395</t>
   </si>
   <si>
@@ -406,9 +397,6 @@
     <t>SQ-1-SE-1-PG-9-121</t>
   </si>
   <si>
-    <t>Company Registration Number</t>
-  </si>
-  <si>
     <t>SQ-1-SE-1-PG-3-24</t>
   </si>
   <si>
@@ -418,15 +406,9 @@
     <t>SQ-1-SE-3-PG-23-441</t>
   </si>
   <si>
-    <t>Financial Health Assessment</t>
-  </si>
-  <si>
     <t>SQ-1-SE-1-PG-3-21</t>
   </si>
   <si>
-    <t>Enter your contact details</t>
-  </si>
-  <si>
     <t>SQ-1-SE-1-PG-13-CD-24-182</t>
   </si>
   <si>
@@ -517,9 +499,6 @@
     <t>SQ-1-SE-1-PG-9-CD-17-126</t>
   </si>
   <si>
-    <t>Do you have a Company Registration Number?</t>
-  </si>
-  <si>
     <t>SQ-1-SE-1-PG-15-CD-27.1-212</t>
   </si>
   <si>
@@ -529,9 +508,6 @@
     <t>SQ-1-SE-1-PG-1-1</t>
   </si>
   <si>
-    <t>What employer will see</t>
-  </si>
-  <si>
     <t>SQ-1-SE-1-PG-6-CD-13-86</t>
   </si>
   <si>
@@ -601,9 +577,6 @@
     <t>SQ-1-SE-1-PG-1-4</t>
   </si>
   <si>
-    <t>Registered Company name</t>
-  </si>
-  <si>
     <t>SQ-1-SE-2-PG-21-A_DEL-27-383</t>
   </si>
   <si>
@@ -712,9 +685,6 @@
     <t>SQ-1-SE-1-PG-10-CD-18-138</t>
   </si>
   <si>
-    <t>Is your company incorporated or registered overseas?</t>
-  </si>
-  <si>
     <t>SQ-1-SE-2-PG-21-A_DEL-24.1-351</t>
   </si>
   <si>
@@ -1177,9 +1147,6 @@
     <t>SQ-1-SE-1-PG-14-CD-26.1-198</t>
   </si>
   <si>
-    <t>What is the Registered Charity Number?</t>
-  </si>
-  <si>
     <t>SQ-1-SE-2-PG-15-214</t>
   </si>
   <si>
@@ -1228,9 +1195,6 @@
     <t>SQ-1-SE-1-PG-14-CD-26-194</t>
   </si>
   <si>
-    <t>Is your company a registered charity?</t>
-  </si>
-  <si>
     <t>SQ-1-SE-1-PG-5-CD-12.1-78</t>
   </si>
   <si>
@@ -1348,7 +1312,43 @@
     <t>Do you agree to comply with the terms of the conditions for organisations on the register of end-point assessment organisations (link opens in a new tab) and sign and return the ï¿½Conditions for organisations on the register of end-point assessment organisationsï¿½?</t>
   </si>
   <si>
-    <t>Provide your UK provider registration number (UKPRN)</t>
+    <t>What is your trading name?</t>
+  </si>
+  <si>
+    <t>Trading name</t>
+  </si>
+  <si>
+    <t>Enter contact details</t>
+  </si>
+  <si>
+    <t>Who should we send the contract notice to</t>
+  </si>
+  <si>
+    <t>Provide your UKPRN</t>
+  </si>
+  <si>
+    <t>Do they hold any other positions or directorships of other organisations?</t>
+  </si>
+  <si>
+    <t>Do you have a company number?</t>
+  </si>
+  <si>
+    <t>Is your company registered overseas?</t>
+  </si>
+  <si>
+    <t>Date of incident</t>
+  </si>
+  <si>
+    <t>Further detail of incident</t>
+  </si>
+  <si>
+    <t>What is the registered charity number?</t>
+  </si>
+  <si>
+    <t>Is your organisation a registered charity?</t>
+  </si>
+  <si>
+    <t>Financial health assessment</t>
   </si>
 </sst>
 </file>
@@ -2191,1298 +2191,1301 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="138.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>431</v>
       </c>
       <c r="C1" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A1&amp;"','','"&amp;SUBSTITUTE(B1,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-133','','Part of a group of companies?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-1-1','','Trading name','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>418</v>
+        <v>89</v>
       </c>
       <c r="C2" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A2&amp;"','','"&amp;SUBSTITUTE(B2,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-134','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-1-2','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>431</v>
       </c>
       <c r="C3" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A3&amp;"','','"&amp;SUBSTITUTE(B3,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-136','','Part of a group of companies?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-1-4','','Trading name','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>378</v>
+        <v>286</v>
+      </c>
+      <c r="B4" t="s">
+        <v>287</v>
       </c>
       <c r="C4" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A4&amp;"','','"&amp;SUBSTITUTE(B4,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.1-141','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-1-CD-30-6','','Does your organisation have a trading name?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B5" t="s">
-        <v>277</v>
+        <v>348</v>
       </c>
       <c r="C5" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A5&amp;"','','"&amp;SUBSTITUTE(B5,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.1-142','','Country','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-10','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>349</v>
+      </c>
+      <c r="B6" t="s">
+        <v>350</v>
       </c>
       <c r="C6" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A6&amp;"','','"&amp;SUBSTITUTE(B6,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.1-143','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-12','','Name to use on the Register','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>321</v>
       </c>
       <c r="C7" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A7&amp;"','','"&amp;SUBSTITUTE(B7,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.1-144','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-9','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
       </c>
       <c r="C8" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A8&amp;"','','"&amp;SUBSTITUTE(B8,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.2-145','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01-14','','Do you want to use your trading name on the register?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B9" t="s">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="C9" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A9&amp;"','','"&amp;SUBSTITUTE(B9,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.2-146','','Registration number','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01.1-17','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>273</v>
+        <v>210</v>
+      </c>
+      <c r="B10" t="s">
+        <v>430</v>
       </c>
       <c r="C10" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A10&amp;"','','"&amp;SUBSTITUTE(B10,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.2-147','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01.1-18','','What is your trading name?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="C11" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A11&amp;"','','"&amp;SUBSTITUTE(B11,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.2-148','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01.1-19','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="C12" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A12&amp;"','','"&amp;SUBSTITUTE(B12,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18-138','','Is your company incorporated or registered overseas?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01.1-20','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>432</v>
       </c>
       <c r="C13" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A13&amp;"','','"&amp;SUBSTITUTE(B13,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-1-1','','What employer will see','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-21','','Enter contact details','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>319</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>320</v>
+        <v>6</v>
       </c>
       <c r="C14" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A14&amp;"','','"&amp;SUBSTITUTE(B14,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-149','','Director details','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-22','','&lt;p class="govuk-body"&gt;This information will be published on the Register of end point assessment organisations and will be made available to the public.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
       </c>
       <c r="C15" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A15&amp;"','','"&amp;SUBSTITUTE(B15,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-150','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-24','','Contact details','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="C16" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A16&amp;"','','"&amp;SUBSTITUTE(B16,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-152','','Directors','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-02-26','','Full name','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C17" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A17&amp;"','','"&amp;SUBSTITUTE(B17,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-19-154','','Full name','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-03-30','','Address','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="C18" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A18&amp;"','','"&amp;SUBSTITUTE(B18,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-20-158','','Date of birth','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-04-34','','Post code','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>331</v>
       </c>
       <c r="C19" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A19&amp;"','','"&amp;SUBSTITUTE(B19,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-21-162','','How many shares does the director hold?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-05-38','','Email address','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>361</v>
+      </c>
+      <c r="B20" t="s">
+        <v>285</v>
       </c>
       <c r="C20" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A20&amp;"','','"&amp;SUBSTITUTE(B20,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-1-2','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-06-42','','Telephone','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>247</v>
+        <v>433</v>
       </c>
       <c r="C21" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A21&amp;"','','"&amp;SUBSTITUTE(B21,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-12-165','','Director data','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-45','','Who should we send the contract notice to','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" t="s">
-        <v>429</v>
+        <v>290</v>
       </c>
       <c r="C22" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A22&amp;"','','"&amp;SUBSTITUTE(B22,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-12-166','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;Un-discharged bankruptcy&lt;/li&gt;&lt;li&gt;Composition with creditors&lt;/li&gt;&lt;li&gt;Any form of dispute&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-46','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>238</v>
+        <v>60</v>
       </c>
       <c r="C23" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A23&amp;"','','"&amp;SUBSTITUTE(B23,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-12-168','','Directors data','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-48','','Contract notice contact details','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>381</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C24" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A24&amp;"','','"&amp;SUBSTITUTE(B24,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-12-CD-22-170','','Has any director, or any other person with significant control of your organisation, had one or more of the following?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-07-50','','Full name','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C25" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A25&amp;"','','"&amp;SUBSTITUTE(B25,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-173','','Director further details','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-08-54','','Address','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>382</v>
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
       </c>
       <c r="C26" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A26&amp;"','','"&amp;SUBSTITUTE(B26,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-174','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-09-58','','Post code','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>331</v>
       </c>
       <c r="C27" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A27&amp;"','','"&amp;SUBSTITUTE(B27,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-176','','Director further details','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-10-62','','Email address','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>284</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>285</v>
       </c>
       <c r="C28" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A28&amp;"','','"&amp;SUBSTITUTE(B28,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-23-178','','Date','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-11-66','','Telephone','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>418</v>
       </c>
       <c r="C29" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A29&amp;"','','"&amp;SUBSTITUTE(B29,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-24-182','','Brief summary','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-69','','UK provider registration number (UKPRN)','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B30" t="s">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c r="C30" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A30&amp;"','','"&amp;SUBSTITUTE(B30,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-25-186','','Any outstanding court action or legal proceedings','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-70','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>399</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>418</v>
       </c>
       <c r="C31" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A31&amp;"','','"&amp;SUBSTITUTE(B31,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-1-4','','Registered Company name','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-72','','UK provider registration number (UKPRN)','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="B32" t="s">
-        <v>308</v>
+        <v>425</v>
       </c>
       <c r="C32" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A32&amp;"','','"&amp;SUBSTITUTE(B32,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-189','','Registered charity','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12-74','','Do you have a UK provider registration number (UKPRN)?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C33" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A33&amp;"','','"&amp;SUBSTITUTE(B33,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-190','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12.1-77','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="B34" t="s">
-        <v>308</v>
+        <v>434</v>
       </c>
       <c r="C34" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A34&amp;"','','"&amp;SUBSTITUTE(B34,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-192','','Registered charity','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12.1-78','','Provide your UKPRN','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="C35" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A35&amp;"','','"&amp;SUBSTITUTE(B35,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26.1-197','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12.1-79','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>384</v>
-      </c>
-      <c r="B36" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="C36" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A36&amp;"','','"&amp;SUBSTITUTE(B36,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26.1-198','','What is the Registered Charity Number?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12.1-80','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>404</v>
+        <v>378</v>
+      </c>
+      <c r="B37" t="s">
+        <v>379</v>
       </c>
       <c r="C37" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A37&amp;"','','"&amp;SUBSTITUTE(B37,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26.1-199','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-81','','Who has responsibility for the overall executive management of your organisation?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>360</v>
       </c>
       <c r="C38" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A38&amp;"','','"&amp;SUBSTITUTE(B38,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26.1-200','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-82','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>401</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>402</v>
+        <v>10</v>
       </c>
       <c r="C39" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A39&amp;"','','"&amp;SUBSTITUTE(B39,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26-194','','Is your company a registered charity?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-84','','Overall executive management','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>362</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
-        <v>356</v>
+        <v>35</v>
       </c>
       <c r="C40" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A40&amp;"','','"&amp;SUBSTITUTE(B40,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-201','','Register of Removed Trustees','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-13-86','','Full name','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>163</v>
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>435</v>
       </c>
       <c r="C41" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A41&amp;"','','"&amp;SUBSTITUTE(B41,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-202','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14-90','','Do they hold any other positions or directorships of other organisations?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>355</v>
-      </c>
-      <c r="B42" t="s">
-        <v>356</v>
+        <v>14</v>
       </c>
       <c r="C42" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A42&amp;"','','"&amp;SUBSTITUTE(B42,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-204','','Register of Removed Trustees','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14.1-93','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>182</v>
+        <v>146</v>
+      </c>
+      <c r="B43" t="s">
+        <v>147</v>
       </c>
       <c r="C43" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A43&amp;"','','"&amp;SUBSTITUTE(B43,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27.1-209','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14.1-94','','Provide details','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>345</v>
-      </c>
-      <c r="B44" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C44" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A44&amp;"','','"&amp;SUBSTITUTE(B44,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27.1-210','','Full name','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14.1-95','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="C45" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A45&amp;"','','"&amp;SUBSTITUTE(B45,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27.1-211','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14.1-96','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
       </c>
       <c r="C46" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A46&amp;"','','"&amp;SUBSTITUTE(B46,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27.1-212','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-100','','Ofqual recognition number','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>412</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>413</v>
+        <v>47</v>
       </c>
       <c r="C47" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A47&amp;"','','"&amp;SUBSTITUTE(B47,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27-206','','Has any director, or any other person with significant control of your organisation, been removed from the Charities Commission or appear on the Register of Removed Trustees?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-97','','Ofqual recognition number','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>296</v>
-      </c>
-      <c r="B48" t="s">
-        <v>297</v>
+        <v>84</v>
       </c>
       <c r="C48" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A48&amp;"','','"&amp;SUBSTITUTE(B48,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-1-CD-30-6','','Does your organisation have a trading name?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-98','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>358</v>
+        <v>136</v>
+      </c>
+      <c r="B49" t="s">
+        <v>137</v>
       </c>
       <c r="C49" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A49&amp;"','','"&amp;SUBSTITUTE(B49,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-10','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15-102','','Do you have an Ofqual recognition number?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>359</v>
-      </c>
-      <c r="B50" t="s">
-        <v>360</v>
+        <v>94</v>
       </c>
       <c r="C50" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A50&amp;"','','"&amp;SUBSTITUTE(B50,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-12','','Name to use on the Register','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15.1-105','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>331</v>
+        <v>288</v>
+      </c>
+      <c r="B51" t="s">
+        <v>289</v>
       </c>
       <c r="C51" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A51&amp;"','','"&amp;SUBSTITUTE(B51,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-9','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15.1-106','','Provide us with your Ofqual recognition number','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>407</v>
       </c>
       <c r="C52" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A52&amp;"','','"&amp;SUBSTITUTE(B52,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01.1-17','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15.1-107','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="C53" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A53&amp;"','','"&amp;SUBSTITUTE(B53,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01.1-18','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15.1-108','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>261</v>
+        <v>364</v>
+      </c>
+      <c r="B54" t="s">
+        <v>258</v>
       </c>
       <c r="C54" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A54&amp;"','','"&amp;SUBSTITUTE(B54,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01.1-19','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-109','','Trading status','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>293</v>
       </c>
       <c r="C55" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A55&amp;"','','"&amp;SUBSTITUTE(B55,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01.1-20','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-110','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>257</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>258</v>
       </c>
       <c r="C56" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A56&amp;"','','"&amp;SUBSTITUTE(B56,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01-14','','Do you want to use your trading name on the register?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-112','','Trading status','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C57" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A57&amp;"','','"&amp;SUBSTITUTE(B57,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-21','','Enter your contact details','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16-114','','What''s your trading status?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="C58" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A58&amp;"','','"&amp;SUBSTITUTE(B58,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-22','','&lt;p class="govuk-body"&gt;This information will be published on the Register of end point assessment organisations and will be made available to the public.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16.1-117','','Describe your trading status','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" t="s">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="C59" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A59&amp;"','','"&amp;SUBSTITUTE(B59,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-24','','Contact details','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16.1-118','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>200</v>
-      </c>
-      <c r="B60" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="C60" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A60&amp;"','','"&amp;SUBSTITUTE(B60,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-02-26','','Full name','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16.1-119','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>113</v>
-      </c>
-      <c r="B61" t="s">
-        <v>8</v>
+        <v>316</v>
       </c>
       <c r="C61" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A61&amp;"','','"&amp;SUBSTITUTE(B61,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-03-30','','Address','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16.1-120','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>424</v>
       </c>
       <c r="C62" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A62&amp;"','','"&amp;SUBSTITUTE(B62,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-04-34','','Post code','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-121','','Company number','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>340</v>
-      </c>
-      <c r="B63" t="s">
-        <v>341</v>
+        <v>4</v>
       </c>
       <c r="C63" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A63&amp;"','','"&amp;SUBSTITUTE(B63,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-05-38','','Email address','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-122','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="B64" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="C64" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A64&amp;"','','"&amp;SUBSTITUTE(B64,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-06-42','','Telephone','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-124','','Company number','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>436</v>
       </c>
       <c r="C65" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A65&amp;"','','"&amp;SUBSTITUTE(B65,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-45','','Provide contact details that ESFA will use for contract notice if your application is successful','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17-126','','Do you have a company number?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="C66" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A66&amp;"','','"&amp;SUBSTITUTE(B66,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-46','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17.1-129','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C67" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A67&amp;"','','"&amp;SUBSTITUTE(B67,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-48','','Contract notice contact details','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17.1-130','','What is your number','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>392</v>
-      </c>
-      <c r="B68" t="s">
-        <v>36</v>
+        <v>409</v>
       </c>
       <c r="C68" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A68&amp;"','','"&amp;SUBSTITUTE(B68,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-07-50','','Full name','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17.1-131','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="C69" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A69&amp;"','','"&amp;SUBSTITUTE(B69,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-08-54','','Address','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17.1-132','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C70" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A70&amp;"','','"&amp;SUBSTITUTE(B70,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-09-58','','Post code','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-133','','Part of a group of companies?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>361</v>
-      </c>
-      <c r="B71" t="s">
-        <v>341</v>
+        <v>406</v>
       </c>
       <c r="C71" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A71&amp;"','','"&amp;SUBSTITUTE(B71,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-10-62','','Email address','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-134','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="C72" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A72&amp;"','','"&amp;SUBSTITUTE(B72,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-11-66','','Telephone','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-136','','Part of a group of companies?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="B73" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="C73" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A73&amp;"','','"&amp;SUBSTITUTE(B73,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-69','','UK provider registration number (UKPRN)','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18-138','','Is your company registered overseas?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>289</v>
+        <v>368</v>
       </c>
       <c r="C74" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A74&amp;"','','"&amp;SUBSTITUTE(B74,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-70','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.1-141','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>411</v>
+        <v>266</v>
       </c>
       <c r="B75" t="s">
-        <v>430</v>
+        <v>267</v>
       </c>
       <c r="C75" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A75&amp;"','','"&amp;SUBSTITUTE(B75,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-72','','UK provider registration number (UKPRN)','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.1-142','','Country','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>140</v>
+        <v>402</v>
       </c>
       <c r="C76" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A76&amp;"','','"&amp;SUBSTITUTE(B76,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12.1-77','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.1-143','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>403</v>
-      </c>
-      <c r="B77" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="C77" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A77&amp;"','','"&amp;SUBSTITUTE(B77,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12.1-78','','Provide your UK provider registration number (UKPRN)','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.1-144','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>379</v>
+        <v>165</v>
       </c>
       <c r="C78" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A78&amp;"','','"&amp;SUBSTITUTE(B78,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12.1-79','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.2-145','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>420</v>
+        <v>299</v>
+      </c>
+      <c r="B79" t="s">
+        <v>300</v>
       </c>
       <c r="C79" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A79&amp;"','','"&amp;SUBSTITUTE(B79,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12.1-80','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.2-146','','Registration number','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>332</v>
-      </c>
-      <c r="B80" t="s">
-        <v>437</v>
+        <v>263</v>
       </c>
       <c r="C80" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A80&amp;"','','"&amp;SUBSTITUTE(B80,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12-74','','Do you have a UK provider registration number (UKPRN)?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.2-147','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>389</v>
-      </c>
-      <c r="B81" t="s">
-        <v>390</v>
+        <v>167</v>
       </c>
       <c r="C81" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A81&amp;"','','"&amp;SUBSTITUTE(B81,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-81','','Who has responsibility for the overall executive management of your organisation?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.2-148','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>370</v>
+        <v>309</v>
+      </c>
+      <c r="B82" t="s">
+        <v>310</v>
       </c>
       <c r="C82" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A82&amp;"','','"&amp;SUBSTITUTE(B82,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-82','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-149','','Director details','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C83" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A83&amp;"','','"&amp;SUBSTITUTE(B83,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-84','','Overall executive management','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-150','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C84" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A84&amp;"','','"&amp;SUBSTITUTE(B84,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-13-86','','Full name','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-152','','Directors','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>363</v>
+      </c>
+      <c r="B85" t="s">
+        <v>35</v>
       </c>
       <c r="C85" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A85&amp;"','','"&amp;SUBSTITUTE(B85,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14.1-93','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-19-154','','Full name','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="B86" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="C86" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A86&amp;"','','"&amp;SUBSTITUTE(B86,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14.1-94','','Provide details','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-20-158','','Date of birth','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>117</v>
+      </c>
+      <c r="B87" t="s">
+        <v>118</v>
       </c>
       <c r="C87" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A87&amp;"','','"&amp;SUBSTITUTE(B87,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14.1-95','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-21-162','','How many shares does the director hold?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>114</v>
+        <v>236</v>
+      </c>
+      <c r="B88" t="s">
+        <v>237</v>
       </c>
       <c r="C88" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A88&amp;"','','"&amp;SUBSTITUTE(B88,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14.1-96','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-12-165','','Director data','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>44</v>
+        <v>417</v>
       </c>
       <c r="C89" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A89&amp;"','','"&amp;SUBSTITUTE(B89,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14-90','','Does &lt;person named&gt; hold any other positions or directorships of other organisations?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-12-166','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;Un-discharged bankruptcy&lt;/li&gt;&lt;li&gt;Composition with creditors&lt;/li&gt;&lt;li&gt;Any form of dispute&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="C90" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A90&amp;"','','"&amp;SUBSTITUTE(B90,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-100','','Ofqual recognition number','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-12-168','','Directors data','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s">
         <v>49</v>
       </c>
       <c r="C91" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A91&amp;"','','"&amp;SUBSTITUTE(B91,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-97','','Ofqual recognition number','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-12-CD-22-170','','Has any director, or any other person with significant control of your organisation, had one or more of the following?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>28</v>
+      </c>
+      <c r="B92" t="s">
+        <v>439</v>
       </c>
       <c r="C92" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A92&amp;"','','"&amp;SUBSTITUTE(B92,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-98','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-173','','Further detail of incident','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>372</v>
       </c>
       <c r="C93" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A93&amp;"','','"&amp;SUBSTITUTE(B93,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15.1-105','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-174','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>298</v>
+        <v>356</v>
       </c>
       <c r="B94" t="s">
-        <v>299</v>
+        <v>439</v>
       </c>
       <c r="C94" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A94&amp;"','','"&amp;SUBSTITUTE(B94,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15.1-106','','Provide us with your Ofqual recognition number','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-176','','Further detail of incident','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>419</v>
+        <v>132</v>
+      </c>
+      <c r="B95" t="s">
+        <v>438</v>
       </c>
       <c r="C95" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A95&amp;"','','"&amp;SUBSTITUTE(B95,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15.1-107','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-23-178','','Date of incident','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>129</v>
+      </c>
+      <c r="B96" t="s">
+        <v>130</v>
       </c>
       <c r="C96" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A96&amp;"','','"&amp;SUBSTITUTE(B96,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15.1-108','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-24-182','','Brief summary','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B97" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C97" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A97&amp;"','','"&amp;SUBSTITUTE(B97,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15-102','','Do you have an Ofqual recognition number?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-25-186','','Any outstanding court action or legal proceedings','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>374</v>
+        <v>297</v>
       </c>
       <c r="B98" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="C98" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A98&amp;"','','"&amp;SUBSTITUTE(B98,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-109','','Trading status','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-189','','Registered charity','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>303</v>
+        <v>151</v>
       </c>
       <c r="C99" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A99&amp;"','','"&amp;SUBSTITUTE(B99,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-110','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-190','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>267</v>
+        <v>339</v>
       </c>
       <c r="B100" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="C100" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A100&amp;"','','"&amp;SUBSTITUTE(B100,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-112','','Trading status','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-192','','Registered charity','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>37</v>
+        <v>390</v>
       </c>
       <c r="B101" t="s">
-        <v>275</v>
+        <v>441</v>
       </c>
       <c r="C101" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A101&amp;"','','"&amp;SUBSTITUTE(B101,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16.1-117','','Describe your trading status','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26-194','','Is your organisation a registered charity?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="C102" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A102&amp;"','','"&amp;SUBSTITUTE(B102,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16.1-118','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26.1-197','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>137</v>
+        <v>374</v>
+      </c>
+      <c r="B103" t="s">
+        <v>440</v>
       </c>
       <c r="C103" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A103&amp;"','','"&amp;SUBSTITUTE(B103,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16.1-119','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26.1-198','','What is the registered charity number?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="C104" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A104&amp;"','','"&amp;SUBSTITUTE(B104,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16.1-120','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26.1-199','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>145</v>
-      </c>
-      <c r="B105" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="C105" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A105&amp;"','','"&amp;SUBSTITUTE(B105,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16-114','','What''s your trading status?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26.1-200','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>352</v>
       </c>
       <c r="B106" t="s">
-        <v>128</v>
+        <v>346</v>
       </c>
       <c r="C106" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A106&amp;"','','"&amp;SUBSTITUTE(B106,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-121','','Company Registration Number','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-201','','Register of Removed Trustees','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="C107" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A107&amp;"','','"&amp;SUBSTITUTE(B107,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-122','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-202','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="B108" t="s">
-        <v>436</v>
+        <v>346</v>
       </c>
       <c r="C108" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A108&amp;"','','"&amp;SUBSTITUTE(B108,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-124','','Company number','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-204','','Register of Removed Trustees','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>172</v>
+        <v>400</v>
+      </c>
+      <c r="B109" t="s">
+        <v>401</v>
       </c>
       <c r="C109" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A109&amp;"','','"&amp;SUBSTITUTE(B109,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17.1-129','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27-206','','Has any director, or any other person with significant control of your organisation, been removed from the Charities Commission or appear on the Register of Removed Trustees?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>20</v>
-      </c>
-      <c r="B110" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="C110" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A110&amp;"','','"&amp;SUBSTITUTE(B110,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17.1-130','','What is your number','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27.1-209','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>421</v>
+        <v>335</v>
+      </c>
+      <c r="B111" t="s">
+        <v>35</v>
       </c>
       <c r="C111" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A111&amp;"','','"&amp;SUBSTITUTE(B111,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17.1-131','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27.1-210','','Full name','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="C112" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A112&amp;"','','"&amp;SUBSTITUTE(B112,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17.1-132','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27.1-211','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>164</v>
-      </c>
-      <c r="B113" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C113" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A113&amp;"','','"&amp;SUBSTITUTE(B113,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17-126','','Do you have a Company Registration Number?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27.1-212','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B114" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C114" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A114&amp;"','','"&amp;SUBSTITUTE(B114,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-213','','Authoriser details','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B115" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C115" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A115&amp;"','','"&amp;SUBSTITUTE(B115,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-214','','&lt;p class="govuk-body"&gt;Who is signing your application?&lt;/p&gt;&lt;p class="govuk-body"&gt;Include the name and job title of the person named as authoriser.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B116" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C116" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A116&amp;"','','"&amp;SUBSTITUTE(B116,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-216','','Invitation to Apply','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B117" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C117" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A117&amp;"','','"&amp;SUBSTITUTE(B117,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-W_DEL-01-218','','Name','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="B118" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C118" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A118&amp;"','','"&amp;SUBSTITUTE(B118,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-W_DEL-01-219','','Name','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -3494,9 +3497,9 @@
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-W_DEL-02-222','','Job title','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B120" t="s">
         <v>12</v>
@@ -3506,1941 +3509,1941 @@
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-W_DEL-02-223','','Job title','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B121" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C121" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A121&amp;"','','"&amp;SUBSTITUTE(B121,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-17-225','','Terms and conditions','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B122" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C122" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A122&amp;"','','"&amp;SUBSTITUTE(B122,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-17-226','','&lt;p class="govuk-body"&gt;If you make an application to be added to the register, youï¿½re agreeing to the terms and conditions in the legal documentation.&lt;/p&gt;&lt;p class="govuk-body"&gt;You must be able to truthfully answer ï¿½yesï¿½ to every question on this page for your application to be considered eligible.&lt;/p&gt;&lt;p class="govuk-body"&gt;If you canï¿½t answer ï¿½yesï¿½ to every question on this page, itï¿½s very unlikely that your application will be accepted.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B123" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C123" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A123&amp;"','','"&amp;SUBSTITUTE(B123,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-17-228','','Terms and conditions','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B124" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="C124" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A124&amp;"','','"&amp;SUBSTITUTE(B124,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-17-W_DEL-03-230','','Do you agree to comply with the terms of the conditions for organisations on the register of end-point assessment organisations (link opens in a new tab) and sign and return the ï¿½Conditions for organisations on the register of end-point assessment organisationsï¿½?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B125" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C125" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A125&amp;"','','"&amp;SUBSTITUTE(B125,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-17-W_DEL-03-231','','Terms and conditions','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B126" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C126" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A126&amp;"','','"&amp;SUBSTITUTE(B126,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-233','','Providing services straight away','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C127" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A127&amp;"','','"&amp;SUBSTITUTE(B127,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-234','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B128" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C128" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A128&amp;"','','"&amp;SUBSTITUTE(B128,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-236','','Providing services straight away','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>367</v>
+        <v>144</v>
+      </c>
+      <c r="B129" t="s">
+        <v>145</v>
       </c>
       <c r="C129" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A129&amp;"','','"&amp;SUBSTITUTE(B129,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04.1-241','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04-238','','If your application is successful, can you start an end-point assessment on the day you join the RoEPAO?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>318</v>
+        <v>371</v>
       </c>
       <c r="B130" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="C130" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A130&amp;"','','"&amp;SUBSTITUTE(B130,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04.1-242','','When will you be ready to do your first assessments?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04-239','','Providing services straight away','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>22</v>
-      </c>
-      <c r="B131" t="s">
-        <v>23</v>
+        <v>357</v>
       </c>
       <c r="C131" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A131&amp;"','','"&amp;SUBSTITUTE(B131,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04.1-243','','When will you be ready to do your first assessments?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04.1-241','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>32</v>
+        <v>308</v>
+      </c>
+      <c r="B132" t="s">
+        <v>23</v>
       </c>
       <c r="C132" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A132&amp;"','','"&amp;SUBSTITUTE(B132,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04.1-244','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04.1-242','','When will you be ready to do your first assessments?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="B133" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="C133" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A133&amp;"','','"&amp;SUBSTITUTE(B133,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04-238','','If your application is successful, can you start an end-point assessment on the day you join the RoEPAO?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04.1-243','','When will you be ready to do your first assessments?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>381</v>
-      </c>
-      <c r="B134" t="s">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="C134" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A134&amp;"','','"&amp;SUBSTITUTE(B134,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04-239','','Providing services straight away','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04.1-244','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B135" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C135" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A135&amp;"','','"&amp;SUBSTITUTE(B135,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-245','','Grounds for Mandatory exclusion','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B136" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="C136" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A136&amp;"','','"&amp;SUBSTITUTE(B136,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-246','','&lt;p class="govuk-body"&gt;You must be able to truthfully answer ï¿½noï¿½ to every question under ï¿½Grounds for mandatory exclusionï¿½ for your application to be considered eligible. If you canï¿½t answer ï¿½noï¿½ to every question in this section, itï¿½s very unlikely that your application will be accepted.&lt;/p&gt;&lt;p class="govuk-body"&gt;In the next series of questions under grounds for mandatory exclusion, ï¿½anyone who represents, supervises or has control in your organisation or a partner or parent organisationï¿½ includes members of your group of economic operators, their proposed subcontractors, and any directors, partners, or any other person who has powers of representation, decision or control.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B137" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C137" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A137&amp;"','','"&amp;SUBSTITUTE(B137,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-248','','Grounds for Mandatory exclusion','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B138" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C138" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A138&amp;"','','"&amp;SUBSTITUTE(B138,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-05-250','','I understand and accept that:','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B139" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C139" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A139&amp;"','','"&amp;SUBSTITUTE(B139,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-05-251','','I understand and accept that:','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B140" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C140" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A140&amp;"','','"&amp;SUBSTITUTE(B140,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-05-252','','&lt;p class="govuk-body"&gt;Information cannot be amended after the application has been submitted and reviewed,the Education and Skills Funding Agency may at its sole discretion use information it already holds, obtains from other Government bodies or which is already in the public domain to validate part or all of any answer we have given in this submission and the information obtained may be shared with employers to assist them in their selection process,the Education and Skills Funding Agency may seek additional assurances from my organisation based on this information.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B141" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C141" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A141&amp;"','','"&amp;SUBSTITUTE(B141,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-06-254','','I confirm that the information to be uploaded in response to the Financial Health Assessment complies with the requirements stated in the ''Guidance for Applicants'' document.','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B142" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C142" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A142&amp;"','','"&amp;SUBSTITUTE(B142,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-06-255','','I confirm that the information to be uploaded in response to the Financial Health Assessment complies with the requirements stated in the ''Guidance for Applicants'' document.','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C143" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A143&amp;"','','"&amp;SUBSTITUTE(B143,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-06-256','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B144" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C144" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A144&amp;"','','"&amp;SUBSTITUTE(B144,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-07-258','','Do you agree to inform the Education and Skills Funding Agency as soon as possible if there are any changes to the information youï¿½re providing in this declaration?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B145" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C145" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A145&amp;"','','"&amp;SUBSTITUTE(B145,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-07-259','','Do you agree to inform the Education and Skills Funding Agency as soon as possible if there are any changes to the information youï¿½re providing in this declaration?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C146" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A146&amp;"','','"&amp;SUBSTITUTE(B146,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-07-260','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B147" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C147" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A147&amp;"','','"&amp;SUBSTITUTE(B147,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-08-262','','I can confirm that we have read the conditions of acceptance and that we would be able to agree to these if our application is successful?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B148" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C148" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A148&amp;"','','"&amp;SUBSTITUTE(B148,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-08-263','','Condition of acceptance','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C149" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A149&amp;"','','"&amp;SUBSTITUTE(B149,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-08-264','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B150" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C150" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A150&amp;"','','"&amp;SUBSTITUTE(B150,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-09-266','','Confirm whether, within the past 5 years, anyone who represents, supervises or has control in your organisation or a partner or parent organisations has been convicted of:','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B151" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C151" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A151&amp;"','','"&amp;SUBSTITUTE(B151,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-09-267','','Organised crime or conspiracy convictions','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B152" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="C152" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A152&amp;"','','"&amp;SUBSTITUTE(B152,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-09-268','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;any offence under sections 44 to 46 of the Serious Crime Act 2007 which relates to an offence covered by subparagraph (f)&lt;/li&gt;&lt;li&gt;conspiracy within the meaning of section 1 or 1A of the Criminal Law Act 1977&lt;/li&gt;&lt;li&gt;conspiracy within the meaning of article 9 or 9A of the Criminal Attempts and Conspiracy (Northern Ireland) Order 1983 where that conspiracy relates to participation in a criminal organisation as defined in Article 2 of Council Framework Decision 2008/842/JHA on the fight against organised crime&lt;/li&gt;&lt;/ul&gt;&lt;p class="govuk-body"&gt;Answer ï¿½yesï¿½ if anyone who represents, supervises or has control in your organisation or a partner or parent organisation has been convicted of any of the above.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>13</v>
       </c>
       <c r="B153" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C153" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A153&amp;"','','"&amp;SUBSTITUTE(B153,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-10-270','','Confirm whether, within the past 5 years, anyone who represents, supervises or has control in your organisation or a partner or parent organisations has been convicted of any offence that relates to fraud affecting the European Communitiesï¿½ financial interests as defined by article 1 of the Convention of the Protection of the Financial Interests of the European Communities, including:','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B154" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C154" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A154&amp;"','','"&amp;SUBSTITUTE(B154,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-10-271','','Bribery or corruption convictions','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B155" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="C155" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A155&amp;"','','"&amp;SUBSTITUTE(B155,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-10-272','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;the common law offence of cheating the Revenue (HMRC)&lt;/li&gt;&lt;li&gt;the common law offence of conspiracy to defraud&lt;/li&gt;&lt;li&gt;fraud or theft within the meaning of the Theft Act 1968, the Theft Act (Northern Ireland) 1969, the Theft Act 1978 or the Theft (Northern Ireland) Order 1978&lt;/li&gt;&lt;li&gt;fraudulent trading within the meaning of section 458 of the Companies Act 1985, article 451 of the Companies (Northern Ireland) Order 1986 or section 993 of the Companies Act 2006&lt;/li&gt;&lt;li&gt;fraudulent evasion within the meaning of section 170 of the Customs and Excise Management Act 1979 or section 72 of the Value Added Tax Act 1994&lt;/li&gt;&lt;li&gt;an offence in connection with taxation in the European Union within the meaning of section 71 of the Criminal Justice Act 1993&lt;/li&gt;&lt;li&gt;destroying, defacing or concealing of documents or procuring the execution of a valuable security within the meaning of section 20 of the Theft Act 1968 or section 19 of the Theft Act (Northern Ireland) 1969&lt;/li&gt;&lt;li&gt;fraud within the meaning of section 2, 3 or 4 of the Fraud Act 2006&lt;/li&gt;&lt;li&gt;the possession of articles for use in frauds within the meaning of section 6 of the Fraud Act 2006, or the making, adapting, supplying or offering to supply articles for use in frauds within the meaning of section 7 of that Act&lt;/li&gt;&lt;/ul&gt;&lt;p class="govuk-body"&gt;Answer ï¿½yesï¿½ if anyone who represents, supervises or has control in your organisation or a partner or parent organisation has been convicted of any of the above.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B156" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C156" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A156&amp;"','','"&amp;SUBSTITUTE(B156,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-11-274','','Confirm whether, within the past 5 years, anyone who represents, supervises or has control in your organisation or a partner or parent organisation has been convicted of any offence listed in:','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B157" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C157" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A157&amp;"','','"&amp;SUBSTITUTE(B157,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-11-275','','Terrorism convictions','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>17</v>
       </c>
       <c r="B158" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C158" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A158&amp;"','','"&amp;SUBSTITUTE(B158,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-11-276','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;section 41 of the Counter Terrorism Act 2008&lt;/li&gt;&lt;li&gt;schedule 2 of the Counter Terrorism Act 2008 where the court has determined that there is a terrorist connection&lt;/li&gt;&lt;li&gt;any offence under sections 44 to 46 of the Serious Crime Act 2007&lt;/li&gt;&lt;/ul&gt;&lt;p class="govuk-body"&gt;Answer ï¿½yesï¿½ if anyone who represents, supervises or has control in your organisation or a partner or parent organisation has been convicted of any of the above.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B159" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C159" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A159&amp;"','','"&amp;SUBSTITUTE(B159,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-12-278','','Confirm whether, within the past 5 years, anyone who represents, supervises or has control in your organisation or a partner or parent organisation has been convicted of:','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B160" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C160" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A160&amp;"','','"&amp;SUBSTITUTE(B160,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-12-279','','Criminal conducts','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B161" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C161" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A161&amp;"','','"&amp;SUBSTITUTE(B161,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-12-280','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;money laundering within the meaning of sections 340(11) and 415 of the Proceeds of Crime Act 2002&lt;/li&gt;&lt;li&gt;an offence in connection with the proceeds of criminal conduct within the meaning of section 93A, 93B or 93C of the Criminal Justice Act 1988 or article 45, 46 or 47 of the Proceeds of Crime (Northern Ireland) Order 1996&lt;/li&gt;&lt;li&gt;an offence under section 4 of the Asylum and Immigration (Treatment of Claimants etc) Act 2004&lt;/li&gt;&lt;li&gt;an offence under section 59A of the Sexual Offences Act 2003&lt;/li&gt;&lt;li&gt;an offence under section 71 of the Coroners and Justice Act 2009&lt;/li&gt;&lt;li&gt;an offence in connection with the proceeds of drug trafficking within the meaning of section 49, 50 and 51 of the Drug Trafficking Act 1994&lt;/li&gt;&lt;/ul&gt;&lt;p class="govuk-body"&gt;Answer ï¿½yesï¿½ if anyone who represents, supervises or has control in your organisation or a partner or parent organisation has been convicted of any of the above.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>329</v>
+        <v>64</v>
       </c>
       <c r="B162" t="s">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="C162" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A162&amp;"','','"&amp;SUBSTITUTE(B162,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-297','','Bankruptcy and Insolvency details','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-281','','Grounds for discretionary exclusion','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>228</v>
+        <v>92</v>
+      </c>
+      <c r="B163" t="s">
+        <v>413</v>
       </c>
       <c r="C163" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A163&amp;"','','"&amp;SUBSTITUTE(B163,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-298','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-282','','&lt;p class="govuk-body"&gt;Information cannot be amended after the application has been submitted and reviewed,the Education and Skills Funding Agency may at its sole discretion use information it already holds, obtains from other Government bodies or which is already in the public domain to validate part or all of any answer we have given in this submission and the information obtained may be shared with employers to assist them in their selection process,the Education and Skills Funding Agency may seek additional assurances from my organisation based on this information.&lt;/p&gt; &lt;p class="govuk-body"&gt;You must be able to truthfully answer ï¿½noï¿½ to every question under ï¿½Grounds for discretionary exclusionï¿½ for your application to be considered eligible. If you canï¿½t answer ï¿½noï¿½, your application may not be accepted.&lt;/p&gt;&lt;p class="govuk-body"&gt;If you do answer ï¿½yesï¿½, you must provide full details of any subsequent event or remedial action that you think the Education and Skills Funding Agency (ESFA) should take into consideration. ESFA will use the information you provide to consider whether or not you will be able to proceed any further with this application.&lt;/p&gt;&lt;p class="govuk-body"&gt;''A partner organisation'' includes members of your group of economic operators or their proposed subcontractors.&lt;/p&gt;&lt;p class="govuk-body"&gt;ESFA can also exclude you if you are guilty of serious misrepresentation in providing any information referred to within regulations 23 (link opens in a new tab), 24 (new tab), 25 (new tab), 26 (new tab) or 27 (new tab) of the Public Contracts Regulations 2015 (new tab) or if you fail to provide any such information it requests.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>338</v>
+        <v>398</v>
       </c>
       <c r="B164" t="s">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="C164" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A164&amp;"','','"&amp;SUBSTITUTE(B164,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-300','','Bankruptcy and Insolvency details','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-284','','Grounds for discretionary exclusion','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>266</v>
+        <v>29</v>
       </c>
       <c r="B165" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="C165" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A165&amp;"','','"&amp;SUBSTITUTE(B165,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-302','','Type of proceeding','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13-286','','Have members of your organisation or a partner organisation been legally found to be in breach of tax payments or social security contributions?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="B166" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="C166" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A166&amp;"','','"&amp;SUBSTITUTE(B166,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-303','','Type of proceeding','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13-287','','In breach of tax payments','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="C167" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A167&amp;"','','"&amp;SUBSTITUTE(B167,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-304','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13-288','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>377</v>
-      </c>
-      <c r="B168" t="s">
-        <v>203</v>
+        <v>325</v>
       </c>
       <c r="C168" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A168&amp;"','','"&amp;SUBSTITUTE(B168,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-306','','Date of proceedings','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13.1-289','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="C169" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A169&amp;"','','"&amp;SUBSTITUTE(B169,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-307','','Date of proceedings','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13.1-290','','Provide details whether you''ve paid, or have entered into a binding arrangement with a view to paying, including, where applicable, any accrued interest and/or fines.','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="C170" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A170&amp;"','','"&amp;SUBSTITUTE(B170,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-308','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13.1-291','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>111</v>
-      </c>
-      <c r="B171" t="s">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="C171" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A171&amp;"','','"&amp;SUBSTITUTE(B171,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-310','','If repaying debts, how you are repaying the debt?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13.1-292','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="B172" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C172" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A172&amp;"','','"&amp;SUBSTITUTE(B172,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-311','','If repaying debts, how you are repaying the debt?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-14-294','','Confirm whether, within the past 3 years, your organisation or any of your partner organisations:','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>236</v>
+        <v>40</v>
+      </c>
+      <c r="B173" t="s">
+        <v>41</v>
       </c>
       <c r="C173" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A173&amp;"','','"&amp;SUBSTITUTE(B173,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-312','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-14-295','','Bankruptcy and Insolvency','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c r="B174" t="s">
-        <v>249</v>
+        <v>115</v>
       </c>
       <c r="C174" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A174&amp;"','','"&amp;SUBSTITUTE(B174,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-314','','Date the debt will be cleared','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-14-296','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;has been made bankrupt or the subject of insolvency or winding-up proceedings&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>399</v>
+        <v>319</v>
       </c>
       <c r="B175" t="s">
-        <v>249</v>
+        <v>320</v>
       </c>
       <c r="C175" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A175&amp;"','','"&amp;SUBSTITUTE(B175,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-315','','Date the debt will be cleared','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-297','','Bankruptcy and Insolvency details','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C176" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A176&amp;"','','"&amp;SUBSTITUTE(B176,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-316','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-298','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>66</v>
+        <v>328</v>
       </c>
       <c r="B177" t="s">
-        <v>67</v>
+        <v>320</v>
       </c>
       <c r="C177" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A177&amp;"','','"&amp;SUBSTITUTE(B177,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-281','','Grounds for discretionary exclusion','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-300','','Bankruptcy and Insolvency details','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="B178" t="s">
-        <v>425</v>
+        <v>142</v>
       </c>
       <c r="C178" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A178&amp;"','','"&amp;SUBSTITUTE(B178,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-282','','&lt;p class="govuk-body"&gt;Information cannot be amended after the application has been submitted and reviewed,the Education and Skills Funding Agency may at its sole discretion use information it already holds, obtains from other Government bodies or which is already in the public domain to validate part or all of any answer we have given in this submission and the information obtained may be shared with employers to assist them in their selection process,the Education and Skills Funding Agency may seek additional assurances from my organisation based on this information.&lt;/p&gt; &lt;p class="govuk-body"&gt;You must be able to truthfully answer ï¿½noï¿½ to every question under ï¿½Grounds for discretionary exclusionï¿½ for your application to be considered eligible. If you canï¿½t answer ï¿½noï¿½, your application may not be accepted.&lt;/p&gt;&lt;p class="govuk-body"&gt;If you do answer ï¿½yesï¿½, you must provide full details of any subsequent event or remedial action that you think the Education and Skills Funding Agency (ESFA) should take into consideration. ESFA will use the information you provide to consider whether or not you will be able to proceed any further with this application.&lt;/p&gt;&lt;p class="govuk-body"&gt;''A partner organisation'' includes members of your group of economic operators or their proposed subcontractors.&lt;/p&gt;&lt;p class="govuk-body"&gt;ESFA can also exclude you if you are guilty of serious misrepresentation in providing any information referred to within regulations 23 (link opens in a new tab), 24 (new tab), 25 (new tab), 26 (new tab) or 27 (new tab) of the Public Contracts Regulations 2015 (new tab) or if you fail to provide any such information it requests.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-302','','Type of proceeding','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>410</v>
+        <v>141</v>
       </c>
       <c r="B179" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="C179" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A179&amp;"','','"&amp;SUBSTITUTE(B179,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-284','','Grounds for discretionary exclusion','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-303','','Type of proceeding','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C180" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A180&amp;"','','"&amp;SUBSTITUTE(B180,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13.1-289','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-304','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>176</v>
+        <v>367</v>
       </c>
       <c r="B181" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C181" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A181&amp;"','','"&amp;SUBSTITUTE(B181,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13.1-290','','Provide details whether you''ve paid, or have entered into a binding arrangement with a view to paying, including, where applicable, any accrued interest and/or fines.','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-306','','Date of proceedings','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>347</v>
+        <v>193</v>
+      </c>
+      <c r="B182" t="s">
+        <v>194</v>
       </c>
       <c r="C182" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A182&amp;"','','"&amp;SUBSTITUTE(B182,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13.1-291','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-307','','Date of proceedings','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="C183" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A183&amp;"','','"&amp;SUBSTITUTE(B183,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13.1-292','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-308','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="B184" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="C184" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A184&amp;"','','"&amp;SUBSTITUTE(B184,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13-286','','Have members of your organisation or a partner organisation been legally found to be in breach of tax payments or social security contributions?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-310','','If repaying debts, how you are repaying the debt?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="C185" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A185&amp;"','','"&amp;SUBSTITUTE(B185,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13-287','','In breach of tax payments','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-311','','If repaying debts, how you are repaying the debt?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>324</v>
+        <v>226</v>
       </c>
       <c r="C186" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A186&amp;"','','"&amp;SUBSTITUTE(B186,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13-288','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-312','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>99</v>
+        <v>238</v>
       </c>
       <c r="B187" t="s">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c r="C187" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A187&amp;"','','"&amp;SUBSTITUTE(B187,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-14-294','','Confirm whether, within the past 3 years, your organisation or any of your partner organisations:','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-314','','Date the debt will be cleared','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>41</v>
+        <v>388</v>
       </c>
       <c r="B188" t="s">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="C188" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A188&amp;"','','"&amp;SUBSTITUTE(B188,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-14-295','','Bankruptcy and Insolvency','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-315','','Date the debt will be cleared','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>117</v>
-      </c>
-      <c r="B189" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C189" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A189&amp;"','','"&amp;SUBSTITUTE(B189,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-14-296','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;has been made bankrupt or the subject of insolvency or winding-up proceedings&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-316','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B190" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C190" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A190&amp;"','','"&amp;SUBSTITUTE(B190,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-317','','NO TITLE FOR THIS IN SPREADSHEET','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B191" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C191" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A191&amp;"','','"&amp;SUBSTITUTE(B191,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-318','','&lt;p class="govuk-body"&gt;You must confirm the accuracy of the information in this declaration and in your application to deliver end-point assessments. We might ask you for proof after youï¿½ve submitted your application.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B192" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C192" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A192&amp;"','','"&amp;SUBSTITUTE(B192,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-320','','NO TITLE FOR THIS IN SPREADSHEET','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>336</v>
+        <v>393</v>
+      </c>
+      <c r="B193" t="s">
+        <v>281</v>
       </c>
       <c r="C193" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A193&amp;"','','"&amp;SUBSTITUTE(B193,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21.1-325','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21-322','','Confirm whether your organisation or any of your partner organisations is in:','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>415</v>
+        <v>280</v>
       </c>
       <c r="B194" t="s">
-        <v>2</v>
+        <v>281</v>
       </c>
       <c r="C194" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A194&amp;"','','"&amp;SUBSTITUTE(B194,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21.1-326','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21-323','','Confirm whether your organisation or any of your partner organisations is in:','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="B195" t="s">
-        <v>2</v>
+        <v>334</v>
       </c>
       <c r="C195" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A195&amp;"','','"&amp;SUBSTITUTE(B195,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21.1-327','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21-324','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;voluntary administration or company voluntary arrangement&lt;/li&gt;&lt;li&gt;compulsory winding up&lt;/li&gt;&lt;li&gt;receivership&lt;/li&gt;&lt;li&gt;composition with creditors&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>174</v>
+        <v>326</v>
       </c>
       <c r="C196" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A196&amp;"','','"&amp;SUBSTITUTE(B196,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21.1-328','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21.1-325','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B197" t="s">
-        <v>291</v>
+        <v>2</v>
       </c>
       <c r="C197" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A197&amp;"','','"&amp;SUBSTITUTE(B197,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21-322','','Confirm whether your organisation or any of your partner organisations is in:','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21.1-326','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="B198" t="s">
-        <v>291</v>
+        <v>2</v>
       </c>
       <c r="C198" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A198&amp;"','','"&amp;SUBSTITUTE(B198,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21-323','','Confirm whether your organisation or any of your partner organisations is in:','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21.1-327','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>343</v>
-      </c>
-      <c r="B199" t="s">
-        <v>344</v>
+        <v>166</v>
       </c>
       <c r="C199" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A199&amp;"','','"&amp;SUBSTITUTE(B199,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21-324','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;voluntary administration or company voluntary arrangement&lt;/li&gt;&lt;li&gt;compulsory winding up&lt;/li&gt;&lt;li&gt;receivership&lt;/li&gt;&lt;li&gt;composition with creditors&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21.1-328','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>76</v>
+        <v>358</v>
+      </c>
+      <c r="B200" t="s">
+        <v>428</v>
       </c>
       <c r="C200" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A200&amp;"','','"&amp;SUBSTITUTE(B200,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22.1-333','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22-330','','Confirm whether any of your organisationï¿½s tax returns, submitted on or after 1 October 2012, have:','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>144</v>
+        <v>317</v>
       </c>
       <c r="B201" t="s">
-        <v>2</v>
+        <v>318</v>
       </c>
       <c r="C201" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A201&amp;"','','"&amp;SUBSTITUTE(B201,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22.1-334','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22-331','','Why a tax return was incorrect','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="B202" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="C202" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A202&amp;"','','"&amp;SUBSTITUTE(B202,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22.1-335','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22-332','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;been found to be incorrect as of 1 April 2013&lt;/li&gt;&lt;li&gt;given rise to a criminal conviction for tax-related offences which is unspent, or to a civil penalty for fraud or evasion&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="C203" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A203&amp;"','','"&amp;SUBSTITUTE(B203,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22.1-336','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22.1-333','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>368</v>
+        <v>138</v>
       </c>
       <c r="B204" t="s">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="C204" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A204&amp;"','','"&amp;SUBSTITUTE(B204,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22-330','','Confirm whether any of your organisationï¿½s tax returns, submitted on or after 1 October 2012, have:','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22.1-334','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>327</v>
+        <v>3</v>
       </c>
       <c r="B205" t="s">
-        <v>328</v>
+        <v>2</v>
       </c>
       <c r="C205" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A205&amp;"','','"&amp;SUBSTITUTE(B205,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22-331','','Why a tax return was incorrect','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22.1-335','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>77</v>
-      </c>
-      <c r="B206" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="C206" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A206&amp;"','','"&amp;SUBSTITUTE(B206,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22-332','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;been found to be incorrect as of 1 April 2013&lt;/li&gt;&lt;li&gt;given rise to a criminal conviction for tax-related offences which is unspent, or to a civil penalty for fraud or evasion&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22.1-336','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>108</v>
+        <v>93</v>
+      </c>
+      <c r="B207" t="s">
+        <v>414</v>
       </c>
       <c r="C207" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A207&amp;"','','"&amp;SUBSTITUTE(B207,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23.1-341','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23-338','','Confirm whether any of your organisationï¿½s tax returns, submitted on or after 1 October 2012, have been found to be incorrect on or after 1 April 2013 because:','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>395</v>
+        <v>327</v>
       </c>
       <c r="B208" t="s">
-        <v>2</v>
+        <v>318</v>
       </c>
       <c r="C208" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A208&amp;"','','"&amp;SUBSTITUTE(B208,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23.1-342','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23-339','','Why a tax return was incorrect','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>252</v>
+        <v>99</v>
       </c>
       <c r="B209" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C209" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A209&amp;"','','"&amp;SUBSTITUTE(B209,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23.1-343','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23-340','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;HMRC successfully challenged it under the General Anti-Abuse Rule (GAAR) or Halifax abuse principle OR&lt;/li&gt;&lt;li&gt;a tax authority (in a jurisdiction in which your organisation is established) successfully challenging it under any tax rules or legislation that have an effect equivalent or similar to the GAAR or Halifax abuse principle&lt;/li&gt;&lt;li&gt;given rise to a criminal conviction for tax-related offences which is unspent, or to a civil penalty for fraud or evasion&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C210" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A210&amp;"','','"&amp;SUBSTITUTE(B210,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23.1-344','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23.1-341','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>96</v>
+        <v>384</v>
       </c>
       <c r="B211" t="s">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="C211" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A211&amp;"','','"&amp;SUBSTITUTE(B211,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23-338','','Confirm whether any of your organisationï¿½s tax returns, submitted on or after 1 October 2012, have been found to be incorrect on or after 1 April 2013 because:','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23.1-342','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>337</v>
+        <v>242</v>
       </c>
       <c r="B212" t="s">
-        <v>328</v>
+        <v>2</v>
       </c>
       <c r="C212" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A212&amp;"','','"&amp;SUBSTITUTE(B212,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23-339','','Why a tax return was incorrect','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23.1-343','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>102</v>
-      </c>
-      <c r="B213" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C213" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A213&amp;"','','"&amp;SUBSTITUTE(B213,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23-340','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;HMRC successfully challenged it under the General Anti-Abuse Rule (GAAR) or Halifax abuse principle OR&lt;/li&gt;&lt;li&gt;a tax authority (in a jurisdiction in which your organisation is established) successfully challenging it under any tax rules or legislation that have an effect equivalent or similar to the GAAR or Halifax abuse principle&lt;/li&gt;&lt;li&gt;given rise to a criminal conviction for tax-related offences which is unspent, or to a civil penalty for fraud or evasion&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23.1-344','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>259</v>
+        <v>121</v>
+      </c>
+      <c r="B214" t="s">
+        <v>122</v>
       </c>
       <c r="C214" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A214&amp;"','','"&amp;SUBSTITUTE(B214,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24.1-349','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24-346','','Has your organisation had any contract for the delivery of services withdrawn within the last 3 financial years?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="B215" t="s">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="C215" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A215&amp;"','','"&amp;SUBSTITUTE(B215,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24.1-350','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24-347','','Contracts withdrawn from you','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>231</v>
+        <v>342</v>
       </c>
       <c r="B216" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C216" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A216&amp;"','','"&amp;SUBSTITUTE(B216,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24.1-351','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24-348','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;HMRC successfully challenged it under the General Anti-Abuse Rule (GAAR) or Halifax abuse principle OR&lt;/li&gt;&lt;li&gt;a tax authority (in a jurisdiction in which your organisation is established) successfully challenging it under any tax rules or legislation that have an effect equivalent or similar to the GAAR or Halifax abuse principle&lt;/li&gt;&lt;li&gt;given rise to a criminal conviction for tax-related offences which is unspent, or to a civil penalty for fraud or evasion&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>325</v>
+        <v>249</v>
       </c>
       <c r="C217" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A217&amp;"','','"&amp;SUBSTITUTE(B217,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24.1-352','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24.1-349','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B218" t="s">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="C218" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A218&amp;"','','"&amp;SUBSTITUTE(B218,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24-346','','Has your organisation had any contract for the delivery of services withdrawn within the last 3 financial years?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24.1-350','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="C219" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A219&amp;"','','"&amp;SUBSTITUTE(B219,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24-347','','Contracts withdrawn from you','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24.1-351','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>352</v>
-      </c>
-      <c r="B220" t="s">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c r="C220" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A220&amp;"','','"&amp;SUBSTITUTE(B220,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24-348','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;HMRC successfully challenged it under the General Anti-Abuse Rule (GAAR) or Halifax abuse principle OR&lt;/li&gt;&lt;li&gt;a tax authority (in a jurisdiction in which your organisation is established) successfully challenging it under any tax rules or legislation that have an effect equivalent or similar to the GAAR or Halifax abuse principle&lt;/li&gt;&lt;li&gt;given rise to a criminal conviction for tax-related offences which is unspent, or to a civil penalty for fraud or evasion&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24.1-352','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>215</v>
+        <v>26</v>
+      </c>
+      <c r="B221" t="s">
+        <v>27</v>
       </c>
       <c r="C221" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A221&amp;"','','"&amp;SUBSTITUTE(B221,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.1-357','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25-354','','Has your organisation withdrawn from a contract for the delivery of services within the last 3 years?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>242</v>
+        <v>306</v>
       </c>
       <c r="B222" t="s">
-        <v>2</v>
+        <v>307</v>
       </c>
       <c r="C222" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A222&amp;"','','"&amp;SUBSTITUTE(B222,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.1-358','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25-355','','Withdrawn from contracts','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>241</v>
+        <v>389</v>
       </c>
       <c r="B223" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C223" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A223&amp;"','','"&amp;SUBSTITUTE(B223,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.1-359','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25-356','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;HMRC successfully challenged it under the General Anti-Abuse Rule (GAAR) or Halifax abuse principle OR&lt;/li&gt;&lt;li&gt;a tax authority (in a jurisdiction in which your organisation is established) successfully challenging it under any tax rules or legislation that have an effect equivalent or similar to the GAAR or Halifax abuse principle&lt;/li&gt;&lt;li&gt;given rise to a criminal conviction for tax-related offences which is unspent, or to a civil penalty for fraud or evasion&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>313</v>
+        <v>206</v>
       </c>
       <c r="C224" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A224&amp;"','','"&amp;SUBSTITUTE(B224,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.1-360','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.1-357','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>223</v>
+        <v>232</v>
+      </c>
+      <c r="B225" t="s">
+        <v>2</v>
       </c>
       <c r="C225" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A225&amp;"','','"&amp;SUBSTITUTE(B225,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.2-361','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.1-358','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>60</v>
+        <v>231</v>
       </c>
       <c r="B226" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C226" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A226&amp;"','','"&amp;SUBSTITUTE(B226,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.2-362','','Full name','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.1-359','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>35</v>
-      </c>
-      <c r="B227" t="s">
-        <v>36</v>
+        <v>303</v>
       </c>
       <c r="C227" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A227&amp;"','','"&amp;SUBSTITUTE(B227,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.2-363','','Full name','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.1-360','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="C228" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A228&amp;"','','"&amp;SUBSTITUTE(B228,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.2-364','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.2-361','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>107</v>
+        <v>58</v>
+      </c>
+      <c r="B229" t="s">
+        <v>35</v>
       </c>
       <c r="C229" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A229&amp;"','','"&amp;SUBSTITUTE(B229,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.3-365','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.2-362','','Full name','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>305</v>
+        <v>34</v>
       </c>
       <c r="B230" t="s">
-        <v>306</v>
+        <v>35</v>
       </c>
       <c r="C230" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A230&amp;"','','"&amp;SUBSTITUTE(B230,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.3-366','','Dates involved','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.2-363','','Full name','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>363</v>
-      </c>
-      <c r="B231" t="s">
-        <v>306</v>
+        <v>43</v>
       </c>
       <c r="C231" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A231&amp;"','','"&amp;SUBSTITUTE(B231,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.3-367','','Dates involved','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.2-364','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="C232" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A232&amp;"','','"&amp;SUBSTITUTE(B232,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.3-368','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.3-365','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>26</v>
+        <v>295</v>
       </c>
       <c r="B233" t="s">
-        <v>27</v>
+        <v>296</v>
       </c>
       <c r="C233" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A233&amp;"','','"&amp;SUBSTITUTE(B233,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25-354','','Has your organisation withdrawn from a contract for the delivery of services within the last 3 years?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.3-366','','Dates involved','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="B234" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C234" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A234&amp;"','','"&amp;SUBSTITUTE(B234,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25-355','','Withdrawn from contracts','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.3-367','','Dates involved','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>400</v>
-      </c>
-      <c r="B235" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C235" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A235&amp;"','','"&amp;SUBSTITUTE(B235,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25-356','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;HMRC successfully challenged it under the General Anti-Abuse Rule (GAAR) or Halifax abuse principle OR&lt;/li&gt;&lt;li&gt;a tax authority (in a jurisdiction in which your organisation is established) successfully challenging it under any tax rules or legislation that have an effect equivalent or similar to the GAAR or Halifax abuse principle&lt;/li&gt;&lt;li&gt;given rise to a criminal conviction for tax-related offences which is unspent, or to a civil penalty for fraud or evasion&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.3-368','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>235</v>
+        <v>272</v>
+      </c>
+      <c r="B236" t="s">
+        <v>273</v>
       </c>
       <c r="C236" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A236&amp;"','','"&amp;SUBSTITUTE(B236,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.1-373','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26-370','','Has your organisation been removed from any of the following registers?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="B237" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
       <c r="C237" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A237&amp;"','','"&amp;SUBSTITUTE(B237,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.1-374','','Date of removal','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26-371','','Company removed from registers','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>321</v>
+        <v>205</v>
       </c>
       <c r="B238" t="s">
-        <v>184</v>
+        <v>420</v>
       </c>
       <c r="C238" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A238&amp;"','','"&amp;SUBSTITUTE(B238,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.1-375','','Date of removal','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26-372','','Education and Skills Funding Agencyï¿½s Register of Training Organisations RoATP, EPAO register,Ofqualï¿½s Register,Other professional or trade registers','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="C239" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A239&amp;"','','"&amp;SUBSTITUTE(B239,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.1-376','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.1-373','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>154</v>
+        <v>175</v>
+      </c>
+      <c r="B240" t="s">
+        <v>176</v>
       </c>
       <c r="C240" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A240&amp;"','','"&amp;SUBSTITUTE(B240,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.2-377','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.1-374','','Date of removal','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="B241" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="C241" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A241&amp;"','','"&amp;SUBSTITUTE(B241,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.2-378','','Reasons why','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.1-375','','Date of removal','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>38</v>
-      </c>
-      <c r="B242" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="C242" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A242&amp;"','','"&amp;SUBSTITUTE(B242,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.2-379','','Reasons why','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.1-376','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="C243" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A243&amp;"','','"&amp;SUBSTITUTE(B243,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.2-380','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.2-377','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>282</v>
+        <v>359</v>
       </c>
       <c r="B244" t="s">
-        <v>283</v>
+        <v>38</v>
       </c>
       <c r="C244" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A244&amp;"','','"&amp;SUBSTITUTE(B244,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26-370','','Has your organisation been removed from any of the following registers?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.2-378','','Reasons why','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="B245" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="C245" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A245&amp;"','','"&amp;SUBSTITUTE(B245,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26-371','','Company removed from registers','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.2-379','','Reasons why','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>214</v>
-      </c>
-      <c r="B246" t="s">
-        <v>432</v>
+        <v>66</v>
       </c>
       <c r="C246" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A246&amp;"','','"&amp;SUBSTITUTE(B246,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26-372','','Education and Skills Funding Agencyï¿½s Register of Training Organisations RoATP, EPAO register,Ofqualï¿½s Register,Other professional or trade registers','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.2-380','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>201</v>
+        <v>395</v>
+      </c>
+      <c r="B247" t="s">
+        <v>396</v>
       </c>
       <c r="C247" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A247&amp;"','','"&amp;SUBSTITUTE(B247,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.1-385','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27-382','','Has your organisation received direction or sanctions from any of the following?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B248" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C248" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A248&amp;"','','"&amp;SUBSTITUTE(B248,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.1-386','','Date of sanction','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27-383','','Direction and sanctions','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>383</v>
+        <v>15</v>
       </c>
       <c r="B249" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="C249" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A249&amp;"','','"&amp;SUBSTITUTE(B249,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.1-387','','Date of sanction','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27-384','','Ofqual,The QAA,Awarding organisations,Other similar bodies','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="C250" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A250&amp;"','','"&amp;SUBSTITUTE(B250,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.1-388','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.1-385','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>260</v>
+        <v>181</v>
+      </c>
+      <c r="B251" t="s">
+        <v>182</v>
       </c>
       <c r="C251" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A251&amp;"','','"&amp;SUBSTITUTE(B251,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.2-389','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.1-386','','Date of sanction','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>65</v>
+        <v>373</v>
       </c>
       <c r="B252" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="C252" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A252&amp;"','','"&amp;SUBSTITUTE(B252,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.2-390','','Reasons why','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.1-387','','Date of sanction','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>167</v>
-      </c>
-      <c r="B253" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="C253" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A253&amp;"','','"&amp;SUBSTITUTE(B253,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.2-391','','Reasons why','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.1-388','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C254" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A254&amp;"','','"&amp;SUBSTITUTE(B254,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.2-392','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.2-389','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>407</v>
+        <v>63</v>
       </c>
       <c r="B255" t="s">
-        <v>408</v>
+        <v>38</v>
       </c>
       <c r="C255" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A255&amp;"','','"&amp;SUBSTITUTE(B255,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27-382','','Has your organisation received direction or sanctions from any of the following?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.2-390','','Reasons why','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="B256" t="s">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="C256" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A256&amp;"','','"&amp;SUBSTITUTE(B256,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27-383','','Direction and sanctions','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.2-391','','Reasons why','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>15</v>
-      </c>
-      <c r="B257" t="s">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="C257" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A257&amp;"','','"&amp;SUBSTITUTE(B257,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27-384','','Ofqual,The QAA,Awarding organisations,Other similar bodies','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.2-392','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>86</v>
+        <v>404</v>
+      </c>
+      <c r="B258" t="s">
+        <v>405</v>
       </c>
       <c r="C258" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A258&amp;"','','"&amp;SUBSTITUTE(B258,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28.1-397','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28-394','','Has your organisation ever had to repay public money?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B259" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C259" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A259&amp;"','','"&amp;SUBSTITUTE(B259,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28.1-398','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28-395','','Repaying public money','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>178</v>
+        <v>355</v>
       </c>
       <c r="C260" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A260&amp;"','','"&amp;SUBSTITUTE(B260,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28.1-399','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28-396','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C261" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A261&amp;"','','"&amp;SUBSTITUTE(B261,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28.1-400','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28.1-397','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>416</v>
+        <v>1</v>
       </c>
       <c r="B262" t="s">
-        <v>417</v>
+        <v>2</v>
       </c>
       <c r="C262" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A262&amp;"','','"&amp;SUBSTITUTE(B262,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28-394','','Has your organisation ever had to repay public money?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28.1-398','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>72</v>
-      </c>
-      <c r="B263" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="C263" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A263&amp;"','','"&amp;SUBSTITUTE(B263,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28-395','','Repaying public money','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28.1-399','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="C264" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A264&amp;"','','"&amp;SUBSTITUTE(B264,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28-396','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28.1-400','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>350</v>
+        <v>243</v>
+      </c>
+      <c r="B265" t="s">
+        <v>244</v>
       </c>
       <c r="C265" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A265&amp;"','','"&amp;SUBSTITUTE(B265,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29.1-405','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29-402','','Have any directors, shareholders, senior employees or someone that has powers of representation, decision or control of your organisation had any of the following?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="B266" t="s">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="C266" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A266&amp;"','','"&amp;SUBSTITUTE(B266,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29.1-406','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29-403','','Public bodies','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>59</v>
+        <v>323</v>
       </c>
       <c r="C267" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A267&amp;"','','"&amp;SUBSTITUTE(B267,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29.1-407','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29-404','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>209</v>
+        <v>340</v>
       </c>
       <c r="C268" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A268&amp;"','','"&amp;SUBSTITUTE(B268,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29.1-408','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29.1-405','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="B269" t="s">
-        <v>254</v>
+        <v>2</v>
       </c>
       <c r="C269" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A269&amp;"','','"&amp;SUBSTITUTE(B269,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29-402','','Have any directors, shareholders, senior employees or someone that has powers of representation, decision or control of your organisation had any of the following?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29.1-406','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>311</v>
-      </c>
-      <c r="B270" t="s">
-        <v>312</v>
+        <v>57</v>
       </c>
       <c r="C270" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A270&amp;"','','"&amp;SUBSTITUTE(B270,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29-403','','Public bodies','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29.1-407','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="C271" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A271&amp;"','','"&amp;SUBSTITUTE(B271,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29-404','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29.1-408','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="B272" t="s">
+        <v>55</v>
       </c>
       <c r="C272" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A272&amp;"','','"&amp;SUBSTITUTE(B272,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.1-413','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30-410','','Does your organisation have any outstanding or ongoing legal dispute that could prevent you from conducting end-point assessments?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>396</v>
+        <v>71</v>
       </c>
       <c r="B273" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="C273" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A273&amp;"','','"&amp;SUBSTITUTE(B273,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.1-414','','Date','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30-411','','Legal disputes','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="C274" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A274&amp;"','','"&amp;SUBSTITUTE(B274,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.1-415','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30-412','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>357</v>
+        <v>61</v>
       </c>
       <c r="C275" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A275&amp;"','','"&amp;SUBSTITUTE(B275,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.1-416','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.1-413','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>351</v>
+        <v>385</v>
+      </c>
+      <c r="B276" t="s">
+        <v>133</v>
       </c>
       <c r="C276" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A276&amp;"','','"&amp;SUBSTITUTE(B276,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.2-417','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.1-414','','Date','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>269</v>
-      </c>
-      <c r="B277" t="s">
-        <v>270</v>
+        <v>201</v>
       </c>
       <c r="C277" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A277&amp;"','','"&amp;SUBSTITUTE(B277,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.2-418','','Details of the dispute','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.1-415','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="C278" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A278&amp;"','','"&amp;SUBSTITUTE(B278,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.2-419','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.1-416','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="C279" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A279&amp;"','','"&amp;SUBSTITUTE(B279,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.2-420','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.2-417','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>375</v>
+        <v>259</v>
+      </c>
+      <c r="B280" t="s">
+        <v>260</v>
       </c>
       <c r="C280" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A280&amp;"','','"&amp;SUBSTITUTE(B280,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.3-421','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.2-418','','Details of the dispute','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>216</v>
-      </c>
-      <c r="B281" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C281" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A281&amp;"','','"&amp;SUBSTITUTE(B281,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.3-422','','Current status of the dispute','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.2-419','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="C282" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A282&amp;"','','"&amp;SUBSTITUTE(B282,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.3-423','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.2-420','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C283" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A283&amp;"','','"&amp;SUBSTITUTE(B283,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.3-424','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.3-421','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="B284" t="s">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="C284" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A284&amp;"','','"&amp;SUBSTITUTE(B284,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30-410','','Does your organisation have any outstanding or ongoing legal dispute that could prevent you from conducting end-point assessments?','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.3-422','','Current status of the dispute','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>74</v>
-      </c>
-      <c r="B285" t="s">
-        <v>75</v>
+        <v>338</v>
       </c>
       <c r="C285" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A285&amp;"','','"&amp;SUBSTITUTE(B285,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30-411','','Legal disputes','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.3-423','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>104</v>
+        <v>362</v>
       </c>
       <c r="C286" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A286&amp;"','','"&amp;SUBSTITUTE(B286,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30-412','','','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.3-424','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B287" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C287" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A287&amp;"','','"&amp;SUBSTITUTE(B287,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-425','','Application accuracy','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B288" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C288" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A288&amp;"','','"&amp;SUBSTITUTE(B288,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-426','','&lt;p class="govuk-body"&gt;You must confirm the accuracy of the information in this declaration and in your application to deliver end-point assessments. We might ask you for proof after youï¿½ve submitted your application.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B289" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C289" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A289&amp;"','','"&amp;SUBSTITUTE(B289,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-428','','Application accuracy','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B290" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C290" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A290&amp;"','','"&amp;SUBSTITUTE(B290,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-28-430','','I certify that the information provided is accurate and accept the conditions and undertakings requested in this application. It''s understood that false information may result in:','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B291" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C291" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A291&amp;"','','"&amp;SUBSTITUTE(B291,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-28-431','','I certify that the information provided is accurate and accept the conditions and undertakings requested in this application. It''s understood that false information may result in:','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B292" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C292" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A292&amp;"','','"&amp;SUBSTITUTE(B292,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-28-432','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;exclusion from this and future registers&lt;/li&gt;&lt;li&gt;the removal from the Register of End-point Assessments Organisations&lt;/li&gt;&lt;li&gt;the withdrawal of contracts with employers&lt;/li&gt;&lt;li&gt;civil or criminal proceedings&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B293" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C293" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A293&amp;"','','"&amp;SUBSTITUTE(B293,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-29-434','','Will your applications to deliver end-point assessments for standards be accurate and true representations?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B294" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C294" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A294&amp;"','','"&amp;SUBSTITUTE(B294,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-29-435','','Will your applications to deliver end-point assessments for standards be accurate and true representations?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C295" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A295&amp;"','','"&amp;SUBSTITUTE(B295,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-29-436','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B296" t="s">
         <v>19</v>
@@ -5450,7 +5453,7 @@
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-30-438','','Do you agree your company details will be added to the register of end-point assessment organisations if your application is successful?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>18</v>
       </c>
@@ -5462,93 +5465,93 @@
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-30-439','','Do you agree your company details will be added to the register of end-point assessment organisations if your application is successful?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C298" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A298&amp;"','','"&amp;SUBSTITUTE(B298,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-30-440','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B299" t="s">
-        <v>132</v>
+        <v>442</v>
       </c>
       <c r="C299" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A299&amp;"','','"&amp;SUBSTITUTE(B299,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-441','','Financial Health Assessment','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-441','','Financial health assessment','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B300" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C300" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A300&amp;"','','"&amp;SUBSTITUTE(B300,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-442','','&lt;p class="govuk-body"&gt;You will fail the financial health assessment process if you do not upload financial statements where available. Management accounts must only be submitted where financial statements/accounts are yet to be produced.&lt;/p&gt;&lt;p class="govuk-body"&gt;For further information on what you must include if you select ï¿½aï¿½, ï¿½bï¿½ or ï¿½cï¿½ please check &lt;a class="govuk-link" href="https://www.gov.uk/government/publications/esfa-financial-health-assessment/"&gt;https://www.gov.uk/government/publications/esfa-financial-health-assessment&lt;/a&gt;.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B301" t="s">
-        <v>132</v>
+        <v>442</v>
       </c>
       <c r="C301" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A301&amp;"','','"&amp;SUBSTITUTE(B301,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-444','','Financial Health Assessment','Live',GETUTCDATE(),'Import')</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.45">
+        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-444','','Financial health assessment','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B302" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C302" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A302&amp;"','','"&amp;SUBSTITUTE(B302,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-FHA-01-446','','Upload your financial evidences','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B303" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C303" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A303&amp;"','','"&amp;SUBSTITUTE(B303,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-FHA-01-447','','Upload your financial evidences','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B304" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C304" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A304&amp;"','','"&amp;SUBSTITUTE(B304,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-FHA-02-450','','Attach the latest available accounts for the UK ultimate parent company. Organisations that are subject to the financial health assessment must submit their UK parent company accounts or they will fail the process','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B305" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C305" t="str">
         <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A305&amp;"','','"&amp;SUBSTITUTE(B305,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
@@ -5556,8 +5559,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C305">
-    <sortCondition ref="A1:A305"/>
+  <sortState ref="A1:C305">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/assets.xlsx
+++ b/src/assets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregdbarnes/Sites/esfa/repositories/das-apply-service/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0360456E-481A-4A4F-AD0B-DA8AFA16AAE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B310EE-ACE9-DE4E-82DC-26CF474B80D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="27480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="27500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="590">
   <si>
     <t>SQ-1-SE-1-PG-11-150</t>
   </si>
@@ -1060,9 +1060,6 @@
     <t>SQ-1-SE-1-PG-15-204</t>
   </si>
   <si>
-    <t>Register of Removed Trustees</t>
-  </si>
-  <si>
     <t>SQ-1-SE-2-PG-21-A_DEL-30.1-416</t>
   </si>
   <si>
@@ -1072,9 +1069,6 @@
     <t>SQ-1-SE-1-PG-2-12</t>
   </si>
   <si>
-    <t>Name to use on the Register</t>
-  </si>
-  <si>
     <t>SQ-1-SE-1-PG-4-CD-10-62</t>
   </si>
   <si>
@@ -1171,9 +1165,6 @@
     <t>SQ-1-SE-2-PG-15-216</t>
   </si>
   <si>
-    <t>Invitation to Apply</t>
-  </si>
-  <si>
     <t>SQ-1-SE-2-PG-21-A_DEL-23.1-342</t>
   </si>
   <si>
@@ -1349,6 +1340,456 @@
   </si>
   <si>
     <t>Financial health assessment</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-10-135</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-10-CD-18-137</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-10-CD-18-139</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-10-CD-18-140</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-11-151</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-11-CD-19-153</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-11-CD-19-155</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-11-CD-19-156</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-11-CD-20-157</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-11-CD-20-159</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-11-CD-20-160</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-11-CD-21-161</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-11-CD-21-163</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-11-CD-21-164</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-12-167</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-12-CD-22-169</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-12-CD-22-171</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-12-CD-22-172</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-1-3</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-13-175</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-13-CD-23-177</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-13-CD-23-179</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-13-CD-23-180</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-13-CD-24-181</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-13-CD-24-183</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-13-CD-24-184</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-13-CD-25-185</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-13-CD-25-187</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-13-CD-25-188</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-14-191</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-14-CD-26-193</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-14-CD-26-195</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-14-CD-26-196</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-15-203</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-15-CD-27-205</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-15-CD-27-207</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-15-CD-27-208</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-1-CD-30-5</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-1-CD-30-7</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-1-CD-30-8</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-2-11</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-2-CD-01-13</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-2-CD-01-15</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-2-CD-01-16</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-3-23</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-3-CD-02-25</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-3-CD-02-27</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-3-CD-02-28</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-3-CD-03-29</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-3-CD-03-31</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-3-CD-03-32</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-3-CD-04-33</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-3-CD-04-35</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-3-CD-04-36</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-3-CD-05-37</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-3-CD-05-39</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-3-CD-05-40</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-3-CD-06-41</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-3-CD-06-43</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-3-CD-06-44</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-4-47</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-4-CD-07-49</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-4-CD-07-51</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-4-CD-07-52</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-4-CD-08-53</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-4-CD-08-55</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-4-CD-08-56</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-4-CD-09-57</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-4-CD-09-59</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-4-CD-09-60</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-4-CD-10-61</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-4-CD-10-63</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-4-CD-10-64</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-4-CD-11-65</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-4-CD-11-67</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-4-CD-11-68</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-5-71</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-5-CD-12-73</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-5-CD-12-75</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-5-CD-12-76</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-6-83</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-6-CD-13-85</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-6-CD-13-87</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-6-CD-13-88</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-6-CD-14-89</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-6-CD-14-91</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-6-CD-14-92</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-7-99</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-7-CD-15-101</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-7-CD-15-103</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-7-CD-15-104</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-8-111</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-8-CD-16-113</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-8-CD-16-115</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-8-CD-16-116</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-9-123</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-9-CD-17-125</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-9-CD-17-127</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-1-PG-9-CD-17-128</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-15-215</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-15-W_DEL-01-217</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-15-W_DEL-01-220</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-15-W_DEL-02-221</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-15-W_DEL-02-224</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-17-227</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-17-W_DEL-03-229</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-17-W_DEL-03-232</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-18-235</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-18-W_DEL-04-237</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-18-W_DEL-04-240</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-19-247</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-19-M_DEL-05-249</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-19-M_DEL-06-253</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-19-M_DEL-07-257</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-19-M_DEL-08-261</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-19-M_DEL-09-265</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-19-M_DEL-10-269</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-19-M_DEL-11-273</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-19-M_DEL-12-277</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-20.1-299</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-20.1-D_DEL-13-1-301</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-20.1-D_DEL-13-1-305</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-20.1-D_DEL-13-1-309</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-20.1-D_DEL-13-1-313</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-20-283</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-20-D_DEL-13-285</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-20-D_DEL-14-293</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-21-319</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-21-A_DEL-21-321</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-21-A_DEL-22-329</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-21-A_DEL-23-337</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-21-A_DEL-24-345</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-21-A_DEL-25-353</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-21-A_DEL-26-369</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-21-A_DEL-27-381</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-21-A_DEL-28-393</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-21-A_DEL-29-401</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-21-A_DEL-30-409</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-22-427</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-22-A_DEL-28-429</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-22-A_DEL-29-433</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-2-PG-22-A_DEL-30-437</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-3-PG-23-443</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-3-PG-23-FHA-01-445</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-3-PG-23-FHA-01-448</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-3-PG-23-FHA-02-449</t>
+  </si>
+  <si>
+    <t>SQ-1-SE-3-PG-23-FHA-02-452</t>
+  </si>
+  <si>
+    <t>Invitation to apply</t>
+  </si>
+  <si>
+    <t>Register of removed trustees</t>
+  </si>
+  <si>
+    <t>Name to use on the register</t>
   </si>
 </sst>
 </file>
@@ -2189,10 +2630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C305"/>
+  <dimension ref="A1:C452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2206,11 +2647,11 @@
         <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C1" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A1&amp;"','','"&amp;SUBSTITUTE(B1,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-1-1','','Trading name','Live',GETUTCDATE(),'Import')</v>
+        <f>"DELETE FROM Assets WHERE Reference = '"&amp;A1&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A1&amp;"','','"&amp;SUBSTITUTE(B1,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-1-1'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-1-1','','Trading name','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2218,3349 +2659,4672 @@
         <v>89</v>
       </c>
       <c r="C2" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A2&amp;"','','"&amp;SUBSTITUTE(B2,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-1-2','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" ref="C2:C65" si="0">"DELETE FROM Assets WHERE Reference = '"&amp;A2&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A2&amp;"','','"&amp;SUBSTITUTE(B2,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-1-2'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-1-2','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="C3" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A3&amp;"','','"&amp;SUBSTITUTE(B3,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-1-4','','Trading name','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-1-3'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-1-3','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>428</v>
       </c>
       <c r="C4" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A4&amp;"','','"&amp;SUBSTITUTE(B4,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-1-CD-30-6','','Does your organisation have a trading name?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-1-4'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-1-4','','Trading name','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>477</v>
       </c>
       <c r="C5" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A5&amp;"','','"&amp;SUBSTITUTE(B5,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-10','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-1-CD-30-5'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-1-CD-30-5','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
-        <v>350</v>
+        <v>287</v>
       </c>
       <c r="C6" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A6&amp;"','','"&amp;SUBSTITUTE(B6,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-12','','Name to use on the Register','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-1-CD-30-6'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-1-CD-30-6','','Does your organisation have a trading name?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>321</v>
+        <v>478</v>
       </c>
       <c r="C7" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A7&amp;"','','"&amp;SUBSTITUTE(B7,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-9','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-1-CD-30-7'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-1-CD-30-7','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
+        <v>479</v>
       </c>
       <c r="C8" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A8&amp;"','','"&amp;SUBSTITUTE(B8,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01-14','','Do you want to use your trading name on the register?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-1-CD-30-8'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-1-CD-30-8','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>321</v>
       </c>
       <c r="C9" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A9&amp;"','','"&amp;SUBSTITUTE(B9,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01.1-17','','','Live',GETUTCDATE(),'Import')</v>
+        <f>"DELETE FROM Assets WHERE Reference = '"&amp;A9&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A9&amp;"','','"&amp;SUBSTITUTE(B9,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-2-9'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-9','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B10" t="s">
-        <v>430</v>
+        <v>347</v>
       </c>
       <c r="C10" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A10&amp;"','','"&amp;SUBSTITUTE(B10,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01.1-18','','What is your trading name?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-2-10'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-10','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>480</v>
       </c>
       <c r="C11" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A11&amp;"','','"&amp;SUBSTITUTE(B11,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01.1-19','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-2-11'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-11','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>348</v>
+      </c>
+      <c r="B12" t="s">
+        <v>589</v>
       </c>
       <c r="C12" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A12&amp;"','','"&amp;SUBSTITUTE(B12,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01.1-20','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-2-12'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-12','','Name to use on the register','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="C13" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A13&amp;"','','"&amp;SUBSTITUTE(B13,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-21','','Enter contact details','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-2-CD-01-13'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01-13','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C14" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A14&amp;"','','"&amp;SUBSTITUTE(B14,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-22','','&lt;p class="govuk-body"&gt;This information will be published on the Register of end point assessment organisations and will be made available to the public.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-2-CD-01-14'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01-14','','Do you want to use your trading name on the register?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" t="s">
-        <v>126</v>
+        <v>482</v>
       </c>
       <c r="C15" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A15&amp;"','','"&amp;SUBSTITUTE(B15,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-24','','Contact details','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-2-CD-01-15'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01-15','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
+        <v>483</v>
       </c>
       <c r="C16" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A16&amp;"','','"&amp;SUBSTITUTE(B16,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-02-26','','Full name','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-2-CD-01-16'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01-16','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="C17" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A17&amp;"','','"&amp;SUBSTITUTE(B17,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-03-30','','Address','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-2-CD-01.1-17'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01.1-17','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="C18" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A18&amp;"','','"&amp;SUBSTITUTE(B18,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-04-34','','Post code','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-2-CD-01.1-18'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01.1-18','','What is your trading name?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>330</v>
-      </c>
-      <c r="B19" t="s">
-        <v>331</v>
+        <v>251</v>
       </c>
       <c r="C19" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A19&amp;"','','"&amp;SUBSTITUTE(B19,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-05-38','','Email address','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-2-CD-01.1-19'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01.1-19','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>361</v>
-      </c>
-      <c r="B20" t="s">
-        <v>285</v>
+        <v>156</v>
       </c>
       <c r="C20" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A20&amp;"','','"&amp;SUBSTITUTE(B20,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-06-42','','Telephone','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-2-CD-01.1-20'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-2-CD-01.1-20','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C21" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A21&amp;"','','"&amp;SUBSTITUTE(B21,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-45','','Who should we send the contract notice to','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-21'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-21','','Enter contact details','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>290</v>
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
       </c>
       <c r="C22" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A22&amp;"','','"&amp;SUBSTITUTE(B22,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-46','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-22'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-22','','&lt;p class="govuk-body"&gt;This information will be published on the Register of end point assessment organisations and will be made available to the public.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
+        <v>484</v>
       </c>
       <c r="C23" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A23&amp;"','','"&amp;SUBSTITUTE(B23,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-48','','Contract notice contact details','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-23'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-23','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>381</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C24" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A24&amp;"','','"&amp;SUBSTITUTE(B24,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-07-50','','Full name','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-24'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-24','','Contact details','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
+        <v>485</v>
       </c>
       <c r="C25" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A25&amp;"','','"&amp;SUBSTITUTE(B25,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-08-54','','Address','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-CD-02-25'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-02-25','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="C26" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A26&amp;"','','"&amp;SUBSTITUTE(B26,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-09-58','','Post code','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-CD-02-26'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-02-26','','Full name','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>351</v>
-      </c>
-      <c r="B27" t="s">
-        <v>331</v>
+        <v>486</v>
       </c>
       <c r="C27" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A27&amp;"','','"&amp;SUBSTITUTE(B27,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-10-62','','Email address','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-CD-02-27'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-02-27','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>284</v>
-      </c>
-      <c r="B28" t="s">
-        <v>285</v>
+        <v>487</v>
       </c>
       <c r="C28" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A28&amp;"','','"&amp;SUBSTITUTE(B28,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-11-66','','Telephone','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-CD-02-28'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-02-28','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B29" t="s">
-        <v>418</v>
+        <v>488</v>
       </c>
       <c r="C29" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A29&amp;"','','"&amp;SUBSTITUTE(B29,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-69','','UK provider registration number (UKPRN)','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-CD-03-29'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-03-29','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>279</v>
+        <v>110</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
       </c>
       <c r="C30" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A30&amp;"','','"&amp;SUBSTITUTE(B30,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-70','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-CD-03-30'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-03-30','','Address','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>399</v>
-      </c>
-      <c r="B31" t="s">
-        <v>418</v>
+        <v>489</v>
       </c>
       <c r="C31" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A31&amp;"','','"&amp;SUBSTITUTE(B31,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-72','','UK provider registration number (UKPRN)','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-CD-03-31'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-03-31','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>322</v>
-      </c>
-      <c r="B32" t="s">
-        <v>425</v>
+        <v>490</v>
       </c>
       <c r="C32" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A32&amp;"','','"&amp;SUBSTITUTE(B32,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12-74','','Do you have a UK provider registration number (UKPRN)?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-CD-03-32'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-03-32','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>491</v>
       </c>
       <c r="C33" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A33&amp;"','','"&amp;SUBSTITUTE(B33,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12.1-77','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-CD-04-33'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-04-33','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>391</v>
+        <v>171</v>
       </c>
       <c r="B34" t="s">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="C34" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A34&amp;"','','"&amp;SUBSTITUTE(B34,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12.1-78','','Provide your UKPRN','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-CD-04-34'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-04-34','','Post code','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>369</v>
+        <v>492</v>
       </c>
       <c r="C35" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A35&amp;"','','"&amp;SUBSTITUTE(B35,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12.1-79','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-CD-04-35'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-04-35','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>408</v>
+        <v>493</v>
       </c>
       <c r="C36" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A36&amp;"','','"&amp;SUBSTITUTE(B36,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12.1-80','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-CD-04-36'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-04-36','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>378</v>
-      </c>
-      <c r="B37" t="s">
-        <v>379</v>
+        <v>494</v>
       </c>
       <c r="C37" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A37&amp;"','','"&amp;SUBSTITUTE(B37,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-81','','Who has responsibility for the overall executive management of your organisation?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-CD-05-37'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-05-37','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>360</v>
+        <v>330</v>
+      </c>
+      <c r="B38" t="s">
+        <v>331</v>
       </c>
       <c r="C38" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A38&amp;"','','"&amp;SUBSTITUTE(B38,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-82','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-CD-05-38'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-05-38','','Email address','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
+        <v>495</v>
       </c>
       <c r="C39" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A39&amp;"','','"&amp;SUBSTITUTE(B39,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-84','','Overall executive management','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-CD-05-39'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-05-39','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>162</v>
-      </c>
-      <c r="B40" t="s">
-        <v>35</v>
+        <v>496</v>
       </c>
       <c r="C40" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A40&amp;"','','"&amp;SUBSTITUTE(B40,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-13-86','','Full name','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-CD-05-40'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-05-40','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="C41" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A41&amp;"','','"&amp;SUBSTITUTE(B41,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14-90','','Do they hold any other positions or directorships of other organisations?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-CD-06-41'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-06-41','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>359</v>
+      </c>
+      <c r="B42" t="s">
+        <v>285</v>
       </c>
       <c r="C42" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A42&amp;"','','"&amp;SUBSTITUTE(B42,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14.1-93','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-CD-06-42'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-06-42','','Telephone','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>146</v>
-      </c>
-      <c r="B43" t="s">
-        <v>147</v>
+        <v>498</v>
       </c>
       <c r="C43" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A43&amp;"','','"&amp;SUBSTITUTE(B43,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14.1-94','','Provide details','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-CD-06-43'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-06-43','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>499</v>
       </c>
       <c r="C44" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A44&amp;"','','"&amp;SUBSTITUTE(B44,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14.1-95','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-3-CD-06-44'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-3-CD-06-44','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>430</v>
       </c>
       <c r="C45" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A45&amp;"','','"&amp;SUBSTITUTE(B45,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14.1-96','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-45'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-45','','Who should we send the contract notice to','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>47</v>
+        <v>290</v>
       </c>
       <c r="C46" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A46&amp;"','','"&amp;SUBSTITUTE(B46,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-100','','Ofqual recognition number','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-46'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-46','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" t="s">
-        <v>47</v>
+        <v>500</v>
       </c>
       <c r="C47" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A47&amp;"','','"&amp;SUBSTITUTE(B47,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-97','','Ofqual recognition number','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-47'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-47','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
       </c>
       <c r="C48" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A48&amp;"','','"&amp;SUBSTITUTE(B48,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-98','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-48'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-48','','Contract notice contact details','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" t="s">
-        <v>137</v>
+        <v>501</v>
       </c>
       <c r="C49" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A49&amp;"','','"&amp;SUBSTITUTE(B49,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15-102','','Do you have an Ofqual recognition number?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-CD-07-49'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-07-49','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>379</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
       </c>
       <c r="C50" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A50&amp;"','','"&amp;SUBSTITUTE(B50,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15.1-105','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-CD-07-50'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-07-50','','Full name','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>288</v>
-      </c>
-      <c r="B51" t="s">
-        <v>289</v>
+        <v>502</v>
       </c>
       <c r="C51" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A51&amp;"','','"&amp;SUBSTITUTE(B51,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15.1-106','','Provide us with your Ofqual recognition number','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-CD-07-51'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-07-51','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>407</v>
+        <v>503</v>
       </c>
       <c r="C52" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A52&amp;"','','"&amp;SUBSTITUTE(B52,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15.1-107','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-CD-07-52'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-07-52','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>504</v>
       </c>
       <c r="C53" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A53&amp;"','','"&amp;SUBSTITUTE(B53,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15.1-108','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-CD-08-53'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-08-53','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>364</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>258</v>
+        <v>8</v>
       </c>
       <c r="C54" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A54&amp;"','','"&amp;SUBSTITUTE(B54,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-109','','Trading status','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-CD-08-54'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-08-54','','Address','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>293</v>
+        <v>505</v>
       </c>
       <c r="C55" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A55&amp;"','','"&amp;SUBSTITUTE(B55,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-110','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-CD-08-55'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-08-55','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>257</v>
-      </c>
-      <c r="B56" t="s">
-        <v>258</v>
+        <v>506</v>
       </c>
       <c r="C56" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A56&amp;"','','"&amp;SUBSTITUTE(B56,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-112','','Trading status','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-CD-08-56'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-08-56','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>139</v>
-      </c>
-      <c r="B57" t="s">
-        <v>140</v>
+        <v>507</v>
       </c>
       <c r="C57" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A57&amp;"','','"&amp;SUBSTITUTE(B57,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16-114','','What''s your trading status?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-CD-09-57'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-09-57','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>265</v>
+        <v>82</v>
       </c>
       <c r="C58" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A58&amp;"','','"&amp;SUBSTITUTE(B58,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16.1-117','','Describe your trading status','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-CD-09-58'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-09-58','','Post code','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>264</v>
+        <v>508</v>
       </c>
       <c r="C59" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A59&amp;"','','"&amp;SUBSTITUTE(B59,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16.1-118','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-CD-09-59'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-09-59','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>131</v>
+        <v>509</v>
       </c>
       <c r="C60" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A60&amp;"','','"&amp;SUBSTITUTE(B60,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16.1-119','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-CD-09-60'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-09-60','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>316</v>
+        <v>510</v>
       </c>
       <c r="C61" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A61&amp;"','','"&amp;SUBSTITUTE(B61,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16.1-120','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-CD-10-61'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-10-61','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>349</v>
       </c>
       <c r="B62" t="s">
-        <v>424</v>
+        <v>331</v>
       </c>
       <c r="C62" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A62&amp;"','','"&amp;SUBSTITUTE(B62,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-121','','Company number','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-CD-10-62'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-10-62','','Email address','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>511</v>
       </c>
       <c r="C63" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A63&amp;"','','"&amp;SUBSTITUTE(B63,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-122','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-CD-10-63'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-10-63','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>283</v>
-      </c>
-      <c r="B64" t="s">
-        <v>424</v>
+        <v>512</v>
       </c>
       <c r="C64" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A64&amp;"','','"&amp;SUBSTITUTE(B64,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-124','','Company number','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-CD-10-64'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-10-64','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>158</v>
-      </c>
-      <c r="B65" t="s">
-        <v>436</v>
+        <v>513</v>
       </c>
       <c r="C65" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A65&amp;"','','"&amp;SUBSTITUTE(B65,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17-126','','Do you have a company number?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="0"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-CD-11-65'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-11-65','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>284</v>
+      </c>
+      <c r="B66" t="s">
+        <v>285</v>
       </c>
       <c r="C66" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A66&amp;"','','"&amp;SUBSTITUTE(B66,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17.1-129','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" ref="C66:C129" si="1">"DELETE FROM Assets WHERE Reference = '"&amp;A66&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A66&amp;"','','"&amp;SUBSTITUTE(B66,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-CD-11-66'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-11-66','','Telephone','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" t="s">
-        <v>21</v>
+        <v>514</v>
       </c>
       <c r="C67" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A67&amp;"','','"&amp;SUBSTITUTE(B67,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17.1-130','','What is your number','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-CD-11-67'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-11-67','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>409</v>
+        <v>515</v>
       </c>
       <c r="C68" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A68&amp;"','','"&amp;SUBSTITUTE(B68,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17.1-131','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-4-CD-11-68'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-4-CD-11-68','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>196</v>
+      </c>
+      <c r="B69" t="s">
+        <v>415</v>
       </c>
       <c r="C69" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A69&amp;"','','"&amp;SUBSTITUTE(B69,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17.1-132','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-5-69'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-69','','UK provider registration number (UKPRN)','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>143</v>
-      </c>
-      <c r="B70" t="s">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="C70" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A70&amp;"','','"&amp;SUBSTITUTE(B70,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-133','','Part of a group of companies?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-5-70'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-70','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>406</v>
+        <v>516</v>
       </c>
       <c r="C71" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A71&amp;"','','"&amp;SUBSTITUTE(B71,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-134','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-5-71'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-71','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="C72" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A72&amp;"','','"&amp;SUBSTITUTE(B72,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-136','','Part of a group of companies?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-5-72'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-72','','UK provider registration number (UKPRN)','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>220</v>
-      </c>
-      <c r="B73" t="s">
-        <v>437</v>
+        <v>517</v>
       </c>
       <c r="C73" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A73&amp;"','','"&amp;SUBSTITUTE(B73,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18-138','','Is your company registered overseas?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-5-CD-12-73'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12-73','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>368</v>
+        <v>322</v>
+      </c>
+      <c r="B74" t="s">
+        <v>422</v>
       </c>
       <c r="C74" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A74&amp;"','','"&amp;SUBSTITUTE(B74,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.1-141','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-5-CD-12-74'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12-74','','Do you have a UK provider registration number (UKPRN)?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>266</v>
-      </c>
-      <c r="B75" t="s">
-        <v>267</v>
+        <v>518</v>
       </c>
       <c r="C75" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A75&amp;"','','"&amp;SUBSTITUTE(B75,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.1-142','','Country','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-5-CD-12-75'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12-75','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>402</v>
+        <v>519</v>
       </c>
       <c r="C76" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A76&amp;"','','"&amp;SUBSTITUTE(B76,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.1-143','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-5-CD-12-76'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12-76','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>397</v>
+        <v>134</v>
       </c>
       <c r="C77" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A77&amp;"','','"&amp;SUBSTITUTE(B77,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.1-144','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-5-CD-12.1-77'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12.1-77','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>165</v>
+        <v>388</v>
+      </c>
+      <c r="B78" t="s">
+        <v>431</v>
       </c>
       <c r="C78" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A78&amp;"','','"&amp;SUBSTITUTE(B78,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.2-145','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-5-CD-12.1-78'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12.1-78','','Provide your UKPRN','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>299</v>
-      </c>
-      <c r="B79" t="s">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="C79" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A79&amp;"','','"&amp;SUBSTITUTE(B79,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.2-146','','Registration number','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-5-CD-12.1-79'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12.1-79','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>263</v>
+        <v>405</v>
       </c>
       <c r="C80" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A80&amp;"','','"&amp;SUBSTITUTE(B80,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.2-147','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-5-CD-12.1-80'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-5-CD-12.1-80','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>167</v>
+        <v>376</v>
+      </c>
+      <c r="B81" t="s">
+        <v>377</v>
       </c>
       <c r="C81" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A81&amp;"','','"&amp;SUBSTITUTE(B81,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.2-148','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-6-81'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-81','','Who has responsibility for the overall executive management of your organisation?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>309</v>
-      </c>
-      <c r="B82" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="C82" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A82&amp;"','','"&amp;SUBSTITUTE(B82,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-149','','Director details','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-6-82'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-82','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="C83" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A83&amp;"','','"&amp;SUBSTITUTE(B83,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-150','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-6-83'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-83','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="C84" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A84&amp;"','','"&amp;SUBSTITUTE(B84,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-152','','Directors','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-6-84'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-84','','Overall executive management','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>363</v>
-      </c>
-      <c r="B85" t="s">
-        <v>35</v>
+        <v>521</v>
       </c>
       <c r="C85" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A85&amp;"','','"&amp;SUBSTITUTE(B85,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-19-154','','Full name','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-6-CD-13-85'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-13-85','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="B86" t="s">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="C86" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A86&amp;"','','"&amp;SUBSTITUTE(B86,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-20-158','','Date of birth','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-6-CD-13-86'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-13-86','','Full name','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>117</v>
-      </c>
-      <c r="B87" t="s">
-        <v>118</v>
+        <v>522</v>
       </c>
       <c r="C87" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A87&amp;"','','"&amp;SUBSTITUTE(B87,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-21-162','','How many shares does the director hold?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-6-CD-13-87'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-13-87','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>236</v>
-      </c>
-      <c r="B88" t="s">
-        <v>237</v>
+        <v>523</v>
       </c>
       <c r="C88" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A88&amp;"','','"&amp;SUBSTITUTE(B88,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-12-165','','Director data','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-6-CD-13-88'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-13-88','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>190</v>
-      </c>
-      <c r="B89" t="s">
-        <v>417</v>
+        <v>524</v>
       </c>
       <c r="C89" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A89&amp;"','','"&amp;SUBSTITUTE(B89,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-12-166','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;Un-discharged bankruptcy&lt;/li&gt;&lt;li&gt;Composition with creditors&lt;/li&gt;&lt;li&gt;Any form of dispute&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-6-CD-14-89'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14-89','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>227</v>
+        <v>42</v>
       </c>
       <c r="B90" t="s">
-        <v>228</v>
+        <v>432</v>
       </c>
       <c r="C90" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A90&amp;"','','"&amp;SUBSTITUTE(B90,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-12-168','','Directors data','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-6-CD-14-90'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14-90','','Do they hold any other positions or directorships of other organisations?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>48</v>
-      </c>
-      <c r="B91" t="s">
-        <v>49</v>
+        <v>525</v>
       </c>
       <c r="C91" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A91&amp;"','','"&amp;SUBSTITUTE(B91,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-12-CD-22-170','','Has any director, or any other person with significant control of your organisation, had one or more of the following?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-6-CD-14-91'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14-91','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>28</v>
-      </c>
-      <c r="B92" t="s">
-        <v>439</v>
+        <v>526</v>
       </c>
       <c r="C92" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A92&amp;"','','"&amp;SUBSTITUTE(B92,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-173','','Further detail of incident','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-6-CD-14-92'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14-92','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="C93" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A93&amp;"','','"&amp;SUBSTITUTE(B93,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-174','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-6-CD-14.1-93'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14.1-93','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>356</v>
+        <v>146</v>
       </c>
       <c r="B94" t="s">
-        <v>439</v>
+        <v>147</v>
       </c>
       <c r="C94" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A94&amp;"','','"&amp;SUBSTITUTE(B94,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-176','','Further detail of incident','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-6-CD-14.1-94'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14.1-94','','Provide details','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>132</v>
-      </c>
-      <c r="B95" t="s">
-        <v>438</v>
+        <v>56</v>
       </c>
       <c r="C95" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A95&amp;"','','"&amp;SUBSTITUTE(B95,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-23-178','','Date of incident','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-6-CD-14.1-95'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14.1-95','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>129</v>
-      </c>
-      <c r="B96" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C96" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A96&amp;"','','"&amp;SUBSTITUTE(B96,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-24-182','','Brief summary','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-6-CD-14.1-96'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14.1-96','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="B97" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="C97" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A97&amp;"','','"&amp;SUBSTITUTE(B97,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-25-186','','Any outstanding court action or legal proceedings','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-7-97'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-97','','Ofqual recognition number','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>297</v>
-      </c>
-      <c r="B98" t="s">
-        <v>298</v>
+        <v>84</v>
       </c>
       <c r="C98" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A98&amp;"','','"&amp;SUBSTITUTE(B98,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-189','','Registered charity','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-7-98'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-98','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>151</v>
+        <v>527</v>
       </c>
       <c r="C99" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A99&amp;"','','"&amp;SUBSTITUTE(B99,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-190','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-7-99'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-99','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>339</v>
+        <v>46</v>
       </c>
       <c r="B100" t="s">
-        <v>298</v>
+        <v>47</v>
       </c>
       <c r="C100" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A100&amp;"','','"&amp;SUBSTITUTE(B100,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-192','','Registered charity','Live',GETUTCDATE(),'Import')</v>
+        <f>"DELETE FROM Assets WHERE Reference = '"&amp;A100&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A100&amp;"','','"&amp;SUBSTITUTE(B100,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-7-100'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-100','','Ofqual recognition number','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>390</v>
-      </c>
-      <c r="B101" t="s">
-        <v>441</v>
+        <v>528</v>
       </c>
       <c r="C101" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A101&amp;"','','"&amp;SUBSTITUTE(B101,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26-194','','Is your organisation a registered charity?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-7-CD-15-101'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15-101','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>305</v>
+        <v>136</v>
+      </c>
+      <c r="B102" t="s">
+        <v>137</v>
       </c>
       <c r="C102" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A102&amp;"','','"&amp;SUBSTITUTE(B102,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26.1-197','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-7-CD-15-102'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15-102','','Do you have an Ofqual recognition number?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>374</v>
-      </c>
-      <c r="B103" t="s">
-        <v>440</v>
+        <v>529</v>
       </c>
       <c r="C103" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A103&amp;"','','"&amp;SUBSTITUTE(B103,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26.1-198','','What is the registered charity number?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-7-CD-15-103'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15-103','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>392</v>
+        <v>530</v>
       </c>
       <c r="C104" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A104&amp;"','','"&amp;SUBSTITUTE(B104,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26.1-199','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-7-CD-15-104'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15-104','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C105" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A105&amp;"','','"&amp;SUBSTITUTE(B105,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26.1-200','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-7-CD-15.1-105'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15.1-105','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>352</v>
+        <v>288</v>
       </c>
       <c r="B106" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="C106" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A106&amp;"','','"&amp;SUBSTITUTE(B106,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-201','','Register of Removed Trustees','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-7-CD-15.1-106'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15.1-106','','Provide us with your Ofqual recognition number','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>157</v>
+        <v>404</v>
       </c>
       <c r="C107" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A107&amp;"','','"&amp;SUBSTITUTE(B107,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-202','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-7-CD-15.1-107'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15.1-107','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>345</v>
-      </c>
-      <c r="B108" t="s">
-        <v>346</v>
+        <v>50</v>
       </c>
       <c r="C108" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A108&amp;"','','"&amp;SUBSTITUTE(B108,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-204','','Register of Removed Trustees','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-7-CD-15.1-108'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-7-CD-15.1-108','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="B109" t="s">
-        <v>401</v>
+        <v>258</v>
       </c>
       <c r="C109" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A109&amp;"','','"&amp;SUBSTITUTE(B109,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27-206','','Has any director, or any other person with significant control of your organisation, been removed from the Charities Commission or appear on the Register of Removed Trustees?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-8-109'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-109','','Trading status','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>174</v>
+        <v>293</v>
       </c>
       <c r="C110" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A110&amp;"','','"&amp;SUBSTITUTE(B110,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27.1-209','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-8-110'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-110','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>335</v>
-      </c>
-      <c r="B111" t="s">
-        <v>35</v>
+        <v>531</v>
       </c>
       <c r="C111" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A111&amp;"','','"&amp;SUBSTITUTE(B111,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27.1-210','','Full name','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-8-111'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-111','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>257</v>
+      </c>
+      <c r="B112" t="s">
+        <v>258</v>
       </c>
       <c r="C112" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A112&amp;"','','"&amp;SUBSTITUTE(B112,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27.1-211','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-8-112'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-112','','Trading status','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>159</v>
+        <v>532</v>
       </c>
       <c r="C113" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A113&amp;"','','"&amp;SUBSTITUTE(B113,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27.1-212','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-8-CD-16-113'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16-113','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="B114" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="C114" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A114&amp;"','','"&amp;SUBSTITUTE(B114,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-213','','Authoriser details','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-8-CD-16-114'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16-114','','What''s your trading status?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>375</v>
-      </c>
-      <c r="B115" t="s">
-        <v>376</v>
+        <v>533</v>
       </c>
       <c r="C115" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A115&amp;"','','"&amp;SUBSTITUTE(B115,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-214','','&lt;p class="govuk-body"&gt;Who is signing your application?&lt;/p&gt;&lt;p class="govuk-body"&gt;Include the name and job title of the person named as authoriser.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-8-CD-16-115'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16-115','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>382</v>
-      </c>
-      <c r="B116" t="s">
-        <v>383</v>
+        <v>534</v>
       </c>
       <c r="C116" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A116&amp;"','','"&amp;SUBSTITUTE(B116,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-216','','Invitation to Apply','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-8-CD-16-116'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16-116','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="B117" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="C117" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A117&amp;"','','"&amp;SUBSTITUTE(B117,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-W_DEL-01-218','','Name','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-8-CD-16.1-117'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16.1-117','','Describe your trading status','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>377</v>
-      </c>
-      <c r="B118" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="C118" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A118&amp;"','','"&amp;SUBSTITUTE(B118,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-W_DEL-01-219','','Name','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-8-CD-16.1-118'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16.1-118','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>11</v>
-      </c>
-      <c r="B119" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="C119" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A119&amp;"','','"&amp;SUBSTITUTE(B119,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-W_DEL-02-222','','Job title','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-8-CD-16.1-119'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16.1-119','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>39</v>
-      </c>
-      <c r="B120" t="s">
-        <v>12</v>
+        <v>316</v>
       </c>
       <c r="C120" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A120&amp;"','','"&amp;SUBSTITUTE(B120,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-W_DEL-02-223','','Job title','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-8-CD-16.1-120'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16.1-120','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>77</v>
+        <v>421</v>
       </c>
       <c r="C121" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A121&amp;"','','"&amp;SUBSTITUTE(B121,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-17-225','','Terms and conditions','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-9-121'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-121','','Company number','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>204</v>
-      </c>
-      <c r="B122" t="s">
-        <v>419</v>
+        <v>4</v>
       </c>
       <c r="C122" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A122&amp;"','','"&amp;SUBSTITUTE(B122,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-17-226','','&lt;p class="govuk-body"&gt;If you make an application to be added to the register, youï¿½re agreeing to the terms and conditions in the legal documentation.&lt;/p&gt;&lt;p class="govuk-body"&gt;You must be able to truthfully answer ï¿½yesï¿½ to every question on this page for your application to be considered eligible.&lt;/p&gt;&lt;p class="govuk-body"&gt;If you canï¿½t answer ï¿½yesï¿½ to every question on this page, itï¿½s very unlikely that your application will be accepted.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-9-122'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-122','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>222</v>
-      </c>
-      <c r="B123" t="s">
-        <v>77</v>
+        <v>535</v>
       </c>
       <c r="C123" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A123&amp;"','','"&amp;SUBSTITUTE(B123,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-17-228','','Terms and conditions','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-9-123'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-123','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>370</v>
+        <v>283</v>
       </c>
       <c r="B124" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C124" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A124&amp;"','','"&amp;SUBSTITUTE(B124,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-17-W_DEL-03-230','','Do you agree to comply with the terms of the conditions for organisations on the register of end-point assessment organisations (link opens in a new tab) and sign and return the ï¿½Conditions for organisations on the register of end-point assessment organisationsï¿½?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-9-124'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-124','','Company number','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>240</v>
-      </c>
-      <c r="B125" t="s">
-        <v>77</v>
+        <v>536</v>
       </c>
       <c r="C125" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A125&amp;"','','"&amp;SUBSTITUTE(B125,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-17-W_DEL-03-231','','Terms and conditions','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-9-CD-17-125'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17-125','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="B126" t="s">
-        <v>203</v>
+        <v>433</v>
       </c>
       <c r="C126" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A126&amp;"','','"&amp;SUBSTITUTE(B126,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-233','','Providing services straight away','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-9-CD-17-126'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17-126','','Do you have a company number?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>67</v>
+        <v>537</v>
       </c>
       <c r="C127" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A127&amp;"','','"&amp;SUBSTITUTE(B127,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-234','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-9-CD-17-127'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17-127','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>202</v>
-      </c>
-      <c r="B128" t="s">
-        <v>203</v>
+        <v>538</v>
       </c>
       <c r="C128" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A128&amp;"','','"&amp;SUBSTITUTE(B128,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-236','','Providing services straight away','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-9-CD-17-128'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17-128','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>144</v>
-      </c>
-      <c r="B129" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C129" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A129&amp;"','','"&amp;SUBSTITUTE(B129,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04-238','','If your application is successful, can you start an end-point assessment on the day you join the RoEPAO?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="1"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-9-CD-17.1-129'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17.1-129','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>371</v>
+        <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="C130" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A130&amp;"','','"&amp;SUBSTITUTE(B130,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04-239','','Providing services straight away','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" ref="C130:C193" si="2">"DELETE FROM Assets WHERE Reference = '"&amp;A130&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A130&amp;"','','"&amp;SUBSTITUTE(B130,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-9-CD-17.1-130'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17.1-130','','What is your number','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="C131" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A131&amp;"','','"&amp;SUBSTITUTE(B131,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04.1-241','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-9-CD-17.1-131'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17.1-131','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>308</v>
-      </c>
-      <c r="B132" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="C132" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A132&amp;"','','"&amp;SUBSTITUTE(B132,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04.1-242','','When will you be ready to do your first assessments?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-9-CD-17.1-132'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-9-CD-17.1-132','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="B133" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C133" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A133&amp;"','','"&amp;SUBSTITUTE(B133,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04.1-243','','When will you be ready to do your first assessments?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-10-133'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-133','','Part of a group of companies?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>31</v>
+        <v>403</v>
       </c>
       <c r="C134" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A134&amp;"','','"&amp;SUBSTITUTE(B134,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04.1-244','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-10-134'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-134','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>187</v>
-      </c>
-      <c r="B135" t="s">
-        <v>188</v>
+        <v>440</v>
       </c>
       <c r="C135" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A135&amp;"','','"&amp;SUBSTITUTE(B135,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-245','','Grounds for Mandatory exclusion','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-10-135'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-135','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="B136" t="s">
-        <v>422</v>
+        <v>80</v>
       </c>
       <c r="C136" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A136&amp;"','','"&amp;SUBSTITUTE(B136,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-246','','&lt;p class="govuk-body"&gt;You must be able to truthfully answer ï¿½noï¿½ to every question under ï¿½Grounds for mandatory exclusionï¿½ for your application to be considered eligible. If you canï¿½t answer ï¿½noï¿½ to every question in this section, itï¿½s very unlikely that your application will be accepted.&lt;/p&gt;&lt;p class="govuk-body"&gt;In the next series of questions under grounds for mandatory exclusion, ï¿½anyone who represents, supervises or has control in your organisation or a partner or parent organisationï¿½ includes members of your group of economic operators, their proposed subcontractors, and any directors, partners, or any other person who has powers of representation, decision or control.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-10-136'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-136','','Part of a group of companies?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>380</v>
-      </c>
-      <c r="B137" t="s">
-        <v>188</v>
+        <v>441</v>
       </c>
       <c r="C137" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A137&amp;"','','"&amp;SUBSTITUTE(B137,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-248','','Grounds for Mandatory exclusion','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-10-CD-18-137'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18-137','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>304</v>
+        <v>220</v>
       </c>
       <c r="B138" t="s">
-        <v>178</v>
+        <v>434</v>
       </c>
       <c r="C138" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A138&amp;"','','"&amp;SUBSTITUTE(B138,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-05-250','','I understand and accept that:','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-10-CD-18-138'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18-138','','Is your company registered overseas?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>177</v>
-      </c>
-      <c r="B139" t="s">
-        <v>178</v>
+        <v>442</v>
       </c>
       <c r="C139" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A139&amp;"','','"&amp;SUBSTITUTE(B139,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-05-251','','I understand and accept that:','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-10-CD-18-139'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18-139','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>229</v>
-      </c>
-      <c r="B140" t="s">
-        <v>230</v>
+        <v>443</v>
       </c>
       <c r="C140" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A140&amp;"','','"&amp;SUBSTITUTE(B140,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-05-252','','&lt;p class="govuk-body"&gt;Information cannot be amended after the application has been submitted and reviewed,the Education and Skills Funding Agency may at its sole discretion use information it already holds, obtains from other Government bodies or which is already in the public domain to validate part or all of any answer we have given in this submission and the information obtained may be shared with employers to assist them in their selection process,the Education and Skills Funding Agency may seek additional assurances from my organisation based on this information.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-10-CD-18-140'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18-140','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>394</v>
-      </c>
-      <c r="B141" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="C141" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A141&amp;"','','"&amp;SUBSTITUTE(B141,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-06-254','','I confirm that the information to be uploaded in response to the Financial Health Assessment complies with the requirements stated in the ''Guidance for Applicants'' document.','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-10-CD-18.1-141'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.1-141','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="B142" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="C142" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A142&amp;"','','"&amp;SUBSTITUTE(B142,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-06-255','','I confirm that the information to be uploaded in response to the Financial Health Assessment complies with the requirements stated in the ''Guidance for Applicants'' document.','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-10-CD-18.1-142'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.1-142','','Country','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>113</v>
+        <v>399</v>
       </c>
       <c r="C143" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A143&amp;"','','"&amp;SUBSTITUTE(B143,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-06-256','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-10-CD-18.1-143'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.1-143','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>149</v>
-      </c>
-      <c r="B144" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="C144" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A144&amp;"','','"&amp;SUBSTITUTE(B144,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-07-258','','Do you agree to inform the Education and Skills Funding Agency as soon as possible if there are any changes to the information youï¿½re providing in this declaration?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-10-CD-18.1-144'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.1-144','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>45</v>
-      </c>
-      <c r="B145" t="s">
-        <v>412</v>
+        <v>165</v>
       </c>
       <c r="C145" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A145&amp;"','','"&amp;SUBSTITUTE(B145,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-07-259','','Do you agree to inform the Education and Skills Funding Agency as soon as possible if there are any changes to the information youï¿½re providing in this declaration?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-10-CD-18.2-145'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.2-145','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>98</v>
+        <v>299</v>
+      </c>
+      <c r="B146" t="s">
+        <v>300</v>
       </c>
       <c r="C146" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A146&amp;"','','"&amp;SUBSTITUTE(B146,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-07-260','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-10-CD-18.2-146'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.2-146','','Registration number','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>254</v>
-      </c>
-      <c r="B147" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C147" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A147&amp;"','','"&amp;SUBSTITUTE(B147,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-08-262','','I can confirm that we have read the conditions of acceptance and that we would be able to agree to these if our application is successful?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-10-CD-18.2-147'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.2-147','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>223</v>
-      </c>
-      <c r="B148" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="C148" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A148&amp;"','','"&amp;SUBSTITUTE(B148,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-08-263','','Condition of acceptance','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-10-CD-18.2-148'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.2-148','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>309</v>
+      </c>
+      <c r="B149" t="s">
+        <v>310</v>
       </c>
       <c r="C149" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A149&amp;"','','"&amp;SUBSTITUTE(B149,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-08-264','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-11-149'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-149','','Director details','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>102</v>
-      </c>
-      <c r="B150" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="C150" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A150&amp;"','','"&amp;SUBSTITUTE(B150,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-09-266','','Confirm whether, within the past 5 years, anyone who represents, supervises or has control in your organisation or a partner or parent organisations has been convicted of:','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-11-150'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-150','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>386</v>
-      </c>
-      <c r="B151" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="C151" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A151&amp;"','','"&amp;SUBSTITUTE(B151,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-09-267','','Organised crime or conspiracy convictions','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-11-151'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-151','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>324</v>
+        <v>85</v>
       </c>
       <c r="B152" t="s">
-        <v>426</v>
+        <v>86</v>
       </c>
       <c r="C152" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A152&amp;"','','"&amp;SUBSTITUTE(B152,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-09-268','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;any offence under sections 44 to 46 of the Serious Crime Act 2007 which relates to an offence covered by subparagraph (f)&lt;/li&gt;&lt;li&gt;conspiracy within the meaning of section 1 or 1A of the Criminal Law Act 1977&lt;/li&gt;&lt;li&gt;conspiracy within the meaning of article 9 or 9A of the Criminal Attempts and Conspiracy (Northern Ireland) Order 1983 where that conspiracy relates to participation in a criminal organisation as defined in Article 2 of Council Framework Decision 2008/842/JHA on the fight against organised crime&lt;/li&gt;&lt;/ul&gt;&lt;p class="govuk-body"&gt;Answer ï¿½yesï¿½ if anyone who represents, supervises or has control in your organisation or a partner or parent organisation has been convicted of any of the above.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-11-152'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-152','','Directors','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>13</v>
-      </c>
-      <c r="B153" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="C153" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A153&amp;"','','"&amp;SUBSTITUTE(B153,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-10-270','','Confirm whether, within the past 5 years, anyone who represents, supervises or has control in your organisation or a partner or parent organisations has been convicted of any offence that relates to fraud affecting the European Communitiesï¿½ financial interests as defined by article 1 of the Convention of the Protection of the Financial Interests of the European Communities, including:','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-11-CD-19-153'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-19-153','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>217</v>
+        <v>361</v>
       </c>
       <c r="B154" t="s">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="C154" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A154&amp;"','','"&amp;SUBSTITUTE(B154,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-10-271','','Bribery or corruption convictions','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-11-CD-19-154'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-19-154','','Full name','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>343</v>
-      </c>
-      <c r="B155" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="C155" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A155&amp;"','','"&amp;SUBSTITUTE(B155,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-10-272','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;the common law offence of cheating the Revenue (HMRC)&lt;/li&gt;&lt;li&gt;the common law offence of conspiracy to defraud&lt;/li&gt;&lt;li&gt;fraud or theft within the meaning of the Theft Act 1968, the Theft Act (Northern Ireland) 1969, the Theft Act 1978 or the Theft (Northern Ireland) Order 1978&lt;/li&gt;&lt;li&gt;fraudulent trading within the meaning of section 458 of the Companies Act 1985, article 451 of the Companies (Northern Ireland) Order 1986 or section 993 of the Companies Act 2006&lt;/li&gt;&lt;li&gt;fraudulent evasion within the meaning of section 170 of the Customs and Excise Management Act 1979 or section 72 of the Value Added Tax Act 1994&lt;/li&gt;&lt;li&gt;an offence in connection with taxation in the European Union within the meaning of section 71 of the Criminal Justice Act 1993&lt;/li&gt;&lt;li&gt;destroying, defacing or concealing of documents or procuring the execution of a valuable security within the meaning of section 20 of the Theft Act 1968 or section 19 of the Theft Act (Northern Ireland) 1969&lt;/li&gt;&lt;li&gt;fraud within the meaning of section 2, 3 or 4 of the Fraud Act 2006&lt;/li&gt;&lt;li&gt;the possession of articles for use in frauds within the meaning of section 6 of the Fraud Act 2006, or the making, adapting, supplying or offering to supply articles for use in frauds within the meaning of section 7 of that Act&lt;/li&gt;&lt;/ul&gt;&lt;p class="govuk-body"&gt;Answer ï¿½yesï¿½ if anyone who represents, supervises or has control in your organisation or a partner or parent organisation has been convicted of any of the above.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-11-CD-19-155'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-19-155','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>312</v>
-      </c>
-      <c r="B156" t="s">
-        <v>313</v>
+        <v>447</v>
       </c>
       <c r="C156" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A156&amp;"','','"&amp;SUBSTITUTE(B156,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-11-274','','Confirm whether, within the past 5 years, anyone who represents, supervises or has control in your organisation or a partner or parent organisation has been convicted of any offence listed in:','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-11-CD-19-156'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-19-156','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>277</v>
-      </c>
-      <c r="B157" t="s">
-        <v>278</v>
+        <v>448</v>
       </c>
       <c r="C157" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A157&amp;"','','"&amp;SUBSTITUTE(B157,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-11-275','','Terrorism convictions','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-11-CD-20-157'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-20-157','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="B158" t="s">
-        <v>411</v>
+        <v>212</v>
       </c>
       <c r="C158" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A158&amp;"','','"&amp;SUBSTITUTE(B158,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-11-276','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;section 41 of the Counter Terrorism Act 2008&lt;/li&gt;&lt;li&gt;schedule 2 of the Counter Terrorism Act 2008 where the court has determined that there is a terrorist connection&lt;/li&gt;&lt;li&gt;any offence under sections 44 to 46 of the Serious Crime Act 2007&lt;/li&gt;&lt;/ul&gt;&lt;p class="govuk-body"&gt;Answer ï¿½yesï¿½ if anyone who represents, supervises or has control in your organisation or a partner or parent organisation has been convicted of any of the above.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-11-CD-20-158'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-20-158','','Date of birth','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>252</v>
-      </c>
-      <c r="B159" t="s">
-        <v>253</v>
+        <v>449</v>
       </c>
       <c r="C159" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A159&amp;"','','"&amp;SUBSTITUTE(B159,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-12-278','','Confirm whether, within the past 5 years, anyone who represents, supervises or has control in your organisation or a partner or parent organisation has been convicted of:','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-11-CD-20-159'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-20-159','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>247</v>
-      </c>
-      <c r="B160" t="s">
-        <v>248</v>
+        <v>450</v>
       </c>
       <c r="C160" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A160&amp;"','','"&amp;SUBSTITUTE(B160,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-12-279','','Criminal conducts','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-11-CD-20-160'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-20-160','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>215</v>
-      </c>
-      <c r="B161" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="C161" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A161&amp;"','','"&amp;SUBSTITUTE(B161,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-12-280','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;money laundering within the meaning of sections 340(11) and 415 of the Proceeds of Crime Act 2002&lt;/li&gt;&lt;li&gt;an offence in connection with the proceeds of criminal conduct within the meaning of section 93A, 93B or 93C of the Criminal Justice Act 1988 or article 45, 46 or 47 of the Proceeds of Crime (Northern Ireland) Order 1996&lt;/li&gt;&lt;li&gt;an offence under section 4 of the Asylum and Immigration (Treatment of Claimants etc) Act 2004&lt;/li&gt;&lt;li&gt;an offence under section 59A of the Sexual Offences Act 2003&lt;/li&gt;&lt;li&gt;an offence under section 71 of the Coroners and Justice Act 2009&lt;/li&gt;&lt;li&gt;an offence in connection with the proceeds of drug trafficking within the meaning of section 49, 50 and 51 of the Drug Trafficking Act 1994&lt;/li&gt;&lt;/ul&gt;&lt;p class="govuk-body"&gt;Answer ï¿½yesï¿½ if anyone who represents, supervises or has control in your organisation or a partner or parent organisation has been convicted of any of the above.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-11-CD-21-161'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-21-161','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="B162" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="C162" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A162&amp;"','','"&amp;SUBSTITUTE(B162,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-281','','Grounds for discretionary exclusion','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-11-CD-21-162'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-21-162','','How many shares does the director hold?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>92</v>
-      </c>
-      <c r="B163" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="C163" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A163&amp;"','','"&amp;SUBSTITUTE(B163,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-282','','&lt;p class="govuk-body"&gt;Information cannot be amended after the application has been submitted and reviewed,the Education and Skills Funding Agency may at its sole discretion use information it already holds, obtains from other Government bodies or which is already in the public domain to validate part or all of any answer we have given in this submission and the information obtained may be shared with employers to assist them in their selection process,the Education and Skills Funding Agency may seek additional assurances from my organisation based on this information.&lt;/p&gt; &lt;p class="govuk-body"&gt;You must be able to truthfully answer ï¿½noï¿½ to every question under ï¿½Grounds for discretionary exclusionï¿½ for your application to be considered eligible. If you canï¿½t answer ï¿½noï¿½, your application may not be accepted.&lt;/p&gt;&lt;p class="govuk-body"&gt;If you do answer ï¿½yesï¿½, you must provide full details of any subsequent event or remedial action that you think the Education and Skills Funding Agency (ESFA) should take into consideration. ESFA will use the information you provide to consider whether or not you will be able to proceed any further with this application.&lt;/p&gt;&lt;p class="govuk-body"&gt;''A partner organisation'' includes members of your group of economic operators or their proposed subcontractors.&lt;/p&gt;&lt;p class="govuk-body"&gt;ESFA can also exclude you if you are guilty of serious misrepresentation in providing any information referred to within regulations 23 (link opens in a new tab), 24 (new tab), 25 (new tab), 26 (new tab) or 27 (new tab) of the Public Contracts Regulations 2015 (new tab) or if you fail to provide any such information it requests.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-11-CD-21-163'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-21-163','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>398</v>
-      </c>
-      <c r="B164" t="s">
-        <v>65</v>
+        <v>453</v>
       </c>
       <c r="C164" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A164&amp;"','','"&amp;SUBSTITUTE(B164,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-284','','Grounds for discretionary exclusion','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-11-CD-21-164'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-11-CD-21-164','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="B165" t="s">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="C165" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A165&amp;"','','"&amp;SUBSTITUTE(B165,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13-286','','Have members of your organisation or a partner organisation been legally found to be in breach of tax payments or social security contributions?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-12-165'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-12-165','','Director data','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="B166" t="s">
-        <v>25</v>
+        <v>414</v>
       </c>
       <c r="C166" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A166&amp;"','','"&amp;SUBSTITUTE(B166,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13-287','','In breach of tax payments','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-12-166'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-12-166','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;Un-discharged bankruptcy&lt;/li&gt;&lt;li&gt;Composition with creditors&lt;/li&gt;&lt;li&gt;Any form of dispute&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>314</v>
+        <v>454</v>
       </c>
       <c r="C167" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A167&amp;"','','"&amp;SUBSTITUTE(B167,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13-288','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-12-167'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-12-167','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>325</v>
+        <v>227</v>
+      </c>
+      <c r="B168" t="s">
+        <v>228</v>
       </c>
       <c r="C168" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A168&amp;"','','"&amp;SUBSTITUTE(B168,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13.1-289','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-12-168'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-12-168','','Directors data','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>168</v>
-      </c>
-      <c r="B169" t="s">
-        <v>169</v>
+        <v>455</v>
       </c>
       <c r="C169" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A169&amp;"','','"&amp;SUBSTITUTE(B169,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13.1-290','','Provide details whether you''ve paid, or have entered into a binding arrangement with a view to paying, including, where applicable, any accrued interest and/or fines.','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-12-CD-22-169'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-12-CD-22-169','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>337</v>
+        <v>48</v>
+      </c>
+      <c r="B170" t="s">
+        <v>49</v>
       </c>
       <c r="C170" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A170&amp;"','','"&amp;SUBSTITUTE(B170,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13.1-291','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-12-CD-22-170'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-12-CD-22-170','','Has any director, or any other person with significant control of your organisation, had one or more of the following?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>282</v>
+        <v>456</v>
       </c>
       <c r="C171" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A171&amp;"','','"&amp;SUBSTITUTE(B171,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13.1-292','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-12-CD-22-171'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-12-CD-22-171','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>96</v>
-      </c>
-      <c r="B172" t="s">
-        <v>97</v>
+        <v>457</v>
       </c>
       <c r="C172" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A172&amp;"','','"&amp;SUBSTITUTE(B172,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-14-294','','Confirm whether, within the past 3 years, your organisation or any of your partner organisations:','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-12-CD-22-172'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-12-CD-22-172','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B173" t="s">
-        <v>41</v>
+        <v>436</v>
       </c>
       <c r="C173" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A173&amp;"','','"&amp;SUBSTITUTE(B173,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-14-295','','Bankruptcy and Insolvency','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-13-173'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-173','','Further detail of incident','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>114</v>
-      </c>
-      <c r="B174" t="s">
-        <v>115</v>
+        <v>370</v>
       </c>
       <c r="C174" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A174&amp;"','','"&amp;SUBSTITUTE(B174,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-14-296','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;has been made bankrupt or the subject of insolvency or winding-up proceedings&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-13-174'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-174','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>319</v>
-      </c>
-      <c r="B175" t="s">
-        <v>320</v>
+        <v>459</v>
       </c>
       <c r="C175" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A175&amp;"','','"&amp;SUBSTITUTE(B175,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-297','','Bankruptcy and Insolvency details','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-13-175'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-175','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>219</v>
+        <v>354</v>
+      </c>
+      <c r="B176" t="s">
+        <v>436</v>
       </c>
       <c r="C176" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A176&amp;"','','"&amp;SUBSTITUTE(B176,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-298','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-13-176'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-176','','Further detail of incident','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>328</v>
-      </c>
-      <c r="B177" t="s">
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="C177" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A177&amp;"','','"&amp;SUBSTITUTE(B177,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-300','','Bankruptcy and Insolvency details','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-13-CD-23-177'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-23-177','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>256</v>
+        <v>132</v>
       </c>
       <c r="B178" t="s">
-        <v>142</v>
+        <v>435</v>
       </c>
       <c r="C178" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A178&amp;"','','"&amp;SUBSTITUTE(B178,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-302','','Type of proceeding','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-13-CD-23-178'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-23-178','','Date of incident','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>141</v>
-      </c>
-      <c r="B179" t="s">
-        <v>142</v>
+        <v>461</v>
       </c>
       <c r="C179" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A179&amp;"','','"&amp;SUBSTITUTE(B179,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-303','','Type of proceeding','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-13-CD-23-179'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-23-179','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>332</v>
+        <v>462</v>
       </c>
       <c r="C180" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A180&amp;"','','"&amp;SUBSTITUTE(B180,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-304','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-13-CD-23-180'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-23-180','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>367</v>
-      </c>
-      <c r="B181" t="s">
-        <v>194</v>
+        <v>463</v>
       </c>
       <c r="C181" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A181&amp;"','','"&amp;SUBSTITUTE(B181,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-306','','Date of proceedings','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-13-CD-24-181'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-24-181','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="B182" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C182" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A182&amp;"','','"&amp;SUBSTITUTE(B182,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-307','','Date of proceedings','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-13-CD-24-182'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-24-182','','Brief summary','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>270</v>
+        <v>464</v>
       </c>
       <c r="C183" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A183&amp;"','','"&amp;SUBSTITUTE(B183,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-308','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-13-CD-24-183'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-24-183','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>108</v>
-      </c>
-      <c r="B184" t="s">
-        <v>109</v>
+        <v>465</v>
       </c>
       <c r="C184" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A184&amp;"','','"&amp;SUBSTITUTE(B184,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-310','','If repaying debts, how you are repaying the debt?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-13-CD-24-184'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-24-184','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>183</v>
-      </c>
-      <c r="B185" t="s">
-        <v>109</v>
+        <v>466</v>
       </c>
       <c r="C185" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A185&amp;"','','"&amp;SUBSTITUTE(B185,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-311','','If repaying debts, how you are repaying the debt?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-13-CD-25-185'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-25-185','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>226</v>
+        <v>152</v>
+      </c>
+      <c r="B186" t="s">
+        <v>153</v>
       </c>
       <c r="C186" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A186&amp;"','','"&amp;SUBSTITUTE(B186,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-312','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-13-CD-25-186'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-25-186','','Any outstanding court action or legal proceedings','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>238</v>
-      </c>
-      <c r="B187" t="s">
-        <v>239</v>
+        <v>467</v>
       </c>
       <c r="C187" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A187&amp;"','','"&amp;SUBSTITUTE(B187,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-314','','Date the debt will be cleared','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-13-CD-25-187'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-25-187','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>388</v>
-      </c>
-      <c r="B188" t="s">
-        <v>239</v>
+        <v>468</v>
       </c>
       <c r="C188" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A188&amp;"','','"&amp;SUBSTITUTE(B188,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-315','','Date the debt will be cleared','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-13-CD-25-188'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-13-CD-25-188','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>119</v>
+        <v>297</v>
+      </c>
+      <c r="B189" t="s">
+        <v>298</v>
       </c>
       <c r="C189" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A189&amp;"','','"&amp;SUBSTITUTE(B189,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-316','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-14-189'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-189','','Registered charity','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>197</v>
-      </c>
-      <c r="B190" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="C190" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A190&amp;"','','"&amp;SUBSTITUTE(B190,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-317','','NO TITLE FOR THIS IN SPREADSHEET','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-14-190'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-190','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>116</v>
-      </c>
-      <c r="B191" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="C191" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A191&amp;"','','"&amp;SUBSTITUTE(B191,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-318','','&lt;p class="govuk-body"&gt;You must confirm the accuracy of the information in this declaration and in your application to deliver end-point assessments. We might ask you for proof after youï¿½ve submitted your application.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-14-191'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-191','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>216</v>
+        <v>339</v>
       </c>
       <c r="B192" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="C192" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A192&amp;"','','"&amp;SUBSTITUTE(B192,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-320','','NO TITLE FOR THIS IN SPREADSHEET','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-14-192'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-192','','Registered charity','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>393</v>
-      </c>
-      <c r="B193" t="s">
-        <v>281</v>
+        <v>470</v>
       </c>
       <c r="C193" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A193&amp;"','','"&amp;SUBSTITUTE(B193,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21-322','','Confirm whether your organisation or any of your partner organisations is in:','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="2"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-14-CD-26-193'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26-193','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>280</v>
+        <v>387</v>
       </c>
       <c r="B194" t="s">
-        <v>281</v>
+        <v>438</v>
       </c>
       <c r="C194" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A194&amp;"','','"&amp;SUBSTITUTE(B194,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21-323','','Confirm whether your organisation or any of your partner organisations is in:','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" ref="C194:C257" si="3">"DELETE FROM Assets WHERE Reference = '"&amp;A194&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A194&amp;"','','"&amp;SUBSTITUTE(B194,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-14-CD-26-194'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26-194','','Is your organisation a registered charity?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>333</v>
-      </c>
-      <c r="B195" t="s">
-        <v>334</v>
+        <v>471</v>
       </c>
       <c r="C195" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A195&amp;"','','"&amp;SUBSTITUTE(B195,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21-324','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;voluntary administration or company voluntary arrangement&lt;/li&gt;&lt;li&gt;compulsory winding up&lt;/li&gt;&lt;li&gt;receivership&lt;/li&gt;&lt;li&gt;composition with creditors&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-14-CD-26-195'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26-195','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>326</v>
+        <v>472</v>
       </c>
       <c r="C196" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A196&amp;"','','"&amp;SUBSTITUTE(B196,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21.1-325','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-14-CD-26-196'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26-196','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>403</v>
-      </c>
-      <c r="B197" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="C197" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A197&amp;"','','"&amp;SUBSTITUTE(B197,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21.1-326','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-14-CD-26.1-197'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26.1-197','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="B198" t="s">
-        <v>2</v>
+        <v>437</v>
       </c>
       <c r="C198" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A198&amp;"','','"&amp;SUBSTITUTE(B198,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21.1-327','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-14-CD-26.1-198'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26.1-198','','What is the registered charity number?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>166</v>
+        <v>389</v>
       </c>
       <c r="C199" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A199&amp;"','','"&amp;SUBSTITUTE(B199,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21.1-328','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-14-CD-26.1-199'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26.1-199','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>358</v>
-      </c>
-      <c r="B200" t="s">
-        <v>428</v>
+        <v>106</v>
       </c>
       <c r="C200" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A200&amp;"','','"&amp;SUBSTITUTE(B200,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22-330','','Confirm whether any of your organisationï¿½s tax returns, submitted on or after 1 October 2012, have:','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-14-CD-26.1-200'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-14-CD-26.1-200','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="B201" t="s">
-        <v>318</v>
+        <v>588</v>
       </c>
       <c r="C201" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A201&amp;"','','"&amp;SUBSTITUTE(B201,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22-331','','Why a tax return was incorrect','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-15-201'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-201','','Register of removed trustees','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>74</v>
-      </c>
-      <c r="B202" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="C202" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A202&amp;"','','"&amp;SUBSTITUTE(B202,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22-332','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;been found to be incorrect as of 1 April 2013&lt;/li&gt;&lt;li&gt;given rise to a criminal conviction for tax-related offences which is unspent, or to a civil penalty for fraud or evasion&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-15-202'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-202','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>73</v>
+        <v>473</v>
       </c>
       <c r="C203" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A203&amp;"','','"&amp;SUBSTITUTE(B203,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22.1-333','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-15-203'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-203','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>138</v>
+        <v>345</v>
       </c>
       <c r="B204" t="s">
-        <v>2</v>
+        <v>588</v>
       </c>
       <c r="C204" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A204&amp;"','','"&amp;SUBSTITUTE(B204,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22.1-334','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-15-204'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-204','','Register of removed trustees','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>3</v>
-      </c>
-      <c r="B205" t="s">
-        <v>2</v>
+        <v>474</v>
       </c>
       <c r="C205" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A205&amp;"','','"&amp;SUBSTITUTE(B205,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22.1-335','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-15-CD-27-205'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27-205','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>195</v>
+        <v>397</v>
+      </c>
+      <c r="B206" t="s">
+        <v>398</v>
       </c>
       <c r="C206" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A206&amp;"','','"&amp;SUBSTITUTE(B206,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22.1-336','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-15-CD-27-206'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27-206','','Has any director, or any other person with significant control of your organisation, been removed from the Charities Commission or appear on the Register of Removed Trustees?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>93</v>
-      </c>
-      <c r="B207" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="C207" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A207&amp;"','','"&amp;SUBSTITUTE(B207,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23-338','','Confirm whether any of your organisationï¿½s tax returns, submitted on or after 1 October 2012, have been found to be incorrect on or after 1 April 2013 because:','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-15-CD-27-207'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27-207','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>327</v>
-      </c>
-      <c r="B208" t="s">
-        <v>318</v>
+        <v>476</v>
       </c>
       <c r="C208" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A208&amp;"','','"&amp;SUBSTITUTE(B208,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23-339','','Why a tax return was incorrect','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-15-CD-27-208'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27-208','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>99</v>
-      </c>
-      <c r="B209" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="C209" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A209&amp;"','','"&amp;SUBSTITUTE(B209,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23-340','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;HMRC successfully challenged it under the General Anti-Abuse Rule (GAAR) or Halifax abuse principle OR&lt;/li&gt;&lt;li&gt;a tax authority (in a jurisdiction in which your organisation is established) successfully challenging it under any tax rules or legislation that have an effect equivalent or similar to the GAAR or Halifax abuse principle&lt;/li&gt;&lt;li&gt;given rise to a criminal conviction for tax-related offences which is unspent, or to a civil penalty for fraud or evasion&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-15-CD-27.1-209'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27.1-209','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>105</v>
+        <v>335</v>
+      </c>
+      <c r="B210" t="s">
+        <v>35</v>
       </c>
       <c r="C210" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A210&amp;"','','"&amp;SUBSTITUTE(B210,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23.1-341','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-15-CD-27.1-210'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27.1-210','','Full name','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>384</v>
-      </c>
-      <c r="B211" t="s">
-        <v>2</v>
+        <v>213</v>
       </c>
       <c r="C211" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A211&amp;"','','"&amp;SUBSTITUTE(B211,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23.1-342','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-15-CD-27.1-211'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27.1-211','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>242</v>
-      </c>
-      <c r="B212" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="C212" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A212&amp;"','','"&amp;SUBSTITUTE(B212,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23.1-343','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-15-CD-27.1-212'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27.1-212','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>123</v>
+        <v>172</v>
+      </c>
+      <c r="B213" t="s">
+        <v>173</v>
       </c>
       <c r="C213" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A213&amp;"','','"&amp;SUBSTITUTE(B213,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23.1-344','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-15-213'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-213','','Authoriser details','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>121</v>
+        <v>373</v>
       </c>
       <c r="B214" t="s">
-        <v>122</v>
+        <v>374</v>
       </c>
       <c r="C214" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A214&amp;"','','"&amp;SUBSTITUTE(B214,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24-346','','Has your organisation had any contract for the delivery of services withdrawn within the last 3 financial years?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-15-214'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-214','','&lt;p class="govuk-body"&gt;Who is signing your application?&lt;/p&gt;&lt;p class="govuk-body"&gt;Include the name and job title of the person named as authoriser.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>179</v>
-      </c>
-      <c r="B215" t="s">
-        <v>180</v>
+        <v>539</v>
       </c>
       <c r="C215" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A215&amp;"','','"&amp;SUBSTITUTE(B215,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24-347','','Contracts withdrawn from you','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-15-215'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-215','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="B216" t="s">
-        <v>100</v>
+        <v>587</v>
       </c>
       <c r="C216" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A216&amp;"','','"&amp;SUBSTITUTE(B216,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24-348','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;HMRC successfully challenged it under the General Anti-Abuse Rule (GAAR) or Halifax abuse principle OR&lt;/li&gt;&lt;li&gt;a tax authority (in a jurisdiction in which your organisation is established) successfully challenging it under any tax rules or legislation that have an effect equivalent or similar to the GAAR or Halifax abuse principle&lt;/li&gt;&lt;li&gt;given rise to a criminal conviction for tax-related offences which is unspent, or to a civil penalty for fraud or evasion&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-15-216'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-216','','Invitation to apply','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>249</v>
+        <v>540</v>
       </c>
       <c r="C217" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A217&amp;"','','"&amp;SUBSTITUTE(B217,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24.1-349','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-15-W_DEL-01-217'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-W_DEL-01-217','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>135</v>
+        <v>291</v>
       </c>
       <c r="B218" t="s">
-        <v>2</v>
+        <v>292</v>
       </c>
       <c r="C218" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A218&amp;"','','"&amp;SUBSTITUTE(B218,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24.1-350','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-15-W_DEL-01-218'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-W_DEL-01-218','','Name','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>221</v>
+        <v>375</v>
       </c>
       <c r="B219" t="s">
-        <v>2</v>
+        <v>292</v>
       </c>
       <c r="C219" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A219&amp;"','','"&amp;SUBSTITUTE(B219,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24.1-351','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-15-W_DEL-01-219'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-W_DEL-01-219','','Name','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>315</v>
+        <v>541</v>
       </c>
       <c r="C220" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A220&amp;"','','"&amp;SUBSTITUTE(B220,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24.1-352','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-15-W_DEL-01-220'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-W_DEL-01-220','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>26</v>
-      </c>
-      <c r="B221" t="s">
-        <v>27</v>
+        <v>542</v>
       </c>
       <c r="C221" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A221&amp;"','','"&amp;SUBSTITUTE(B221,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25-354','','Has your organisation withdrawn from a contract for the delivery of services within the last 3 years?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-15-W_DEL-02-221'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-W_DEL-02-221','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="B222" t="s">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="C222" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A222&amp;"','','"&amp;SUBSTITUTE(B222,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25-355','','Withdrawn from contracts','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-15-W_DEL-02-222'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-W_DEL-02-222','','Job title','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>389</v>
+        <v>39</v>
       </c>
       <c r="B223" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C223" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A223&amp;"','','"&amp;SUBSTITUTE(B223,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25-356','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;HMRC successfully challenged it under the General Anti-Abuse Rule (GAAR) or Halifax abuse principle OR&lt;/li&gt;&lt;li&gt;a tax authority (in a jurisdiction in which your organisation is established) successfully challenging it under any tax rules or legislation that have an effect equivalent or similar to the GAAR or Halifax abuse principle&lt;/li&gt;&lt;li&gt;given rise to a criminal conviction for tax-related offences which is unspent, or to a civil penalty for fraud or evasion&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-15-W_DEL-02-223'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-W_DEL-02-223','','Job title','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>206</v>
+        <v>543</v>
       </c>
       <c r="C224" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A224&amp;"','','"&amp;SUBSTITUTE(B224,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.1-357','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-15-W_DEL-02-224'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-15-W_DEL-02-224','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="B225" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="C225" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A225&amp;"','','"&amp;SUBSTITUTE(B225,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.1-358','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-17-225'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-17-225','','Terms and conditions','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="B226" t="s">
-        <v>2</v>
+        <v>416</v>
       </c>
       <c r="C226" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A226&amp;"','','"&amp;SUBSTITUTE(B226,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.1-359','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-17-226'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-17-226','','&lt;p class="govuk-body"&gt;If you make an application to be added to the register, youï¿½re agreeing to the terms and conditions in the legal documentation.&lt;/p&gt;&lt;p class="govuk-body"&gt;You must be able to truthfully answer ï¿½yesï¿½ to every question on this page for your application to be considered eligible.&lt;/p&gt;&lt;p class="govuk-body"&gt;If you canï¿½t answer ï¿½yesï¿½ to every question on this page, itï¿½s very unlikely that your application will be accepted.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>303</v>
+        <v>544</v>
       </c>
       <c r="C227" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A227&amp;"','','"&amp;SUBSTITUTE(B227,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.1-360','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-17-227'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-17-227','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>214</v>
+        <v>222</v>
+      </c>
+      <c r="B228" t="s">
+        <v>77</v>
       </c>
       <c r="C228" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A228&amp;"','','"&amp;SUBSTITUTE(B228,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.2-361','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-17-228'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-17-228','','Terms and conditions','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>58</v>
-      </c>
-      <c r="B229" t="s">
-        <v>35</v>
+        <v>545</v>
       </c>
       <c r="C229" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A229&amp;"','','"&amp;SUBSTITUTE(B229,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.2-362','','Full name','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-17-W_DEL-03-229'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-17-W_DEL-03-229','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>34</v>
+        <v>368</v>
       </c>
       <c r="B230" t="s">
-        <v>35</v>
+        <v>426</v>
       </c>
       <c r="C230" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A230&amp;"','','"&amp;SUBSTITUTE(B230,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.2-363','','Full name','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-17-W_DEL-03-230'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-17-W_DEL-03-230','','Do you agree to comply with the terms of the conditions for organisations on the register of end-point assessment organisations (link opens in a new tab) and sign and return the ï¿½Conditions for organisations on the register of end-point assessment organisationsï¿½?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>43</v>
+        <v>240</v>
+      </c>
+      <c r="B231" t="s">
+        <v>77</v>
       </c>
       <c r="C231" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A231&amp;"','','"&amp;SUBSTITUTE(B231,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.2-364','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-17-W_DEL-03-231'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-17-W_DEL-03-231','','Terms and conditions','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>104</v>
+        <v>546</v>
       </c>
       <c r="C232" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A232&amp;"','','"&amp;SUBSTITUTE(B232,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.3-365','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-17-W_DEL-03-232'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-17-W_DEL-03-232','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="B233" t="s">
-        <v>296</v>
+        <v>203</v>
       </c>
       <c r="C233" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A233&amp;"','','"&amp;SUBSTITUTE(B233,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.3-366','','Dates involved','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-18-233'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-233','','Providing services straight away','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>353</v>
-      </c>
-      <c r="B234" t="s">
-        <v>296</v>
+        <v>67</v>
       </c>
       <c r="C234" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A234&amp;"','','"&amp;SUBSTITUTE(B234,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.3-367','','Dates involved','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-18-234'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-234','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>62</v>
+        <v>547</v>
       </c>
       <c r="C235" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A235&amp;"','','"&amp;SUBSTITUTE(B235,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.3-368','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-18-235'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-235','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="B236" t="s">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c r="C236" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A236&amp;"','','"&amp;SUBSTITUTE(B236,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26-370','','Has your organisation been removed from any of the following registers?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-18-236'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-236','','Providing services straight away','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>90</v>
-      </c>
-      <c r="B237" t="s">
-        <v>91</v>
+        <v>548</v>
       </c>
       <c r="C237" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A237&amp;"','','"&amp;SUBSTITUTE(B237,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26-371','','Company removed from registers','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-18-W_DEL-04-237'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04-237','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="B238" t="s">
-        <v>420</v>
+        <v>145</v>
       </c>
       <c r="C238" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A238&amp;"','','"&amp;SUBSTITUTE(B238,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26-372','','Education and Skills Funding Agencyï¿½s Register of Training Organisations RoATP, EPAO register,Ofqualï¿½s Register,Other professional or trade registers','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-18-W_DEL-04-238'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04-238','','If your application is successful, can you start an end-point assessment on the day you join the RoEPAO?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>225</v>
+        <v>369</v>
+      </c>
+      <c r="B239" t="s">
+        <v>203</v>
       </c>
       <c r="C239" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A239&amp;"','','"&amp;SUBSTITUTE(B239,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.1-373','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-18-W_DEL-04-239'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04-239','','Providing services straight away','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>175</v>
-      </c>
-      <c r="B240" t="s">
-        <v>176</v>
+        <v>549</v>
       </c>
       <c r="C240" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A240&amp;"','','"&amp;SUBSTITUTE(B240,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.1-374','','Date of removal','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-18-W_DEL-04-240'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04-240','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>311</v>
-      </c>
-      <c r="B241" t="s">
-        <v>176</v>
+        <v>355</v>
       </c>
       <c r="C241" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A241&amp;"','','"&amp;SUBSTITUTE(B241,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.1-375','','Date of removal','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-18-W_DEL-04.1-241'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04.1-241','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>112</v>
+        <v>308</v>
+      </c>
+      <c r="B242" t="s">
+        <v>23</v>
       </c>
       <c r="C242" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A242&amp;"','','"&amp;SUBSTITUTE(B242,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.1-376','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-18-W_DEL-04.1-242'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04.1-242','','When will you be ready to do your first assessments?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>148</v>
+        <v>22</v>
+      </c>
+      <c r="B243" t="s">
+        <v>23</v>
       </c>
       <c r="C243" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A243&amp;"','','"&amp;SUBSTITUTE(B243,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.2-377','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-18-W_DEL-04.1-243'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04.1-243','','When will you be ready to do your first assessments?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>359</v>
-      </c>
-      <c r="B244" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C244" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A244&amp;"','','"&amp;SUBSTITUTE(B244,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.2-378','','Reasons why','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-18-W_DEL-04.1-244'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-18-W_DEL-04.1-244','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="B245" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="C245" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A245&amp;"','','"&amp;SUBSTITUTE(B245,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.2-379','','Reasons why','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-245'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-245','','Grounds for Mandatory exclusion','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>66</v>
+        <v>241</v>
+      </c>
+      <c r="B246" t="s">
+        <v>419</v>
       </c>
       <c r="C246" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A246&amp;"','','"&amp;SUBSTITUTE(B246,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.2-380','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-246'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-246','','&lt;p class="govuk-body"&gt;You must be able to truthfully answer ï¿½noï¿½ to every question under ï¿½Grounds for mandatory exclusionï¿½ for your application to be considered eligible. If you canï¿½t answer ï¿½noï¿½ to every question in this section, itï¿½s very unlikely that your application will be accepted.&lt;/p&gt;&lt;p class="govuk-body"&gt;In the next series of questions under grounds for mandatory exclusion, ï¿½anyone who represents, supervises or has control in your organisation or a partner or parent organisationï¿½ includes members of your group of economic operators, their proposed subcontractors, and any directors, partners, or any other person who has powers of representation, decision or control.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>395</v>
-      </c>
-      <c r="B247" t="s">
-        <v>396</v>
+        <v>550</v>
       </c>
       <c r="C247" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A247&amp;"','','"&amp;SUBSTITUTE(B247,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27-382','','Has your organisation received direction or sanctions from any of the following?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-247'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-247','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>185</v>
+        <v>378</v>
       </c>
       <c r="B248" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C248" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A248&amp;"','','"&amp;SUBSTITUTE(B248,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27-383','','Direction and sanctions','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-248'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-248','','Grounds for Mandatory exclusion','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>15</v>
-      </c>
-      <c r="B249" t="s">
-        <v>16</v>
+        <v>551</v>
       </c>
       <c r="C249" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A249&amp;"','','"&amp;SUBSTITUTE(B249,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27-384','','Ofqual,The QAA,Awarding organisations,Other similar bodies','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-05-249'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-05-249','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>192</v>
+        <v>304</v>
+      </c>
+      <c r="B250" t="s">
+        <v>178</v>
       </c>
       <c r="C250" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A250&amp;"','','"&amp;SUBSTITUTE(B250,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.1-385','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-05-250'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-05-250','','I understand and accept that:','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B251" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C251" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A251&amp;"','','"&amp;SUBSTITUTE(B251,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.1-386','','Date of sanction','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-05-251'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-05-251','','I understand and accept that:','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>373</v>
+        <v>229</v>
       </c>
       <c r="B252" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="C252" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A252&amp;"','','"&amp;SUBSTITUTE(B252,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.1-387','','Date of sanction','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-05-252'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-05-252','','&lt;p class="govuk-body"&gt;Information cannot be amended after the application has been submitted and reviewed,the Education and Skills Funding Agency may at its sole discretion use information it already holds, obtains from other Government bodies or which is already in the public domain to validate part or all of any answer we have given in this submission and the information obtained may be shared with employers to assist them in their selection process,the Education and Skills Funding Agency may seek additional assurances from my organisation based on this information.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>209</v>
+        <v>552</v>
       </c>
       <c r="C253" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A253&amp;"','','"&amp;SUBSTITUTE(B253,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.1-388','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-06-253'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-06-253','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>250</v>
+        <v>391</v>
+      </c>
+      <c r="B254" t="s">
+        <v>235</v>
       </c>
       <c r="C254" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A254&amp;"','','"&amp;SUBSTITUTE(B254,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.2-389','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-06-254'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-06-254','','I confirm that the information to be uploaded in response to the Financial Health Assessment complies with the requirements stated in the ''Guidance for Applicants'' document.','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>63</v>
+        <v>234</v>
       </c>
       <c r="B255" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
       <c r="C255" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A255&amp;"','','"&amp;SUBSTITUTE(B255,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.2-390','','Reasons why','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-06-255'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-06-255','','I confirm that the information to be uploaded in response to the Financial Health Assessment complies with the requirements stated in the ''Guidance for Applicants'' document.','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>160</v>
-      </c>
-      <c r="B256" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="C256" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A256&amp;"','','"&amp;SUBSTITUTE(B256,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.2-391','','Reasons why','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-06-256'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-06-256','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>233</v>
+        <v>553</v>
       </c>
       <c r="C257" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A257&amp;"','','"&amp;SUBSTITUTE(B257,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.2-392','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="3"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-07-257'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-07-257','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>404</v>
+        <v>149</v>
       </c>
       <c r="B258" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C258" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A258&amp;"','','"&amp;SUBSTITUTE(B258,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28-394','','Has your organisation ever had to repay public money?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" ref="C258:C321" si="4">"DELETE FROM Assets WHERE Reference = '"&amp;A258&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A258&amp;"','','"&amp;SUBSTITUTE(B258,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-07-258'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-07-258','','Do you agree to inform the Education and Skills Funding Agency as soon as possible if there are any changes to the information youï¿½re providing in this declaration?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B259" t="s">
-        <v>70</v>
+        <v>409</v>
       </c>
       <c r="C259" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A259&amp;"','','"&amp;SUBSTITUTE(B259,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28-395','','Repaying public money','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-07-259'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-07-259','','Do you agree to inform the Education and Skills Funding Agency as soon as possible if there are any changes to the information youï¿½re providing in this declaration?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>355</v>
+        <v>98</v>
       </c>
       <c r="C260" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A260&amp;"','','"&amp;SUBSTITUTE(B260,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28-396','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-07-260'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-07-260','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>83</v>
+        <v>554</v>
       </c>
       <c r="C261" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A261&amp;"','','"&amp;SUBSTITUTE(B261,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28.1-397','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-08-261'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-08-261','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="B262" t="s">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="C262" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A262&amp;"','','"&amp;SUBSTITUTE(B262,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28.1-398','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-08-262'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-08-262','','I can confirm that we have read the conditions of acceptance and that we would be able to agree to these if our application is successful?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>170</v>
+        <v>223</v>
+      </c>
+      <c r="B263" t="s">
+        <v>224</v>
       </c>
       <c r="C263" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A263&amp;"','','"&amp;SUBSTITUTE(B263,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28.1-399','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-08-263'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-08-263','','Condition of acceptance','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="C264" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A264&amp;"','','"&amp;SUBSTITUTE(B264,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28.1-400','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-08-264'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-08-264','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>243</v>
-      </c>
-      <c r="B265" t="s">
-        <v>244</v>
+        <v>555</v>
       </c>
       <c r="C265" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A265&amp;"','','"&amp;SUBSTITUTE(B265,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29-402','','Have any directors, shareholders, senior employees or someone that has powers of representation, decision or control of your organisation had any of the following?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-09-265'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-09-265','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>301</v>
+        <v>102</v>
       </c>
       <c r="B266" t="s">
-        <v>302</v>
+        <v>103</v>
       </c>
       <c r="C266" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A266&amp;"','','"&amp;SUBSTITUTE(B266,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29-403','','Public bodies','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-09-266'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-09-266','','Confirm whether, within the past 5 years, anyone who represents, supervises or has control in your organisation or a partner or parent organisations has been convicted of:','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>323</v>
+        <v>383</v>
+      </c>
+      <c r="B267" t="s">
+        <v>384</v>
       </c>
       <c r="C267" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A267&amp;"','','"&amp;SUBSTITUTE(B267,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29-404','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-09-267'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-09-267','','Organised crime or conspiracy convictions','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>340</v>
+        <v>324</v>
+      </c>
+      <c r="B268" t="s">
+        <v>423</v>
       </c>
       <c r="C268" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A268&amp;"','','"&amp;SUBSTITUTE(B268,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29.1-405','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-09-268'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-09-268','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;any offence under sections 44 to 46 of the Serious Crime Act 2007 which relates to an offence covered by subparagraph (f)&lt;/li&gt;&lt;li&gt;conspiracy within the meaning of section 1 or 1A of the Criminal Law Act 1977&lt;/li&gt;&lt;li&gt;conspiracy within the meaning of article 9 or 9A of the Criminal Attempts and Conspiracy (Northern Ireland) Order 1983 where that conspiracy relates to participation in a criminal organisation as defined in Article 2 of Council Framework Decision 2008/842/JHA on the fight against organised crime&lt;/li&gt;&lt;/ul&gt;&lt;p class="govuk-body"&gt;Answer ï¿½yesï¿½ if anyone who represents, supervises or has control in your organisation or a partner or parent organisation has been convicted of any of the above.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>78</v>
-      </c>
-      <c r="B269" t="s">
-        <v>2</v>
+        <v>556</v>
       </c>
       <c r="C269" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A269&amp;"','','"&amp;SUBSTITUTE(B269,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29.1-406','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-10-269'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-10-269','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>57</v>
+        <v>13</v>
+      </c>
+      <c r="B270" t="s">
+        <v>407</v>
       </c>
       <c r="C270" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A270&amp;"','','"&amp;SUBSTITUTE(B270,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29.1-407','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-10-270'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-10-270','','Confirm whether, within the past 5 years, anyone who represents, supervises or has control in your organisation or a partner or parent organisations has been convicted of any offence that relates to fraud affecting the European Communitiesï¿½ financial interests as defined by article 1 of the Convention of the Protection of the Financial Interests of the European Communities, including:','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>200</v>
+        <v>217</v>
+      </c>
+      <c r="B271" t="s">
+        <v>218</v>
       </c>
       <c r="C271" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A271&amp;"','','"&amp;SUBSTITUTE(B271,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29.1-408','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-10-271'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-10-271','','Bribery or corruption convictions','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>54</v>
+        <v>343</v>
       </c>
       <c r="B272" t="s">
-        <v>55</v>
+        <v>424</v>
       </c>
       <c r="C272" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A272&amp;"','','"&amp;SUBSTITUTE(B272,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30-410','','Does your organisation have any outstanding or ongoing legal dispute that could prevent you from conducting end-point assessments?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-10-272'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-10-272','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;the common law offence of cheating the Revenue (HMRC)&lt;/li&gt;&lt;li&gt;the common law offence of conspiracy to defraud&lt;/li&gt;&lt;li&gt;fraud or theft within the meaning of the Theft Act 1968, the Theft Act (Northern Ireland) 1969, the Theft Act 1978 or the Theft (Northern Ireland) Order 1978&lt;/li&gt;&lt;li&gt;fraudulent trading within the meaning of section 458 of the Companies Act 1985, article 451 of the Companies (Northern Ireland) Order 1986 or section 993 of the Companies Act 2006&lt;/li&gt;&lt;li&gt;fraudulent evasion within the meaning of section 170 of the Customs and Excise Management Act 1979 or section 72 of the Value Added Tax Act 1994&lt;/li&gt;&lt;li&gt;an offence in connection with taxation in the European Union within the meaning of section 71 of the Criminal Justice Act 1993&lt;/li&gt;&lt;li&gt;destroying, defacing or concealing of documents or procuring the execution of a valuable security within the meaning of section 20 of the Theft Act 1968 or section 19 of the Theft Act (Northern Ireland) 1969&lt;/li&gt;&lt;li&gt;fraud within the meaning of section 2, 3 or 4 of the Fraud Act 2006&lt;/li&gt;&lt;li&gt;the possession of articles for use in frauds within the meaning of section 6 of the Fraud Act 2006, or the making, adapting, supplying or offering to supply articles for use in frauds within the meaning of section 7 of that Act&lt;/li&gt;&lt;/ul&gt;&lt;p class="govuk-body"&gt;Answer ï¿½yesï¿½ if anyone who represents, supervises or has control in your organisation or a partner or parent organisation has been convicted of any of the above.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>71</v>
-      </c>
-      <c r="B273" t="s">
-        <v>72</v>
+        <v>557</v>
       </c>
       <c r="C273" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A273&amp;"','','"&amp;SUBSTITUTE(B273,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30-411','','Legal disputes','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-11-273'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-11-273','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>101</v>
+        <v>312</v>
+      </c>
+      <c r="B274" t="s">
+        <v>313</v>
       </c>
       <c r="C274" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A274&amp;"','','"&amp;SUBSTITUTE(B274,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30-412','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-11-274'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-11-274','','Confirm whether, within the past 5 years, anyone who represents, supervises or has control in your organisation or a partner or parent organisation has been convicted of any offence listed in:','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>61</v>
+        <v>277</v>
+      </c>
+      <c r="B275" t="s">
+        <v>278</v>
       </c>
       <c r="C275" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A275&amp;"','','"&amp;SUBSTITUTE(B275,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.1-413','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-11-275'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-11-275','','Terrorism convictions','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>385</v>
+        <v>17</v>
       </c>
       <c r="B276" t="s">
-        <v>133</v>
+        <v>408</v>
       </c>
       <c r="C276" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A276&amp;"','','"&amp;SUBSTITUTE(B276,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.1-414','','Date','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-11-276'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-11-276','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;section 41 of the Counter Terrorism Act 2008&lt;/li&gt;&lt;li&gt;schedule 2 of the Counter Terrorism Act 2008 where the court has determined that there is a terrorist connection&lt;/li&gt;&lt;li&gt;any offence under sections 44 to 46 of the Serious Crime Act 2007&lt;/li&gt;&lt;/ul&gt;&lt;p class="govuk-body"&gt;Answer ï¿½yesï¿½ if anyone who represents, supervises or has control in your organisation or a partner or parent organisation has been convicted of any of the above.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>201</v>
+        <v>558</v>
       </c>
       <c r="C277" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A277&amp;"','','"&amp;SUBSTITUTE(B277,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.1-415','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-12-277'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-12-277','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>347</v>
+        <v>252</v>
+      </c>
+      <c r="B278" t="s">
+        <v>253</v>
       </c>
       <c r="C278" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A278&amp;"','','"&amp;SUBSTITUTE(B278,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.1-416','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-12-278'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-12-278','','Confirm whether, within the past 5 years, anyone who represents, supervises or has control in your organisation or a partner or parent organisation has been convicted of:','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>341</v>
+        <v>247</v>
+      </c>
+      <c r="B279" t="s">
+        <v>248</v>
       </c>
       <c r="C279" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A279&amp;"','','"&amp;SUBSTITUTE(B279,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.2-417','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-12-279'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-12-279','','Criminal conducts','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="B280" t="s">
-        <v>260</v>
+        <v>418</v>
       </c>
       <c r="C280" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A280&amp;"','','"&amp;SUBSTITUTE(B280,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.2-418','','Details of the dispute','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-19-M_DEL-12-280'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-19-M_DEL-12-280','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;money laundering within the meaning of sections 340(11) and 415 of the Proceeds of Crime Act 2002&lt;/li&gt;&lt;li&gt;an offence in connection with the proceeds of criminal conduct within the meaning of section 93A, 93B or 93C of the Criminal Justice Act 1988 or article 45, 46 or 47 of the Proceeds of Crime (Northern Ireland) Order 1996&lt;/li&gt;&lt;li&gt;an offence under section 4 of the Asylum and Immigration (Treatment of Claimants etc) Act 2004&lt;/li&gt;&lt;li&gt;an offence under section 59A of the Sexual Offences Act 2003&lt;/li&gt;&lt;li&gt;an offence under section 71 of the Coroners and Justice Act 2009&lt;/li&gt;&lt;li&gt;an offence in connection with the proceeds of drug trafficking within the meaning of section 49, 50 and 51 of the Drug Trafficking Act 1994&lt;/li&gt;&lt;/ul&gt;&lt;p class="govuk-body"&gt;Answer ï¿½yesï¿½ if anyone who represents, supervises or has control in your organisation or a partner or parent organisation has been convicted of any of the above.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>199</v>
+        <v>64</v>
+      </c>
+      <c r="B281" t="s">
+        <v>65</v>
       </c>
       <c r="C281" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A281&amp;"','','"&amp;SUBSTITUTE(B281,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.2-419','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20-281'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-281','','Grounds for discretionary exclusion','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>294</v>
+        <v>92</v>
+      </c>
+      <c r="B282" t="s">
+        <v>410</v>
       </c>
       <c r="C282" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A282&amp;"','','"&amp;SUBSTITUTE(B282,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.2-420','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20-282'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-282','','&lt;p class="govuk-body"&gt;Information cannot be amended after the application has been submitted and reviewed,the Education and Skills Funding Agency may at its sole discretion use information it already holds, obtains from other Government bodies or which is already in the public domain to validate part or all of any answer we have given in this submission and the information obtained may be shared with employers to assist them in their selection process,the Education and Skills Funding Agency may seek additional assurances from my organisation based on this information.&lt;/p&gt; &lt;p class="govuk-body"&gt;You must be able to truthfully answer ï¿½noï¿½ to every question under ï¿½Grounds for discretionary exclusionï¿½ for your application to be considered eligible. If you canï¿½t answer ï¿½noï¿½, your application may not be accepted.&lt;/p&gt;&lt;p class="govuk-body"&gt;If you do answer ï¿½yesï¿½, you must provide full details of any subsequent event or remedial action that you think the Education and Skills Funding Agency (ESFA) should take into consideration. ESFA will use the information you provide to consider whether or not you will be able to proceed any further with this application.&lt;/p&gt;&lt;p class="govuk-body"&gt;''A partner organisation'' includes members of your group of economic operators or their proposed subcontractors.&lt;/p&gt;&lt;p class="govuk-body"&gt;ESFA can also exclude you if you are guilty of serious misrepresentation in providing any information referred to within regulations 23 (link opens in a new tab), 24 (new tab), 25 (new tab), 26 (new tab) or 27 (new tab) of the Public Contracts Regulations 2015 (new tab) or if you fail to provide any such information it requests.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>365</v>
+        <v>564</v>
       </c>
       <c r="C283" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A283&amp;"','','"&amp;SUBSTITUTE(B283,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.3-421','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20-283'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-283','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>207</v>
+        <v>395</v>
       </c>
       <c r="B284" t="s">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="C284" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A284&amp;"','','"&amp;SUBSTITUTE(B284,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.3-422','','Current status of the dispute','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20-284'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-284','','Grounds for discretionary exclusion','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>338</v>
+        <v>565</v>
       </c>
       <c r="C285" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A285&amp;"','','"&amp;SUBSTITUTE(B285,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.3-423','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20-D_DEL-13-285'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13-285','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>362</v>
+        <v>29</v>
+      </c>
+      <c r="B286" t="s">
+        <v>30</v>
       </c>
       <c r="C286" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A286&amp;"','','"&amp;SUBSTITUTE(B286,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.3-424','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20-D_DEL-13-286'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13-286','','Have members of your organisation or a partner organisation been legally found to be in breach of tax payments or social security contributions?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>336</v>
+        <v>24</v>
       </c>
       <c r="B287" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="C287" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A287&amp;"','','"&amp;SUBSTITUTE(B287,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-425','','Application accuracy','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20-D_DEL-13-287'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13-287','','In breach of tax payments','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>262</v>
-      </c>
-      <c r="B288" t="s">
-        <v>416</v>
+        <v>314</v>
       </c>
       <c r="C288" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A288&amp;"','','"&amp;SUBSTITUTE(B288,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-426','','&lt;p class="govuk-body"&gt;You must confirm the accuracy of the information in this declaration and in your application to deliver end-point assessments. We might ask you for proof after youï¿½ve submitted your application.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20-D_DEL-13-288'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13-288','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>87</v>
-      </c>
-      <c r="B289" t="s">
-        <v>88</v>
+        <v>325</v>
       </c>
       <c r="C289" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A289&amp;"','','"&amp;SUBSTITUTE(B289,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-428','','Application accuracy','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20-D_DEL-13.1-289'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13.1-289','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>271</v>
+        <v>168</v>
       </c>
       <c r="B290" t="s">
-        <v>423</v>
+        <v>169</v>
       </c>
       <c r="C290" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A290&amp;"','','"&amp;SUBSTITUTE(B290,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-28-430','','I certify that the information provided is accurate and accept the conditions and undertakings requested in this application. It''s understood that false information may result in:','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20-D_DEL-13.1-290'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13.1-290','','Provide details whether you''ve paid, or have entered into a binding arrangement with a view to paying, including, where applicable, any accrued interest and/or fines.','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>245</v>
-      </c>
-      <c r="B291" t="s">
-        <v>423</v>
+        <v>337</v>
       </c>
       <c r="C291" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A291&amp;"','','"&amp;SUBSTITUTE(B291,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-28-431','','I certify that the information provided is accurate and accept the conditions and undertakings requested in this application. It''s understood that false information may result in:','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20-D_DEL-13.1-291'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13.1-291','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>268</v>
-      </c>
-      <c r="B292" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C292" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A292&amp;"','','"&amp;SUBSTITUTE(B292,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-28-432','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;exclusion from this and future registers&lt;/li&gt;&lt;li&gt;the removal from the Register of End-point Assessments Organisations&lt;/li&gt;&lt;li&gt;the withdrawal of contracts with employers&lt;/li&gt;&lt;li&gt;civil or criminal proceedings&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20-D_DEL-13.1-292'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-13.1-292','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>274</v>
-      </c>
-      <c r="B293" t="s">
-        <v>275</v>
+        <v>566</v>
       </c>
       <c r="C293" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A293&amp;"','','"&amp;SUBSTITUTE(B293,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-29-434','','Will your applications to deliver end-point assessments for standards be accurate and true representations?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20-D_DEL-14-293'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-14-293','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>354</v>
+        <v>96</v>
       </c>
       <c r="B294" t="s">
-        <v>275</v>
+        <v>97</v>
       </c>
       <c r="C294" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A294&amp;"','','"&amp;SUBSTITUTE(B294,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-29-435','','Will your applications to deliver end-point assessments for standards be accurate and true representations?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20-D_DEL-14-294'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-14-294','','Confirm whether, within the past 3 years, your organisation or any of your partner organisations:','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>329</v>
+        <v>40</v>
+      </c>
+      <c r="B295" t="s">
+        <v>41</v>
       </c>
       <c r="C295" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A295&amp;"','','"&amp;SUBSTITUTE(B295,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-29-436','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20-D_DEL-14-295'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-14-295','','Bankruptcy and Insolvency','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>261</v>
+        <v>114</v>
       </c>
       <c r="B296" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="C296" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A296&amp;"','','"&amp;SUBSTITUTE(B296,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-30-438','','Do you agree your company details will be added to the register of end-point assessment organisations if your application is successful?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20-D_DEL-14-296'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20-D_DEL-14-296','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;has been made bankrupt or the subject of insolvency or winding-up proceedings&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>18</v>
+        <v>319</v>
       </c>
       <c r="B297" t="s">
-        <v>19</v>
+        <v>320</v>
       </c>
       <c r="C297" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A297&amp;"','','"&amp;SUBSTITUTE(B297,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-30-439','','Do you agree your company details will be added to the register of end-point assessment organisations if your application is successful?','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20.1-297'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-297','','Bankruptcy and Insolvency details','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="C298" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A298&amp;"','','"&amp;SUBSTITUTE(B298,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-30-440','','','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20.1-298'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-298','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>127</v>
-      </c>
-      <c r="B299" t="s">
-        <v>442</v>
+        <v>559</v>
       </c>
       <c r="C299" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A299&amp;"','','"&amp;SUBSTITUTE(B299,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-441','','Financial health assessment','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20.1-299'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-299','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>95</v>
+        <v>328</v>
       </c>
       <c r="B300" t="s">
-        <v>415</v>
+        <v>320</v>
       </c>
       <c r="C300" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A300&amp;"','','"&amp;SUBSTITUTE(B300,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-442','','&lt;p class="govuk-body"&gt;You will fail the financial health assessment process if you do not upload financial statements where available. Management accounts must only be submitted where financial statements/accounts are yet to be produced.&lt;/p&gt;&lt;p class="govuk-body"&gt;For further information on what you must include if you select ï¿½aï¿½, ï¿½bï¿½ or ï¿½cï¿½ please check &lt;a class="govuk-link" href="https://www.gov.uk/government/publications/esfa-financial-health-assessment/"&gt;https://www.gov.uk/government/publications/esfa-financial-health-assessment&lt;/a&gt;.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20.1-300'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-300','','Bankruptcy and Insolvency details','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>163</v>
-      </c>
-      <c r="B301" t="s">
-        <v>442</v>
+        <v>560</v>
       </c>
       <c r="C301" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A301&amp;"','','"&amp;SUBSTITUTE(B301,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-444','','Financial health assessment','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-301'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-301','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>52</v>
+        <v>256</v>
       </c>
       <c r="B302" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="C302" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A302&amp;"','','"&amp;SUBSTITUTE(B302,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-FHA-01-446','','Upload your financial evidences','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-302'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-302','','Type of proceeding','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="B303" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="C303" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A303&amp;"','','"&amp;SUBSTITUTE(B303,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-FHA-01-447','','Upload your financial evidences','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-303'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-303','','Type of proceeding','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>154</v>
-      </c>
-      <c r="B304" t="s">
-        <v>155</v>
+        <v>332</v>
       </c>
       <c r="C304" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A304&amp;"','','"&amp;SUBSTITUTE(B304,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-FHA-02-450','','Attach the latest available accounts for the UK ultimate parent company. Organisations that are subject to the financial health assessment must submit their UK parent company accounts or they will fail the process','Live',GETUTCDATE(),'Import')</v>
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-304'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-304','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>366</v>
-      </c>
-      <c r="B305" t="s">
+        <v>561</v>
+      </c>
+      <c r="C305" t="str">
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-305'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-305','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>365</v>
+      </c>
+      <c r="B306" t="s">
+        <v>194</v>
+      </c>
+      <c r="C306" t="str">
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-306'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-306','','Date of proceedings','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>193</v>
+      </c>
+      <c r="B307" t="s">
+        <v>194</v>
+      </c>
+      <c r="C307" t="str">
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-307'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-307','','Date of proceedings','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>270</v>
+      </c>
+      <c r="C308" t="str">
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-308'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-308','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>562</v>
+      </c>
+      <c r="C309" t="str">
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-309'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-309','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>108</v>
+      </c>
+      <c r="B310" t="s">
+        <v>109</v>
+      </c>
+      <c r="C310" t="str">
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-310'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-310','','If repaying debts, how you are repaying the debt?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>183</v>
+      </c>
+      <c r="B311" t="s">
+        <v>109</v>
+      </c>
+      <c r="C311" t="str">
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-311'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-311','','If repaying debts, how you are repaying the debt?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>226</v>
+      </c>
+      <c r="C312" t="str">
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-312'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-312','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>563</v>
+      </c>
+      <c r="C313" t="str">
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-313'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-313','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>238</v>
+      </c>
+      <c r="B314" t="s">
+        <v>239</v>
+      </c>
+      <c r="C314" t="str">
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-314'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-314','','Date the debt will be cleared','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>385</v>
+      </c>
+      <c r="B315" t="s">
+        <v>239</v>
+      </c>
+      <c r="C315" t="str">
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-315'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-315','','Date the debt will be cleared','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>119</v>
+      </c>
+      <c r="C316" t="str">
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-316'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-20.1-D_DEL-13-1-316','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>197</v>
+      </c>
+      <c r="B317" t="s">
+        <v>198</v>
+      </c>
+      <c r="C317" t="str">
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-317'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-317','','NO TITLE FOR THIS IN SPREADSHEET','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>116</v>
+      </c>
+      <c r="B318" t="s">
+        <v>413</v>
+      </c>
+      <c r="C318" t="str">
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-318'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-318','','&lt;p class="govuk-body"&gt;You must confirm the accuracy of the information in this declaration and in your application to deliver end-point assessments. We might ask you for proof after youï¿½ve submitted your application.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>567</v>
+      </c>
+      <c r="C319" t="str">
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-319'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-319','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>216</v>
+      </c>
+      <c r="B320" t="s">
+        <v>198</v>
+      </c>
+      <c r="C320" t="str">
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-320'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-320','','NO TITLE FOR THIS IN SPREADSHEET','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>568</v>
+      </c>
+      <c r="C321" t="str">
+        <f t="shared" si="4"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-21-321'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21-321','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>390</v>
+      </c>
+      <c r="B322" t="s">
+        <v>281</v>
+      </c>
+      <c r="C322" t="str">
+        <f t="shared" ref="C322:C385" si="5">"DELETE FROM Assets WHERE Reference = '"&amp;A322&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A322&amp;"','','"&amp;SUBSTITUTE(B322,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-21-322'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21-322','','Confirm whether your organisation or any of your partner organisations is in:','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>280</v>
+      </c>
+      <c r="B323" t="s">
+        <v>281</v>
+      </c>
+      <c r="C323" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-21-323'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21-323','','Confirm whether your organisation or any of your partner organisations is in:','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>333</v>
+      </c>
+      <c r="B324" t="s">
+        <v>334</v>
+      </c>
+      <c r="C324" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-21-324'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21-324','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;voluntary administration or company voluntary arrangement&lt;/li&gt;&lt;li&gt;compulsory winding up&lt;/li&gt;&lt;li&gt;receivership&lt;/li&gt;&lt;li&gt;composition with creditors&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>326</v>
+      </c>
+      <c r="C325" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-21.1-325'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21.1-325','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>400</v>
+      </c>
+      <c r="B326" t="s">
+        <v>2</v>
+      </c>
+      <c r="C326" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-21.1-326'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21.1-326','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>344</v>
+      </c>
+      <c r="B327" t="s">
+        <v>2</v>
+      </c>
+      <c r="C327" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-21.1-327'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21.1-327','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>166</v>
+      </c>
+      <c r="C328" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-21.1-328'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-21.1-328','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>569</v>
+      </c>
+      <c r="C329" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-22-329'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22-329','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>356</v>
+      </c>
+      <c r="B330" t="s">
+        <v>425</v>
+      </c>
+      <c r="C330" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-22-330'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22-330','','Confirm whether any of your organisationï¿½s tax returns, submitted on or after 1 October 2012, have:','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>317</v>
+      </c>
+      <c r="B331" t="s">
+        <v>318</v>
+      </c>
+      <c r="C331" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-22-331'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22-331','','Why a tax return was incorrect','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>74</v>
+      </c>
+      <c r="B332" t="s">
+        <v>75</v>
+      </c>
+      <c r="C332" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-22-332'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22-332','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;been found to be incorrect as of 1 April 2013&lt;/li&gt;&lt;li&gt;given rise to a criminal conviction for tax-related offences which is unspent, or to a civil penalty for fraud or evasion&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>73</v>
+      </c>
+      <c r="C333" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-22.1-333'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22.1-333','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>138</v>
+      </c>
+      <c r="B334" t="s">
+        <v>2</v>
+      </c>
+      <c r="C334" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-22.1-334'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22.1-334','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>3</v>
+      </c>
+      <c r="B335" t="s">
+        <v>2</v>
+      </c>
+      <c r="C335" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-22.1-335'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22.1-335','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>195</v>
+      </c>
+      <c r="C336" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-22.1-336'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-22.1-336','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>570</v>
+      </c>
+      <c r="C337" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-23-337'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23-337','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>93</v>
+      </c>
+      <c r="B338" t="s">
+        <v>411</v>
+      </c>
+      <c r="C338" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-23-338'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23-338','','Confirm whether any of your organisationï¿½s tax returns, submitted on or after 1 October 2012, have been found to be incorrect on or after 1 April 2013 because:','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>327</v>
+      </c>
+      <c r="B339" t="s">
+        <v>318</v>
+      </c>
+      <c r="C339" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-23-339'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23-339','','Why a tax return was incorrect','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>99</v>
+      </c>
+      <c r="B340" t="s">
+        <v>100</v>
+      </c>
+      <c r="C340" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-23-340'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23-340','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;HMRC successfully challenged it under the General Anti-Abuse Rule (GAAR) or Halifax abuse principle OR&lt;/li&gt;&lt;li&gt;a tax authority (in a jurisdiction in which your organisation is established) successfully challenging it under any tax rules or legislation that have an effect equivalent or similar to the GAAR or Halifax abuse principle&lt;/li&gt;&lt;li&gt;given rise to a criminal conviction for tax-related offences which is unspent, or to a civil penalty for fraud or evasion&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>105</v>
+      </c>
+      <c r="C341" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-23.1-341'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23.1-341','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>381</v>
+      </c>
+      <c r="B342" t="s">
+        <v>2</v>
+      </c>
+      <c r="C342" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-23.1-342'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23.1-342','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>242</v>
+      </c>
+      <c r="B343" t="s">
+        <v>2</v>
+      </c>
+      <c r="C343" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-23.1-343'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23.1-343','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>123</v>
+      </c>
+      <c r="C344" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-23.1-344'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-23.1-344','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>571</v>
+      </c>
+      <c r="C345" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-24-345'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24-345','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>121</v>
+      </c>
+      <c r="B346" t="s">
+        <v>122</v>
+      </c>
+      <c r="C346" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-24-346'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24-346','','Has your organisation had any contract for the delivery of services withdrawn within the last 3 financial years?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>179</v>
+      </c>
+      <c r="B347" t="s">
+        <v>180</v>
+      </c>
+      <c r="C347" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-24-347'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24-347','','Contracts withdrawn from you','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>342</v>
+      </c>
+      <c r="B348" t="s">
+        <v>100</v>
+      </c>
+      <c r="C348" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-24-348'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24-348','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;HMRC successfully challenged it under the General Anti-Abuse Rule (GAAR) or Halifax abuse principle OR&lt;/li&gt;&lt;li&gt;a tax authority (in a jurisdiction in which your organisation is established) successfully challenging it under any tax rules or legislation that have an effect equivalent or similar to the GAAR or Halifax abuse principle&lt;/li&gt;&lt;li&gt;given rise to a criminal conviction for tax-related offences which is unspent, or to a civil penalty for fraud or evasion&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>249</v>
+      </c>
+      <c r="C349" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-24.1-349'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24.1-349','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>135</v>
+      </c>
+      <c r="B350" t="s">
+        <v>2</v>
+      </c>
+      <c r="C350" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-24.1-350'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24.1-350','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>221</v>
+      </c>
+      <c r="B351" t="s">
+        <v>2</v>
+      </c>
+      <c r="C351" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-24.1-351'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24.1-351','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>315</v>
+      </c>
+      <c r="C352" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-24.1-352'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-24.1-352','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>572</v>
+      </c>
+      <c r="C353" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-25-353'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25-353','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>26</v>
+      </c>
+      <c r="B354" t="s">
+        <v>27</v>
+      </c>
+      <c r="C354" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-25-354'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25-354','','Has your organisation withdrawn from a contract for the delivery of services within the last 3 years?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>306</v>
+      </c>
+      <c r="B355" t="s">
+        <v>307</v>
+      </c>
+      <c r="C355" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-25-355'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25-355','','Withdrawn from contracts','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>386</v>
+      </c>
+      <c r="B356" t="s">
+        <v>100</v>
+      </c>
+      <c r="C356" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-25-356'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25-356','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;HMRC successfully challenged it under the General Anti-Abuse Rule (GAAR) or Halifax abuse principle OR&lt;/li&gt;&lt;li&gt;a tax authority (in a jurisdiction in which your organisation is established) successfully challenging it under any tax rules or legislation that have an effect equivalent or similar to the GAAR or Halifax abuse principle&lt;/li&gt;&lt;li&gt;given rise to a criminal conviction for tax-related offences which is unspent, or to a civil penalty for fraud or evasion&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>206</v>
+      </c>
+      <c r="C357" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-25.1-357'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.1-357','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>232</v>
+      </c>
+      <c r="B358" t="s">
+        <v>2</v>
+      </c>
+      <c r="C358" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-25.1-358'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.1-358','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>231</v>
+      </c>
+      <c r="B359" t="s">
+        <v>2</v>
+      </c>
+      <c r="C359" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-25.1-359'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.1-359','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>303</v>
+      </c>
+      <c r="C360" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-25.1-360'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.1-360','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>214</v>
+      </c>
+      <c r="C361" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-25.2-361'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.2-361','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>58</v>
+      </c>
+      <c r="B362" t="s">
+        <v>35</v>
+      </c>
+      <c r="C362" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-25.2-362'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.2-362','','Full name','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>34</v>
+      </c>
+      <c r="B363" t="s">
+        <v>35</v>
+      </c>
+      <c r="C363" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-25.2-363'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.2-363','','Full name','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>43</v>
+      </c>
+      <c r="C364" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-25.2-364'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.2-364','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>104</v>
+      </c>
+      <c r="C365" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-25.3-365'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.3-365','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>295</v>
+      </c>
+      <c r="B366" t="s">
+        <v>296</v>
+      </c>
+      <c r="C366" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-25.3-366'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.3-366','','Dates involved','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>351</v>
+      </c>
+      <c r="B367" t="s">
+        <v>296</v>
+      </c>
+      <c r="C367" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-25.3-367'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.3-367','','Dates involved','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>62</v>
+      </c>
+      <c r="C368" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-25.3-368'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-25.3-368','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>573</v>
+      </c>
+      <c r="C369" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-26-369'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26-369','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>272</v>
+      </c>
+      <c r="B370" t="s">
+        <v>273</v>
+      </c>
+      <c r="C370" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-26-370'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26-370','','Has your organisation been removed from any of the following registers?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>90</v>
+      </c>
+      <c r="B371" t="s">
+        <v>91</v>
+      </c>
+      <c r="C371" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-26-371'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26-371','','Company removed from registers','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>205</v>
+      </c>
+      <c r="B372" t="s">
+        <v>417</v>
+      </c>
+      <c r="C372" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-26-372'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26-372','','Education and Skills Funding Agencyï¿½s Register of Training Organisations RoATP, EPAO register,Ofqualï¿½s Register,Other professional or trade registers','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>225</v>
+      </c>
+      <c r="C373" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-26.1-373'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.1-373','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>175</v>
+      </c>
+      <c r="B374" t="s">
+        <v>176</v>
+      </c>
+      <c r="C374" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-26.1-374'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.1-374','','Date of removal','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>311</v>
+      </c>
+      <c r="B375" t="s">
+        <v>176</v>
+      </c>
+      <c r="C375" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-26.1-375'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.1-375','','Date of removal','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>112</v>
+      </c>
+      <c r="C376" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-26.1-376'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.1-376','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>148</v>
+      </c>
+      <c r="C377" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-26.2-377'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.2-377','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>357</v>
+      </c>
+      <c r="B378" t="s">
+        <v>38</v>
+      </c>
+      <c r="C378" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-26.2-378'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.2-378','','Reasons why','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>37</v>
+      </c>
+      <c r="B379" t="s">
+        <v>38</v>
+      </c>
+      <c r="C379" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-26.2-379'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.2-379','','Reasons why','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>66</v>
+      </c>
+      <c r="C380" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-26.2-380'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-26.2-380','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>574</v>
+      </c>
+      <c r="C381" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-27-381'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27-381','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>392</v>
+      </c>
+      <c r="B382" t="s">
+        <v>393</v>
+      </c>
+      <c r="C382" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-27-382'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27-382','','Has your organisation received direction or sanctions from any of the following?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>185</v>
+      </c>
+      <c r="B383" t="s">
+        <v>186</v>
+      </c>
+      <c r="C383" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-27-383'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27-383','','Direction and sanctions','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>15</v>
+      </c>
+      <c r="B384" t="s">
+        <v>16</v>
+      </c>
+      <c r="C384" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-27-384'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27-384','','Ofqual,The QAA,Awarding organisations,Other similar bodies','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>192</v>
+      </c>
+      <c r="C385" t="str">
+        <f t="shared" si="5"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-27.1-385'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.1-385','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>181</v>
+      </c>
+      <c r="B386" t="s">
+        <v>182</v>
+      </c>
+      <c r="C386" t="str">
+        <f t="shared" ref="C386:C449" si="6">"DELETE FROM Assets WHERE Reference = '"&amp;A386&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A386&amp;"','','"&amp;SUBSTITUTE(B386,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-27.1-386'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.1-386','','Date of sanction','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>371</v>
+      </c>
+      <c r="B387" t="s">
+        <v>182</v>
+      </c>
+      <c r="C387" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-27.1-387'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.1-387','','Date of sanction','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>209</v>
+      </c>
+      <c r="C388" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-27.1-388'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.1-388','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>250</v>
+      </c>
+      <c r="C389" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-27.2-389'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.2-389','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>63</v>
+      </c>
+      <c r="B390" t="s">
+        <v>38</v>
+      </c>
+      <c r="C390" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-27.2-390'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.2-390','','Reasons why','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>160</v>
+      </c>
+      <c r="B391" t="s">
+        <v>38</v>
+      </c>
+      <c r="C391" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-27.2-391'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.2-391','','Reasons why','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>233</v>
+      </c>
+      <c r="C392" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-27.2-392'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-27.2-392','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>575</v>
+      </c>
+      <c r="C393" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-28-393'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28-393','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>401</v>
+      </c>
+      <c r="B394" t="s">
+        <v>402</v>
+      </c>
+      <c r="C394" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-28-394'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28-394','','Has your organisation ever had to repay public money?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>69</v>
+      </c>
+      <c r="B395" t="s">
+        <v>70</v>
+      </c>
+      <c r="C395" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-28-395'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28-395','','Repaying public money','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>353</v>
+      </c>
+      <c r="C396" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-28-396'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28-396','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>83</v>
+      </c>
+      <c r="C397" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-28.1-397'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28.1-397','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>1</v>
+      </c>
+      <c r="B398" t="s">
+        <v>2</v>
+      </c>
+      <c r="C398" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-28.1-398'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28.1-398','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>170</v>
+      </c>
+      <c r="C399" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-28.1-399'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28.1-399','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>44</v>
+      </c>
+      <c r="C400" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-28.1-400'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-28.1-400','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>576</v>
+      </c>
+      <c r="C401" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-29-401'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29-401','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>243</v>
+      </c>
+      <c r="B402" t="s">
+        <v>244</v>
+      </c>
+      <c r="C402" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-29-402'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29-402','','Have any directors, shareholders, senior employees or someone that has powers of representation, decision or control of your organisation had any of the following?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>301</v>
+      </c>
+      <c r="B403" t="s">
+        <v>302</v>
+      </c>
+      <c r="C403" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-29-403'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29-403','','Public bodies','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>323</v>
+      </c>
+      <c r="C404" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-29-404'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29-404','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>340</v>
+      </c>
+      <c r="C405" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-29.1-405'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29.1-405','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>78</v>
+      </c>
+      <c r="B406" t="s">
+        <v>2</v>
+      </c>
+      <c r="C406" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-29.1-406'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29.1-406','','Provide details of any mitigating factors that you think should be taken into consideration','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>57</v>
+      </c>
+      <c r="C407" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-29.1-407'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29.1-407','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>200</v>
+      </c>
+      <c r="C408" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-29.1-408'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-29.1-408','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>577</v>
+      </c>
+      <c r="C409" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-30-409'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30-409','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>54</v>
+      </c>
+      <c r="B410" t="s">
+        <v>55</v>
+      </c>
+      <c r="C410" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-30-410'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30-410','','Does your organisation have any outstanding or ongoing legal dispute that could prevent you from conducting end-point assessments?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>71</v>
+      </c>
+      <c r="B411" t="s">
+        <v>72</v>
+      </c>
+      <c r="C411" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-30-411'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30-411','','Legal disputes','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>101</v>
+      </c>
+      <c r="C412" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-30-412'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30-412','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>61</v>
+      </c>
+      <c r="C413" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-30.1-413'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.1-413','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>382</v>
+      </c>
+      <c r="B414" t="s">
+        <v>133</v>
+      </c>
+      <c r="C414" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-30.1-414'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.1-414','','Date','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>201</v>
+      </c>
+      <c r="C415" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-30.1-415'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.1-415','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>346</v>
+      </c>
+      <c r="C416" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-30.1-416'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.1-416','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>341</v>
+      </c>
+      <c r="C417" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-30.2-417'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.2-417','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>259</v>
+      </c>
+      <c r="B418" t="s">
+        <v>260</v>
+      </c>
+      <c r="C418" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-30.2-418'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.2-418','','Details of the dispute','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>199</v>
+      </c>
+      <c r="C419" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-30.2-419'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.2-419','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>294</v>
+      </c>
+      <c r="C420" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-30.2-420'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.2-420','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>363</v>
+      </c>
+      <c r="C421" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-30.3-421'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.3-421','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>207</v>
+      </c>
+      <c r="B422" t="s">
+        <v>208</v>
+      </c>
+      <c r="C422" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-30.3-422'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.3-422','','Current status of the dispute','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>338</v>
+      </c>
+      <c r="C423" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-30.3-423'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.3-423','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>360</v>
+      </c>
+      <c r="C424" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-21-A_DEL-30.3-424'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-21-A_DEL-30.3-424','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>336</v>
+      </c>
+      <c r="B425" t="s">
+        <v>88</v>
+      </c>
+      <c r="C425" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-22-425'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-425','','Application accuracy','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>262</v>
+      </c>
+      <c r="B426" t="s">
+        <v>413</v>
+      </c>
+      <c r="C426" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-22-426'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-426','','&lt;p class="govuk-body"&gt;You must confirm the accuracy of the information in this declaration and in your application to deliver end-point assessments. We might ask you for proof after youï¿½ve submitted your application.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>578</v>
+      </c>
+      <c r="C427" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-22-427'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-427','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>87</v>
+      </c>
+      <c r="B428" t="s">
+        <v>88</v>
+      </c>
+      <c r="C428" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-22-428'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-428','','Application accuracy','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>579</v>
+      </c>
+      <c r="C429" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-22-A_DEL-28-429'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-28-429','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>271</v>
+      </c>
+      <c r="B430" t="s">
+        <v>420</v>
+      </c>
+      <c r="C430" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-22-A_DEL-28-430'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-28-430','','I certify that the information provided is accurate and accept the conditions and undertakings requested in this application. It''s understood that false information may result in:','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>245</v>
+      </c>
+      <c r="B431" t="s">
+        <v>420</v>
+      </c>
+      <c r="C431" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-22-A_DEL-28-431'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-28-431','','I certify that the information provided is accurate and accept the conditions and undertakings requested in this application. It''s understood that false information may result in:','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>268</v>
+      </c>
+      <c r="B432" t="s">
+        <v>269</v>
+      </c>
+      <c r="C432" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-22-A_DEL-28-432'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-28-432','','&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;exclusion from this and future registers&lt;/li&gt;&lt;li&gt;the removal from the Register of End-point Assessments Organisations&lt;/li&gt;&lt;li&gt;the withdrawal of contracts with employers&lt;/li&gt;&lt;li&gt;civil or criminal proceedings&lt;/li&gt;&lt;/ul&gt;','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>580</v>
+      </c>
+      <c r="C433" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-22-A_DEL-29-433'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-29-433','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>274</v>
+      </c>
+      <c r="B434" t="s">
+        <v>275</v>
+      </c>
+      <c r="C434" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-22-A_DEL-29-434'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-29-434','','Will your applications to deliver end-point assessments for standards be accurate and true representations?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>352</v>
+      </c>
+      <c r="B435" t="s">
+        <v>275</v>
+      </c>
+      <c r="C435" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-22-A_DEL-29-435'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-29-435','','Will your applications to deliver end-point assessments for standards be accurate and true representations?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>329</v>
+      </c>
+      <c r="C436" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-22-A_DEL-29-436'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-29-436','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>581</v>
+      </c>
+      <c r="C437" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-22-A_DEL-30-437'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-30-437','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>261</v>
+      </c>
+      <c r="B438" t="s">
+        <v>19</v>
+      </c>
+      <c r="C438" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-22-A_DEL-30-438'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-30-438','','Do you agree your company details will be added to the register of end-point assessment organisations if your application is successful?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>18</v>
+      </c>
+      <c r="B439" t="s">
+        <v>19</v>
+      </c>
+      <c r="C439" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-22-A_DEL-30-439'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-30-439','','Do you agree your company details will be added to the register of end-point assessment organisations if your application is successful?','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>189</v>
+      </c>
+      <c r="C440" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-2-PG-22-A_DEL-30-440'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-2-PG-22-A_DEL-30-440','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>127</v>
+      </c>
+      <c r="B441" t="s">
+        <v>439</v>
+      </c>
+      <c r="C441" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-3-PG-23-441'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-441','','Financial health assessment','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>95</v>
+      </c>
+      <c r="B442" t="s">
+        <v>412</v>
+      </c>
+      <c r="C442" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-3-PG-23-442'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-442','','&lt;p class="govuk-body"&gt;You will fail the financial health assessment process if you do not upload financial statements where available. Management accounts must only be submitted where financial statements/accounts are yet to be produced.&lt;/p&gt;&lt;p class="govuk-body"&gt;For further information on what you must include if you select ï¿½aï¿½, ï¿½bï¿½ or ï¿½cï¿½ please check &lt;a class="govuk-link" href="https://www.gov.uk/government/publications/esfa-financial-health-assessment/"&gt;https://www.gov.uk/government/publications/esfa-financial-health-assessment&lt;/a&gt;.&lt;/p&gt;','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>582</v>
+      </c>
+      <c r="C443" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-3-PG-23-443'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-443','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>163</v>
+      </c>
+      <c r="B444" t="s">
+        <v>439</v>
+      </c>
+      <c r="C444" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-3-PG-23-444'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-444','','Financial health assessment','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>583</v>
+      </c>
+      <c r="C445" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-3-PG-23-FHA-01-445'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-FHA-01-445','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>52</v>
+      </c>
+      <c r="B446" t="s">
+        <v>53</v>
+      </c>
+      <c r="C446" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-3-PG-23-FHA-01-446'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-FHA-01-446','','Upload your financial evidences','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>276</v>
+      </c>
+      <c r="B447" t="s">
+        <v>53</v>
+      </c>
+      <c r="C447" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-3-PG-23-FHA-01-447'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-FHA-01-447','','Upload your financial evidences','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>584</v>
+      </c>
+      <c r="C448" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-3-PG-23-FHA-01-448'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-FHA-01-448','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>585</v>
+      </c>
+      <c r="C449" t="str">
+        <f t="shared" si="6"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-3-PG-23-FHA-02-449'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-FHA-02-449','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>154</v>
+      </c>
+      <c r="B450" t="s">
         <v>155</v>
       </c>
-      <c r="C305" t="str">
-        <f>"INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A305&amp;"','','"&amp;SUBSTITUTE(B305,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
-        <v>INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-FHA-02-451','','Attach the latest available accounts for the UK ultimate parent company. Organisations that are subject to the financial health assessment must submit their UK parent company accounts or they will fail the process','Live',GETUTCDATE(),'Import')</v>
+      <c r="C450" t="str">
+        <f t="shared" ref="C450:C452" si="7">"DELETE FROM Assets WHERE Reference = '"&amp;A450&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A450&amp;"','','"&amp;SUBSTITUTE(B450,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-3-PG-23-FHA-02-450'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-FHA-02-450','','Attach the latest available accounts for the UK ultimate parent company. Organisations that are subject to the financial health assessment must submit their UK parent company accounts or they will fail the process','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>364</v>
+      </c>
+      <c r="B451" t="s">
+        <v>155</v>
+      </c>
+      <c r="C451" t="str">
+        <f t="shared" si="7"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-3-PG-23-FHA-02-451'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-FHA-02-451','','Attach the latest available accounts for the UK ultimate parent company. Organisations that are subject to the financial health assessment must submit their UK parent company accounts or they will fail the process','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>586</v>
+      </c>
+      <c r="C452" t="str">
+        <f t="shared" si="7"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-3-PG-23-FHA-02-452'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-FHA-02-452','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:C305">
-    <sortCondition ref="A1"/>
+  <sortState ref="A1:C459">
+    <sortCondition ref="A379"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/assets.xlsx
+++ b/src/assets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregdbarnes/Sites/esfa/repositories/das-apply-service/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B310EE-ACE9-DE4E-82DC-26CF474B80D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7202A9-D1C1-154A-A68E-68A9759FE95E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="27500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="605">
   <si>
     <t>SQ-1-SE-1-PG-11-150</t>
   </si>
@@ -1790,6 +1790,51 @@
   </si>
   <si>
     <t>Name to use on the register</t>
+  </si>
+  <si>
+    <t>SQ-2-SE-4-PG-24-T-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Your policies and practices</t>
+  </si>
+  <si>
+    <t>SQ-2-SE-4-PG-24-LT-1</t>
+  </si>
+  <si>
+    <t>SQ-2-SE-4-PG-24-CC-03-L-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload a copy of your fraud and financial irregularity policy</t>
+  </si>
+  <si>
+    <t>SQ-2-SE-4-PG-24-CC-07-L-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload a copy of your insurance certificate</t>
+  </si>
+  <si>
+    <t>SQ-2-SE-4-PG-24-CC-03-SL-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fraud &amp; financial irregularity policy</t>
+  </si>
+  <si>
+    <t>SQ-2-SE-4-PG-24-CC-07-SL-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proof of insurance</t>
+  </si>
+  <si>
+    <t>SQ-2-SE-4-PG-24-CC-03-QB-1</t>
+  </si>
+  <si>
+    <t>SQ-2-SE-4-PG-24-CC-03-H-1</t>
+  </si>
+  <si>
+    <t>SQ-2-SE-4-PG-24-CC-07-QB-1</t>
+  </si>
+  <si>
+    <t>SQ-2-SE-4-PG-24-CC-07-H-1</t>
   </si>
 </sst>
 </file>
@@ -2630,10 +2675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C452"/>
+  <dimension ref="A1:C462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="C463" sqref="C463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7297,7 +7342,7 @@
         <v>155</v>
       </c>
       <c r="C450" t="str">
-        <f t="shared" ref="C450:C452" si="7">"DELETE FROM Assets WHERE Reference = '"&amp;A450&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A450&amp;"','','"&amp;SUBSTITUTE(B450,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
+        <f t="shared" ref="C450:C463" si="7">"DELETE FROM Assets WHERE Reference = '"&amp;A450&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A450&amp;"','','"&amp;SUBSTITUTE(B450,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-3-PG-23-FHA-02-450'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-FHA-02-450','','Attach the latest available accounts for the UK ultimate parent company. Organisations that are subject to the financial health assessment must submit their UK parent company accounts or they will fail the process','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
@@ -7320,6 +7365,114 @@
       <c r="C452" t="str">
         <f t="shared" si="7"/>
         <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-3-PG-23-FHA-02-452'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-FHA-02-452','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>590</v>
+      </c>
+      <c r="B453" t="s">
+        <v>591</v>
+      </c>
+      <c r="C453" t="str">
+        <f t="shared" si="7"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-2-SE-4-PG-24-T-1'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-2-SE-4-PG-24-T-1','',' Your policies and practices','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>592</v>
+      </c>
+      <c r="B454" t="s">
+        <v>591</v>
+      </c>
+      <c r="C454" t="str">
+        <f t="shared" si="7"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-2-SE-4-PG-24-LT-1'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-2-SE-4-PG-24-LT-1','',' Your policies and practices','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>593</v>
+      </c>
+      <c r="B455" t="s">
+        <v>594</v>
+      </c>
+      <c r="C455" t="str">
+        <f t="shared" si="7"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-2-SE-4-PG-24-CC-03-L-1'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-2-SE-4-PG-24-CC-03-L-1','',' Upload a copy of your fraud and financial irregularity policy','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>595</v>
+      </c>
+      <c r="B456" t="s">
+        <v>596</v>
+      </c>
+      <c r="C456" t="str">
+        <f t="shared" si="7"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-2-SE-4-PG-24-CC-07-L-1'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-2-SE-4-PG-24-CC-07-L-1','',' Upload a copy of your insurance certificate','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>597</v>
+      </c>
+      <c r="B457" t="s">
+        <v>598</v>
+      </c>
+      <c r="C457" t="str">
+        <f t="shared" si="7"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-2-SE-4-PG-24-CC-03-SL-1'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-2-SE-4-PG-24-CC-03-SL-1','',' Fraud &amp; financial irregularity policy','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>599</v>
+      </c>
+      <c r="B458" t="s">
+        <v>600</v>
+      </c>
+      <c r="C458" t="str">
+        <f t="shared" si="7"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-2-SE-4-PG-24-CC-07-SL-1'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-2-SE-4-PG-24-CC-07-SL-1','',' Proof of insurance','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>601</v>
+      </c>
+      <c r="C459" t="str">
+        <f t="shared" si="7"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-2-SE-4-PG-24-CC-03-QB-1'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-2-SE-4-PG-24-CC-03-QB-1','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>602</v>
+      </c>
+      <c r="C460" t="str">
+        <f t="shared" si="7"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-2-SE-4-PG-24-CC-03-H-1'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-2-SE-4-PG-24-CC-03-H-1','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>603</v>
+      </c>
+      <c r="C461" t="str">
+        <f t="shared" si="7"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-2-SE-4-PG-24-CC-07-QB-1'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-2-SE-4-PG-24-CC-07-QB-1','','','Live',GETUTCDATE(),'Import')</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>604</v>
+      </c>
+      <c r="C462" t="str">
+        <f t="shared" si="7"/>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-2-SE-4-PG-24-CC-07-H-1'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-2-SE-4-PG-24-CC-07-H-1','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets.xlsx
+++ b/src/assets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregdbarnes/Sites/esfa/repositories/das-apply-service/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7202A9-D1C1-154A-A68E-68A9759FE95E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC08E6C-A8D9-7D40-8FBA-5F3E4E09706A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="27500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,9 +463,6 @@
     <t>SQ-1-SE-1-PG-6-CD-14.1-94</t>
   </si>
   <si>
-    <t>Provide details</t>
-  </si>
-  <si>
     <t>SQ-1-SE-2-PG-21-A_DEL-26.2-377</t>
   </si>
   <si>
@@ -823,9 +820,6 @@
     <t>SQ-1-SE-1-PG-10-CD-18.1-142</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>SQ-1-SE-2-PG-22-A_DEL-28-432</t>
   </si>
   <si>
@@ -1216,9 +1210,6 @@
     <t>SQ-1-SE-1-PG-15-CD-27-206</t>
   </si>
   <si>
-    <t>Has any director, or any other person with significant control of your organisation, been removed from the Charities Commission or appear on the Register of Removed Trustees?</t>
-  </si>
-  <si>
     <t>SQ-1-SE-1-PG-10-CD-18.1-143</t>
   </si>
   <si>
@@ -1324,9 +1315,6 @@
     <t>Do you have a company number?</t>
   </si>
   <si>
-    <t>Is your company registered overseas?</t>
-  </si>
-  <si>
     <t>Date of incident</t>
   </si>
   <si>
@@ -1835,6 +1823,18 @@
   </si>
   <si>
     <t>SQ-2-SE-4-PG-24-CC-07-H-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide details of other positions or directorships </t>
+  </si>
+  <si>
+    <t>Is your parent company registered overseas?</t>
+  </si>
+  <si>
+    <t>Which country?</t>
+  </si>
+  <si>
+    <t>Has any director, or any other person with significant control of your organisation, been removed from the charities commission or appear on the register of removed trustees?</t>
   </si>
 </sst>
 </file>
@@ -2677,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="C463" sqref="C463"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2689,10 +2689,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C1" t="str">
         <f>"DELETE FROM Assets WHERE Reference = '"&amp;A1&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A1&amp;"','','"&amp;SUBSTITUTE(B1,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -2719,10 +2719,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C9" t="str">
         <f>"DELETE FROM Assets WHERE Reference = '"&amp;A9&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A9&amp;"','','"&amp;SUBSTITUTE(B9,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -2797,10 +2797,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B12" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -2890,7 +2890,7 @@
         <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B34" t="s">
         <v>82</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
@@ -3058,10 +3058,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
@@ -3097,10 +3097,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
@@ -3130,7 +3130,7 @@
         <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B50" t="s">
         <v>35</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
@@ -3295,10 +3295,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B62" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="0"/>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="0"/>
@@ -3334,10 +3334,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B66" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" ref="C66:C129" si="1">"DELETE FROM Assets WHERE Reference = '"&amp;A66&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A66&amp;"','','"&amp;SUBSTITUTE(B66,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="1"/>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="1"/>
@@ -3364,10 +3364,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B69" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="1"/>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
@@ -3394,10 +3394,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B72" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="1"/>
@@ -3415,10 +3415,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B74" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="1"/>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="1"/>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="1"/>
@@ -3454,10 +3454,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B78" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="1"/>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="1"/>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
@@ -3484,10 +3484,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B81" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="1"/>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="1"/>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="1"/>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="1"/>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B86" t="s">
         <v>35</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="1"/>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="1"/>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="1"/>
@@ -3577,7 +3577,7 @@
         <v>42</v>
       </c>
       <c r="B90" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="1"/>
@@ -3586,7 +3586,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="1"/>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="1"/>
@@ -3616,11 +3616,11 @@
         <v>146</v>
       </c>
       <c r="B94" t="s">
-        <v>147</v>
+        <v>601</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="1"/>
-        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-6-CD-14.1-94'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14.1-94','','Provide details','Live',GETUTCDATE(),'Import')</v>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-6-CD-14.1-94'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-6-CD-14.1-94','','Provide details of other positions or directorships ','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -3664,7 +3664,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="1"/>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="1"/>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="1"/>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="1"/>
@@ -3733,10 +3733,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B106" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="1"/>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="1"/>
@@ -3763,10 +3763,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B109" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="1"/>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="1"/>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="1"/>
@@ -3793,10 +3793,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>256</v>
+      </c>
+      <c r="B112" t="s">
         <v>257</v>
-      </c>
-      <c r="B112" t="s">
-        <v>258</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="1"/>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="1"/>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="1"/>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="1"/>
@@ -3846,21 +3846,21 @@
       <c r="A117" t="s">
         <v>36</v>
       </c>
-      <c r="B117" t="s">
-        <v>265</v>
-      </c>
       <c r="C117" t="str">
-        <f t="shared" si="1"/>
-        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-8-CD-16.1-117'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16.1-117','','Describe your trading status','Live',GETUTCDATE(),'Import')</v>
+        <f>"DELETE FROM Assets WHERE Reference = '"&amp;A117&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A117&amp;"','','"&amp;SUBSTITUTE(B117,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-8-CD-16.1-117'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16.1-117','','','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>263</v>
+      </c>
+      <c r="B118" t="s">
         <v>264</v>
       </c>
       <c r="C118" t="str">
-        <f t="shared" si="1"/>
-        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-8-CD-16.1-118'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16.1-118','','','Live',GETUTCDATE(),'Import')</v>
+        <f>"DELETE FROM Assets WHERE Reference = '"&amp;A118&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A118&amp;"','','"&amp;SUBSTITUTE(B118,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-8-CD-16.1-118'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-8-CD-16.1-118','','Describe your trading status','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -3874,7 +3874,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="1"/>
@@ -3886,7 +3886,7 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="1"/>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="1"/>
@@ -3913,10 +3913,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B124" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="1"/>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="1"/>
@@ -3934,10 +3934,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B126" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="1"/>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="1"/>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="1"/>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="1"/>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" si="2"/>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="2"/>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="2"/>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="2"/>
@@ -4054,19 +4054,19 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B138" t="s">
-        <v>434</v>
+        <v>602</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="2"/>
-        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-10-CD-18-138'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18-138','','Is your company registered overseas?','Live',GETUTCDATE(),'Import')</v>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-10-CD-18-138'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18-138','','Is your parent company registered overseas?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="2"/>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="2"/>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="2"/>
@@ -4093,19 +4093,19 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B142" t="s">
-        <v>267</v>
+        <v>603</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="2"/>
-        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-10-CD-18.1-142'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.1-142','','Country','Live',GETUTCDATE(),'Import')</v>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-10-CD-18.1-142'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-10-CD-18.1-142','','Which country?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="2"/>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C144" t="str">
         <f t="shared" si="2"/>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="2"/>
@@ -4132,10 +4132,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B146" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="2"/>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="2"/>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="2"/>
@@ -4162,10 +4162,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B149" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="2"/>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" si="2"/>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="2"/>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B154" t="s">
         <v>35</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="2"/>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C156" t="str">
         <f t="shared" si="2"/>
@@ -4243,7 +4243,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="2"/>
@@ -4252,10 +4252,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>210</v>
+      </c>
+      <c r="B158" t="s">
         <v>211</v>
-      </c>
-      <c r="B158" t="s">
-        <v>212</v>
       </c>
       <c r="C158" t="str">
         <f t="shared" si="2"/>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C159" t="str">
         <f t="shared" si="2"/>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C160" t="str">
         <f t="shared" si="2"/>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C161" t="str">
         <f t="shared" si="2"/>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C163" t="str">
         <f t="shared" si="2"/>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C164" t="str">
         <f t="shared" si="2"/>
@@ -4321,10 +4321,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>235</v>
+      </c>
+      <c r="B165" t="s">
         <v>236</v>
-      </c>
-      <c r="B165" t="s">
-        <v>237</v>
       </c>
       <c r="C165" t="str">
         <f t="shared" si="2"/>
@@ -4333,10 +4333,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B166" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C166" t="str">
         <f t="shared" si="2"/>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="2"/>
@@ -4354,10 +4354,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>226</v>
+      </c>
+      <c r="B168" t="s">
         <v>227</v>
-      </c>
-      <c r="B168" t="s">
-        <v>228</v>
       </c>
       <c r="C168" t="str">
         <f t="shared" si="2"/>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C169" t="str">
         <f t="shared" si="2"/>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C171" t="str">
         <f t="shared" si="2"/>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C172" t="str">
         <f t="shared" si="2"/>
@@ -4408,7 +4408,7 @@
         <v>28</v>
       </c>
       <c r="B173" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C173" t="str">
         <f t="shared" si="2"/>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C174" t="str">
         <f t="shared" si="2"/>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="2"/>
@@ -4435,10 +4435,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B176" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="2"/>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="2"/>
@@ -4459,7 +4459,7 @@
         <v>132</v>
       </c>
       <c r="B178" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="2"/>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C179" t="str">
         <f t="shared" si="2"/>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C180" t="str">
         <f t="shared" si="2"/>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="2"/>
@@ -4507,7 +4507,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C183" t="str">
         <f t="shared" si="2"/>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C184" t="str">
         <f t="shared" si="2"/>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C185" t="str">
         <f t="shared" si="2"/>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>151</v>
+      </c>
+      <c r="B186" t="s">
         <v>152</v>
-      </c>
-      <c r="B186" t="s">
-        <v>153</v>
       </c>
       <c r="C186" t="str">
         <f t="shared" si="2"/>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C187" t="str">
         <f t="shared" si="2"/>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C188" t="str">
         <f t="shared" si="2"/>
@@ -4564,10 +4564,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B189" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C189" t="str">
         <f t="shared" si="2"/>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C190" t="str">
         <f t="shared" si="2"/>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C191" t="str">
         <f t="shared" si="2"/>
@@ -4594,10 +4594,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B192" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C192" t="str">
         <f t="shared" si="2"/>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C193" t="str">
         <f t="shared" si="2"/>
@@ -4615,10 +4615,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B194" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C194" t="str">
         <f t="shared" ref="C194:C257" si="3">"DELETE FROM Assets WHERE Reference = '"&amp;A194&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A194&amp;"','','"&amp;SUBSTITUTE(B194,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C195" t="str">
         <f t="shared" si="3"/>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C196" t="str">
         <f t="shared" si="3"/>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C197" t="str">
         <f t="shared" si="3"/>
@@ -4654,10 +4654,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B198" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C198" t="str">
         <f t="shared" si="3"/>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C199" t="str">
         <f t="shared" si="3"/>
@@ -4684,10 +4684,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B201" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C201" t="str">
         <f t="shared" si="3"/>
@@ -4696,7 +4696,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C202" t="str">
         <f t="shared" si="3"/>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C203" t="str">
         <f t="shared" si="3"/>
@@ -4714,10 +4714,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B204" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C204" t="str">
         <f t="shared" si="3"/>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C205" t="str">
         <f t="shared" si="3"/>
@@ -4735,19 +4735,19 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B206" t="s">
-        <v>398</v>
+        <v>604</v>
       </c>
       <c r="C206" t="str">
         <f t="shared" si="3"/>
-        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-15-CD-27-206'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27-206','','Has any director, or any other person with significant control of your organisation, been removed from the Charities Commission or appear on the Register of Removed Trustees?','Live',GETUTCDATE(),'Import')</v>
+        <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-1-PG-15-CD-27-206'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-1-PG-15-CD-27-206','','Has any director, or any other person with significant control of your organisation, been removed from the charities commission or appear on the register of removed trustees?','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C207" t="str">
         <f t="shared" si="3"/>
@@ -4756,7 +4756,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C208" t="str">
         <f t="shared" si="3"/>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C209" t="str">
         <f t="shared" si="3"/>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B210" t="s">
         <v>35</v>
@@ -4786,7 +4786,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C211" t="str">
         <f t="shared" si="3"/>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C212" t="str">
         <f t="shared" si="3"/>
@@ -4804,10 +4804,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>171</v>
+      </c>
+      <c r="B213" t="s">
         <v>172</v>
-      </c>
-      <c r="B213" t="s">
-        <v>173</v>
       </c>
       <c r="C213" t="str">
         <f t="shared" si="3"/>
@@ -4816,10 +4816,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B214" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C214" t="str">
         <f t="shared" si="3"/>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C215" t="str">
         <f t="shared" si="3"/>
@@ -4837,10 +4837,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B216" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C216" t="str">
         <f t="shared" si="3"/>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C217" t="str">
         <f t="shared" si="3"/>
@@ -4858,10 +4858,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B218" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C218" t="str">
         <f t="shared" si="3"/>
@@ -4870,10 +4870,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B219" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C219" t="str">
         <f t="shared" si="3"/>
@@ -4882,7 +4882,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C220" t="str">
         <f t="shared" si="3"/>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C221" t="str">
         <f t="shared" si="3"/>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C224" t="str">
         <f t="shared" si="3"/>
@@ -4945,10 +4945,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B226" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C226" t="str">
         <f t="shared" si="3"/>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C227" t="str">
         <f t="shared" si="3"/>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B228" t="s">
         <v>77</v>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C229" t="str">
         <f t="shared" si="3"/>
@@ -4987,10 +4987,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B230" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C230" t="str">
         <f t="shared" si="3"/>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B231" t="s">
         <v>77</v>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C232" t="str">
         <f t="shared" si="3"/>
@@ -5020,10 +5020,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B233" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C233" t="str">
         <f t="shared" si="3"/>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C235" t="str">
         <f t="shared" si="3"/>
@@ -5050,10 +5050,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
+        <v>201</v>
+      </c>
+      <c r="B236" t="s">
         <v>202</v>
-      </c>
-      <c r="B236" t="s">
-        <v>203</v>
       </c>
       <c r="C236" t="str">
         <f t="shared" si="3"/>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C237" t="str">
         <f t="shared" si="3"/>
@@ -5083,10 +5083,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B239" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C239" t="str">
         <f t="shared" si="3"/>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C240" t="str">
         <f t="shared" si="3"/>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C241" t="str">
         <f t="shared" si="3"/>
@@ -5113,7 +5113,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B242" t="s">
         <v>23</v>
@@ -5146,10 +5146,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>186</v>
+      </c>
+      <c r="B245" t="s">
         <v>187</v>
-      </c>
-      <c r="B245" t="s">
-        <v>188</v>
       </c>
       <c r="C245" t="str">
         <f t="shared" si="3"/>
@@ -5158,10 +5158,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B246" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C246" t="str">
         <f t="shared" si="3"/>
@@ -5170,7 +5170,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C247" t="str">
         <f t="shared" si="3"/>
@@ -5179,10 +5179,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B248" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C248" t="str">
         <f t="shared" si="3"/>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C249" t="str">
         <f t="shared" si="3"/>
@@ -5200,10 +5200,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B250" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C250" t="str">
         <f t="shared" si="3"/>
@@ -5212,10 +5212,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>176</v>
+      </c>
+      <c r="B251" t="s">
         <v>177</v>
-      </c>
-      <c r="B251" t="s">
-        <v>178</v>
       </c>
       <c r="C251" t="str">
         <f t="shared" si="3"/>
@@ -5224,10 +5224,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
+        <v>228</v>
+      </c>
+      <c r="B252" t="s">
         <v>229</v>
-      </c>
-      <c r="B252" t="s">
-        <v>230</v>
       </c>
       <c r="C252" t="str">
         <f t="shared" si="3"/>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C253" t="str">
         <f t="shared" si="3"/>
@@ -5245,10 +5245,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B254" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C254" t="str">
         <f t="shared" si="3"/>
@@ -5257,10 +5257,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>233</v>
+      </c>
+      <c r="B255" t="s">
         <v>234</v>
-      </c>
-      <c r="B255" t="s">
-        <v>235</v>
       </c>
       <c r="C255" t="str">
         <f t="shared" si="3"/>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C257" t="str">
         <f t="shared" si="3"/>
@@ -5287,10 +5287,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B258" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C258" t="str">
         <f t="shared" ref="C258:C321" si="4">"DELETE FROM Assets WHERE Reference = '"&amp;A258&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A258&amp;"','','"&amp;SUBSTITUTE(B258,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
@@ -5302,7 +5302,7 @@
         <v>45</v>
       </c>
       <c r="B259" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C259" t="str">
         <f t="shared" si="4"/>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C261" t="str">
         <f t="shared" si="4"/>
@@ -5329,10 +5329,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
+        <v>253</v>
+      </c>
+      <c r="B262" t="s">
         <v>254</v>
-      </c>
-      <c r="B262" t="s">
-        <v>255</v>
       </c>
       <c r="C262" t="str">
         <f t="shared" si="4"/>
@@ -5341,10 +5341,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
+        <v>222</v>
+      </c>
+      <c r="B263" t="s">
         <v>223</v>
-      </c>
-      <c r="B263" t="s">
-        <v>224</v>
       </c>
       <c r="C263" t="str">
         <f t="shared" si="4"/>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C264" t="str">
         <f t="shared" si="4"/>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C265" t="str">
         <f t="shared" si="4"/>
@@ -5383,10 +5383,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B267" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C267" t="str">
         <f t="shared" si="4"/>
@@ -5395,10 +5395,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B268" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C268" t="str">
         <f t="shared" si="4"/>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C269" t="str">
         <f t="shared" si="4"/>
@@ -5419,7 +5419,7 @@
         <v>13</v>
       </c>
       <c r="B270" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C270" t="str">
         <f t="shared" si="4"/>
@@ -5428,10 +5428,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
+        <v>216</v>
+      </c>
+      <c r="B271" t="s">
         <v>217</v>
-      </c>
-      <c r="B271" t="s">
-        <v>218</v>
       </c>
       <c r="C271" t="str">
         <f t="shared" si="4"/>
@@ -5440,10 +5440,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B272" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C272" t="str">
         <f t="shared" si="4"/>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C273" t="str">
         <f t="shared" si="4"/>
@@ -5461,10 +5461,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B274" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C274" t="str">
         <f t="shared" si="4"/>
@@ -5473,10 +5473,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C275" t="str">
         <f t="shared" si="4"/>
@@ -5488,7 +5488,7 @@
         <v>17</v>
       </c>
       <c r="B276" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C276" t="str">
         <f t="shared" si="4"/>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C277" t="str">
         <f t="shared" si="4"/>
@@ -5506,10 +5506,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
+        <v>251</v>
+      </c>
+      <c r="B278" t="s">
         <v>252</v>
-      </c>
-      <c r="B278" t="s">
-        <v>253</v>
       </c>
       <c r="C278" t="str">
         <f t="shared" si="4"/>
@@ -5518,10 +5518,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
+        <v>246</v>
+      </c>
+      <c r="B279" t="s">
         <v>247</v>
-      </c>
-      <c r="B279" t="s">
-        <v>248</v>
       </c>
       <c r="C279" t="str">
         <f t="shared" si="4"/>
@@ -5530,10 +5530,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B280" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C280" t="str">
         <f t="shared" si="4"/>
@@ -5557,7 +5557,7 @@
         <v>92</v>
       </c>
       <c r="B282" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C282" t="str">
         <f t="shared" si="4"/>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C283" t="str">
         <f t="shared" si="4"/>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B284" t="s">
         <v>65</v>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C285" t="str">
         <f t="shared" si="4"/>
@@ -5620,7 +5620,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C288" t="str">
         <f t="shared" si="4"/>
@@ -5629,7 +5629,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C289" t="str">
         <f t="shared" si="4"/>
@@ -5638,10 +5638,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
+        <v>167</v>
+      </c>
+      <c r="B290" t="s">
         <v>168</v>
-      </c>
-      <c r="B290" t="s">
-        <v>169</v>
       </c>
       <c r="C290" t="str">
         <f t="shared" si="4"/>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C291" t="str">
         <f t="shared" si="4"/>
@@ -5659,7 +5659,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C292" t="str">
         <f t="shared" si="4"/>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C293" t="str">
         <f t="shared" si="4"/>
@@ -5713,10 +5713,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B297" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C297" t="str">
         <f t="shared" si="4"/>
@@ -5725,7 +5725,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C298" t="str">
         <f t="shared" si="4"/>
@@ -5734,7 +5734,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C299" t="str">
         <f t="shared" si="4"/>
@@ -5743,10 +5743,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B300" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C300" t="str">
         <f t="shared" si="4"/>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C301" t="str">
         <f t="shared" si="4"/>
@@ -5764,7 +5764,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B302" t="s">
         <v>142</v>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C304" t="str">
         <f t="shared" si="4"/>
@@ -5797,7 +5797,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C305" t="str">
         <f t="shared" si="4"/>
@@ -5806,10 +5806,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B306" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C306" t="str">
         <f t="shared" si="4"/>
@@ -5818,10 +5818,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
+        <v>192</v>
+      </c>
+      <c r="B307" t="s">
         <v>193</v>
-      </c>
-      <c r="B307" t="s">
-        <v>194</v>
       </c>
       <c r="C307" t="str">
         <f t="shared" si="4"/>
@@ -5830,7 +5830,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C308" t="str">
         <f t="shared" si="4"/>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C309" t="str">
         <f t="shared" si="4"/>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B311" t="s">
         <v>109</v>
@@ -5872,7 +5872,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C312" t="str">
         <f t="shared" si="4"/>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C313" t="str">
         <f t="shared" si="4"/>
@@ -5890,10 +5890,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
+        <v>237</v>
+      </c>
+      <c r="B314" t="s">
         <v>238</v>
-      </c>
-      <c r="B314" t="s">
-        <v>239</v>
       </c>
       <c r="C314" t="str">
         <f t="shared" si="4"/>
@@ -5902,10 +5902,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B315" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C315" t="str">
         <f t="shared" si="4"/>
@@ -5923,10 +5923,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
+        <v>196</v>
+      </c>
+      <c r="B317" t="s">
         <v>197</v>
-      </c>
-      <c r="B317" t="s">
-        <v>198</v>
       </c>
       <c r="C317" t="str">
         <f t="shared" si="4"/>
@@ -5938,7 +5938,7 @@
         <v>116</v>
       </c>
       <c r="B318" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C318" t="str">
         <f t="shared" si="4"/>
@@ -5947,7 +5947,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C319" t="str">
         <f t="shared" si="4"/>
@@ -5956,10 +5956,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B320" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C320" t="str">
         <f t="shared" si="4"/>
@@ -5968,7 +5968,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C321" t="str">
         <f t="shared" si="4"/>
@@ -5977,10 +5977,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B322" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C322" t="str">
         <f t="shared" ref="C322:C385" si="5">"DELETE FROM Assets WHERE Reference = '"&amp;A322&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A322&amp;"','','"&amp;SUBSTITUTE(B322,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
@@ -5989,10 +5989,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B323" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C323" t="str">
         <f t="shared" si="5"/>
@@ -6001,10 +6001,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B324" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C324" t="str">
         <f t="shared" si="5"/>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C325" t="str">
         <f t="shared" si="5"/>
@@ -6022,7 +6022,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B326" t="s">
         <v>2</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B327" t="s">
         <v>2</v>
@@ -6046,7 +6046,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C328" t="str">
         <f t="shared" si="5"/>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C329" t="str">
         <f t="shared" si="5"/>
@@ -6064,10 +6064,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B330" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C330" t="str">
         <f t="shared" si="5"/>
@@ -6076,10 +6076,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B331" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C331" t="str">
         <f t="shared" si="5"/>
@@ -6133,7 +6133,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C336" t="str">
         <f t="shared" si="5"/>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C337" t="str">
         <f t="shared" si="5"/>
@@ -6154,7 +6154,7 @@
         <v>93</v>
       </c>
       <c r="B338" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C338" t="str">
         <f t="shared" si="5"/>
@@ -6163,10 +6163,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B339" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C339" t="str">
         <f t="shared" si="5"/>
@@ -6196,7 +6196,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B342" t="s">
         <v>2</v>
@@ -6208,7 +6208,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B343" t="s">
         <v>2</v>
@@ -6229,7 +6229,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C345" t="str">
         <f t="shared" si="5"/>
@@ -6250,10 +6250,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
+        <v>178</v>
+      </c>
+      <c r="B347" t="s">
         <v>179</v>
-      </c>
-      <c r="B347" t="s">
-        <v>180</v>
       </c>
       <c r="C347" t="str">
         <f t="shared" si="5"/>
@@ -6262,7 +6262,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B348" t="s">
         <v>100</v>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C349" t="str">
         <f t="shared" si="5"/>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B351" t="s">
         <v>2</v>
@@ -6307,7 +6307,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C352" t="str">
         <f t="shared" si="5"/>
@@ -6316,7 +6316,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C353" t="str">
         <f t="shared" si="5"/>
@@ -6337,10 +6337,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B355" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C355" t="str">
         <f t="shared" si="5"/>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B356" t="s">
         <v>100</v>
@@ -6361,7 +6361,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C357" t="str">
         <f t="shared" si="5"/>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B358" t="s">
         <v>2</v>
@@ -6382,7 +6382,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B359" t="s">
         <v>2</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C360" t="str">
         <f t="shared" si="5"/>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C361" t="str">
         <f t="shared" si="5"/>
@@ -6454,10 +6454,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B366" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C366" t="str">
         <f t="shared" si="5"/>
@@ -6466,10 +6466,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B367" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C367" t="str">
         <f t="shared" si="5"/>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C369" t="str">
         <f t="shared" si="5"/>
@@ -6496,10 +6496,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B370" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C370" t="str">
         <f t="shared" si="5"/>
@@ -6520,10 +6520,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B372" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C372" t="str">
         <f t="shared" si="5"/>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C373" t="str">
         <f t="shared" si="5"/>
@@ -6541,10 +6541,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
+        <v>174</v>
+      </c>
+      <c r="B374" t="s">
         <v>175</v>
-      </c>
-      <c r="B374" t="s">
-        <v>176</v>
       </c>
       <c r="C374" t="str">
         <f t="shared" si="5"/>
@@ -6553,10 +6553,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B375" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C375" t="str">
         <f t="shared" si="5"/>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C377" t="str">
         <f t="shared" si="5"/>
@@ -6583,7 +6583,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B378" t="s">
         <v>38</v>
@@ -6616,7 +6616,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C381" t="str">
         <f t="shared" si="5"/>
@@ -6625,10 +6625,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B382" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C382" t="str">
         <f t="shared" si="5"/>
@@ -6637,10 +6637,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
+        <v>184</v>
+      </c>
+      <c r="B383" t="s">
         <v>185</v>
-      </c>
-      <c r="B383" t="s">
-        <v>186</v>
       </c>
       <c r="C383" t="str">
         <f t="shared" si="5"/>
@@ -6661,7 +6661,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C385" t="str">
         <f t="shared" si="5"/>
@@ -6670,10 +6670,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
+        <v>180</v>
+      </c>
+      <c r="B386" t="s">
         <v>181</v>
-      </c>
-      <c r="B386" t="s">
-        <v>182</v>
       </c>
       <c r="C386" t="str">
         <f t="shared" ref="C386:C449" si="6">"DELETE FROM Assets WHERE Reference = '"&amp;A386&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A386&amp;"','','"&amp;SUBSTITUTE(B386,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
@@ -6682,10 +6682,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B387" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C387" t="str">
         <f t="shared" si="6"/>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C388" t="str">
         <f t="shared" si="6"/>
@@ -6703,7 +6703,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C389" t="str">
         <f t="shared" si="6"/>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B391" t="s">
         <v>38</v>
@@ -6736,7 +6736,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C392" t="str">
         <f t="shared" si="6"/>
@@ -6745,7 +6745,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C393" t="str">
         <f t="shared" si="6"/>
@@ -6754,10 +6754,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B394" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C394" t="str">
         <f t="shared" si="6"/>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C396" t="str">
         <f t="shared" si="6"/>
@@ -6808,7 +6808,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C399" t="str">
         <f t="shared" si="6"/>
@@ -6826,7 +6826,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C401" t="str">
         <f t="shared" si="6"/>
@@ -6835,10 +6835,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
+        <v>242</v>
+      </c>
+      <c r="B402" t="s">
         <v>243</v>
-      </c>
-      <c r="B402" t="s">
-        <v>244</v>
       </c>
       <c r="C402" t="str">
         <f t="shared" si="6"/>
@@ -6847,10 +6847,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B403" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C403" t="str">
         <f t="shared" si="6"/>
@@ -6859,7 +6859,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C404" t="str">
         <f t="shared" si="6"/>
@@ -6868,7 +6868,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C405" t="str">
         <f t="shared" si="6"/>
@@ -6898,7 +6898,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C408" t="str">
         <f t="shared" si="6"/>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C409" t="str">
         <f t="shared" si="6"/>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B414" t="s">
         <v>133</v>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C415" t="str">
         <f t="shared" si="6"/>
@@ -6979,7 +6979,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C416" t="str">
         <f t="shared" si="6"/>
@@ -6988,7 +6988,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C417" t="str">
         <f t="shared" si="6"/>
@@ -6997,10 +6997,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
+        <v>258</v>
+      </c>
+      <c r="B418" t="s">
         <v>259</v>
-      </c>
-      <c r="B418" t="s">
-        <v>260</v>
       </c>
       <c r="C418" t="str">
         <f t="shared" si="6"/>
@@ -7009,7 +7009,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C419" t="str">
         <f t="shared" si="6"/>
@@ -7018,7 +7018,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C420" t="str">
         <f t="shared" si="6"/>
@@ -7027,7 +7027,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C421" t="str">
         <f t="shared" si="6"/>
@@ -7036,10 +7036,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
+        <v>206</v>
+      </c>
+      <c r="B422" t="s">
         <v>207</v>
-      </c>
-      <c r="B422" t="s">
-        <v>208</v>
       </c>
       <c r="C422" t="str">
         <f t="shared" si="6"/>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C423" t="str">
         <f t="shared" si="6"/>
@@ -7057,7 +7057,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C424" t="str">
         <f t="shared" si="6"/>
@@ -7066,7 +7066,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B425" t="s">
         <v>88</v>
@@ -7078,10 +7078,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B426" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C426" t="str">
         <f t="shared" si="6"/>
@@ -7090,7 +7090,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C427" t="str">
         <f t="shared" si="6"/>
@@ -7111,7 +7111,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C429" t="str">
         <f t="shared" si="6"/>
@@ -7120,10 +7120,10 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B430" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C430" t="str">
         <f t="shared" si="6"/>
@@ -7132,10 +7132,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B431" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C431" t="str">
         <f t="shared" si="6"/>
@@ -7144,10 +7144,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B432" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C432" t="str">
         <f t="shared" si="6"/>
@@ -7156,7 +7156,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C433" t="str">
         <f t="shared" si="6"/>
@@ -7165,10 +7165,10 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B434" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C434" t="str">
         <f t="shared" si="6"/>
@@ -7177,10 +7177,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B435" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C435" t="str">
         <f t="shared" si="6"/>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C436" t="str">
         <f t="shared" si="6"/>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C437" t="str">
         <f t="shared" si="6"/>
@@ -7207,7 +7207,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B438" t="s">
         <v>19</v>
@@ -7231,7 +7231,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C440" t="str">
         <f t="shared" si="6"/>
@@ -7243,7 +7243,7 @@
         <v>127</v>
       </c>
       <c r="B441" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C441" t="str">
         <f t="shared" si="6"/>
@@ -7255,7 +7255,7 @@
         <v>95</v>
       </c>
       <c r="B442" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C442" t="str">
         <f t="shared" si="6"/>
@@ -7264,7 +7264,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C443" t="str">
         <f t="shared" si="6"/>
@@ -7273,10 +7273,10 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B444" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C444" t="str">
         <f t="shared" si="6"/>
@@ -7285,7 +7285,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C445" t="str">
         <f t="shared" si="6"/>
@@ -7306,7 +7306,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B447" t="s">
         <v>53</v>
@@ -7318,7 +7318,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C448" t="str">
         <f t="shared" si="6"/>
@@ -7327,7 +7327,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C449" t="str">
         <f t="shared" si="6"/>
@@ -7336,22 +7336,22 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
+        <v>153</v>
+      </c>
+      <c r="B450" t="s">
         <v>154</v>
       </c>
-      <c r="B450" t="s">
-        <v>155</v>
-      </c>
       <c r="C450" t="str">
-        <f t="shared" ref="C450:C463" si="7">"DELETE FROM Assets WHERE Reference = '"&amp;A450&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A450&amp;"','','"&amp;SUBSTITUTE(B450,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
+        <f t="shared" ref="C450:C462" si="7">"DELETE FROM Assets WHERE Reference = '"&amp;A450&amp;"'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), '"&amp;A450&amp;"','','"&amp;SUBSTITUTE(B450,"'","''")&amp;"','Live',GETUTCDATE(),'Import')"</f>
         <v>DELETE FROM Assets WHERE Reference = 'SQ-1-SE-3-PG-23-FHA-02-450'; INSERT INTO Assets (Id, Reference, Type, Text, Status, CreatedAt, CreatedBy) VALUES (NEWID(), 'SQ-1-SE-3-PG-23-FHA-02-450','','Attach the latest available accounts for the UK ultimate parent company. Organisations that are subject to the financial health assessment must submit their UK parent company accounts or they will fail the process','Live',GETUTCDATE(),'Import')</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B451" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C451" t="str">
         <f t="shared" si="7"/>
@@ -7360,7 +7360,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C452" t="str">
         <f t="shared" si="7"/>
@@ -7369,10 +7369,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B453" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C453" t="str">
         <f t="shared" si="7"/>
@@ -7381,10 +7381,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B454" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C454" t="str">
         <f t="shared" si="7"/>
@@ -7393,10 +7393,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B455" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C455" t="str">
         <f t="shared" si="7"/>
@@ -7405,10 +7405,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B456" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C456" t="str">
         <f t="shared" si="7"/>
@@ -7417,10 +7417,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B457" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C457" t="str">
         <f t="shared" si="7"/>
@@ -7429,10 +7429,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B458" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C458" t="str">
         <f t="shared" si="7"/>
@@ -7441,7 +7441,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C459" t="str">
         <f t="shared" si="7"/>
@@ -7450,7 +7450,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C460" t="str">
         <f t="shared" si="7"/>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C461" t="str">
         <f t="shared" si="7"/>
@@ -7468,7 +7468,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C462" t="str">
         <f t="shared" si="7"/>
